--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E46621-A4A6-4D19-BF1C-C6E3CF979009}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08696A03-94FC-4B1D-A368-60E15461D18F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>sheet名</t>
   </si>
@@ -683,6 +683,18 @@
   </si>
   <si>
     <t>#4. 使用线性差值公式，最终属性值 =  ( A2 * (当前关卡数-最小关卡数) + A3 * (最大关卡数-当前关卡数)   )  /  (最大关卡数 - 最小关卡数)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1231,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1586,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A24" sqref="A24:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2847,61 +2859,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2948,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08696A03-94FC-4B1D-A368-60E15461D18F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A933A-C0CA-4D6A-A77B-FA0F7D0EB5F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>sheet名</t>
   </si>
@@ -695,6 +695,14 @@
   </si>
   <si>
     <t>关卡数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starLvNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始关卡数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +930,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -948,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="7">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2859,19 +2870,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +2893,11 @@
       <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2892,8 +2907,11 @@
       <c r="C2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -2903,8 +2921,11 @@
       <c r="C3" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2914,8 +2935,12 @@
       <c r="C4" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D4" s="10">
+        <f>SUM(C$4:C4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2925,8 +2950,12 @@
       <c r="C5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D5" s="10">
+        <f>SUM(C$4:C5)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2935,6 +2964,10 @@
       </c>
       <c r="C6" s="3">
         <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <f>SUM(C$4:C6)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A933A-C0CA-4D6A-A77B-FA0F7D0EB5F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E76DEE-EB03-4B45-AFAE-4A72232B3E64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>sheet名</t>
   </si>
@@ -703,6 +703,18 @@
   </si>
   <si>
     <t>开始关卡数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于掉落，逻辑类似</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3. 从怪物属性表中，得到等级为2的掉落是D2，等级为3的掉落是D3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4.掉落D2的概率 = (当前关卡数-最小关卡数) / (最大关卡数 - 最小关卡数)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2872,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2980,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3134,6 +3146,9 @@
       <c r="C11" s="3">
         <v>8</v>
       </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -3145,6 +3160,9 @@
       <c r="C12" s="3">
         <v>9</v>
       </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -3156,6 +3174,9 @@
       <c r="C13" s="3">
         <v>10</v>
       </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -3167,6 +3188,9 @@
       <c r="C14" s="3">
         <v>11</v>
       </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -3177,6 +3201,9 @@
       </c>
       <c r="C15" s="3">
         <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E76DEE-EB03-4B45-AFAE-4A72232B3E64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5239AEF-10B9-43CE-B6F7-009AFC9BDF35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,10 +658,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(A2*(6-5)+A3(10-6))/(10 - 5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>例子</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -682,10 +678,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#4. 使用线性差值公式，最终属性值 =  ( A2 * (当前关卡数-最小关卡数) + A3 * (最大关卡数-当前关卡数)   )  /  (最大关卡数 - 最小关卡数)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>levelNum</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -714,7 +706,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#4.掉落D2的概率 = (当前关卡数-最小关卡数) / (最大关卡数 - 最小关卡数)</t>
+    <t>(A2*(10-6)+A3*(6-5))/(10 - 5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4. 使用线性差值公式，最终属性值 =  ( A2 * (最大关卡数-当前关卡数) + A3 * (当前关卡数-最小关卡数)  )  /  (最大关卡数 - 最小关卡数)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4.掉落D2的概率 = (最大关卡数 - 当前关卡数) / (最大关卡数 - 最小关卡数)   D3的概率  =  (当前关卡数 - 最小关卡数) / (最大关卡数 - 最小关卡数)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2903,10 +2903,10 @@
         <v>81</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2917,7 +2917,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2931,10 +2931,10 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3077,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3091,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3133,7 +3133,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3175,7 +3175,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3189,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5239AEF-10B9-43CE-B6F7-009AFC9BDF35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C1D87-A00A-464C-9F69-B70532A739EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,6 +999,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>646994</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6193CC-7625-4362-A404-725A333C352E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="3419475"/>
+          <a:ext cx="5647619" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2992,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3245,6 +3294,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C1D87-A00A-464C-9F69-B70532A739EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D16F24-44B8-4F47-89E8-5BB5247E2967}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D16F24-44B8-4F47-89E8-5BB5247E2967}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CA000-AA13-463D-92E2-7C173DB800E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>sheet名</t>
   </si>
@@ -591,10 +591,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>精英怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>chaId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -611,10 +607,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>火星环游</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>level.json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -643,9 +635,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>离开地球</t>
-  </si>
-  <si>
     <t>章节表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -715,6 +704,30 @@
   </si>
   <si>
     <t>#4.掉落D2的概率 = (最大关卡数 - 当前关卡数) / (最大关卡数 - 最小关卡数)   D3的概率  =  (当前关卡数 - 最小关卡数) / (最大关卡数 - 最小关卡数)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章. 离开地球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章. 火星环游</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章. 穿越木星带</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBoss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为BOSS关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1355,20 +1368,20 @@
     </row>
     <row r="2" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1383,10 +1396,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>48</v>
@@ -1407,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>49</v>
@@ -1655,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1666,70 +1679,74 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1743,93 +1760,99 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1837,37 +1860,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>1003</v>
       </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
       <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
         <v>1005</v>
       </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
       <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>1006</v>
       </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1875,37 +1901,40 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>1004</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
       <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
         <v>1002</v>
       </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
       <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
         <v>1002</v>
       </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1913,37 +1942,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1007</v>
       </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
       <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
         <v>1008</v>
       </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
       <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
         <v>1002</v>
       </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1951,37 +1983,40 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>1004</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
       <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
         <v>1007</v>
       </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
       <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
         <v>1003</v>
       </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1989,18 +2024,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>1001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2010,8 +2047,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2019,37 +2057,40 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>1003</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
       <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
         <v>1005</v>
       </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
       <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
         <v>1006</v>
       </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2057,37 +2098,40 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>1004</v>
       </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
       <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>1002</v>
       </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
       <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
         <v>1002</v>
       </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2095,37 +2139,40 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>1007</v>
       </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
       <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>1008</v>
       </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
       <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
         <v>1002</v>
       </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2133,37 +2180,40 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>1004</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>1007</v>
       </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
       <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>1003</v>
       </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2171,18 +2221,20 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>1001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2192,8 +2244,9 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2201,37 +2254,40 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1003</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
       <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>1005</v>
       </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
       <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
         <v>1006</v>
       </c>
-      <c r="J14" s="3">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2239,37 +2295,40 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>1004</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
       <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>1002</v>
       </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
       <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <v>1002</v>
       </c>
-      <c r="J15" s="3">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2277,37 +2336,40 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>1007</v>
       </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>1008</v>
       </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
       <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>1002</v>
       </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2315,37 +2377,40 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1004</v>
       </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
       <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
         <v>1007</v>
       </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
       <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
         <v>1003</v>
       </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2353,18 +2418,20 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>1001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2374,8 +2441,9 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2383,37 +2451,40 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>1003</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
       <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
         <v>1005</v>
       </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
       <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
         <v>1006</v>
       </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2421,37 +2492,40 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1004</v>
       </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
       <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
         <v>1002</v>
       </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
       <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
         <v>1002</v>
       </c>
-      <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2459,37 +2533,40 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>1007</v>
       </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
       <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
         <v>1008</v>
       </c>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
       <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
         <v>1002</v>
       </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2497,37 +2574,40 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="3">
         <v>9</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1004</v>
       </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
       <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
         <v>1007</v>
       </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
       <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
         <v>1003</v>
       </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2535,18 +2615,20 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3">
         <v>10</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>1001</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2556,8 +2638,9 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2565,37 +2648,40 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1003</v>
       </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
       <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
         <v>1005</v>
       </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
       <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
         <v>1006</v>
       </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2603,37 +2689,40 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
         <v>1004</v>
       </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
       <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
         <v>1002</v>
       </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
       <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3">
         <v>1002</v>
       </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2641,37 +2730,40 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>1007</v>
       </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
       <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
         <v>1008</v>
       </c>
-      <c r="H26" s="3">
-        <v>2</v>
-      </c>
       <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
         <v>1002</v>
       </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2679,37 +2771,40 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>1004</v>
       </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
       <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3">
         <v>1007</v>
       </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
       <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
         <v>1003</v>
       </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2717,18 +2812,20 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>1001</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -2738,8 +2835,9 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2747,37 +2845,40 @@
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3">
         <v>6</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>1003</v>
       </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
       <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3">
         <v>1005</v>
       </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
       <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
         <v>1006</v>
       </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2785,37 +2886,40 @@
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
         <v>1004</v>
       </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
       <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3">
         <v>1002</v>
       </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
       <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
         <v>1002</v>
       </c>
-      <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <v>2</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2823,37 +2927,40 @@
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
         <v>1007</v>
       </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
       <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
         <v>1008</v>
       </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
       <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
         <v>1002</v>
       </c>
-      <c r="J31" s="3">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2861,37 +2968,40 @@
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="3">
         <v>9</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1004</v>
       </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
       <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
         <v>1007</v>
       </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
       <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
         <v>1003</v>
       </c>
-      <c r="J32" s="3">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <v>2</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2899,18 +3009,20 @@
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3">
         <v>10</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
         <v>1001</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2920,6 +3032,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2934,28 +3047,28 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2966,7 +3079,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2974,46 +3087,44 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
       </c>
       <c r="D4" s="10">
-        <f>SUM(C$4:C4)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
       </c>
       <c r="D5" s="10">
-        <f>SUM(C$4:C5)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3021,14 +3132,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
       </c>
       <c r="D6" s="10">
-        <f>SUM(C$4:C6)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3112,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3126,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3140,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3154,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3168,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3182,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3196,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3210,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3224,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3238,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3252,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CA000-AA13-463D-92E2-7C173DB800E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C5EEC-A6C0-420E-97A4-D0A20F40DF85}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
   <si>
     <t>sheet名</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>是否为BOSS关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1668,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1679,21 +1691,21 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="18.875" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="5" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="15.875" customWidth="1"/>
+    <col min="18" max="18" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1710,43 +1722,46 @@
         <v>111</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1763,43 +1778,46 @@
         <v>112</v>
       </c>
       <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1816,43 +1834,46 @@
         <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1869,31 +1890,34 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3">
         <v>1003</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
       <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>1005</v>
       </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
       <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
         <v>1006</v>
       </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1910,31 +1934,34 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3">
         <v>1004</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
       <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
         <v>1002</v>
       </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
       <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
         <v>1002</v>
       </c>
-      <c r="K5" s="3">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1951,31 +1978,34 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3">
         <v>1007</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
       <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
         <v>1008</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
       <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
         <v>1002</v>
       </c>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1992,31 +2022,34 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3">
         <v>1004</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
       <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>1007</v>
       </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
       <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
         <v>1003</v>
       </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2033,12 +2066,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3">
         <v>1001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2048,8 +2083,9 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2066,31 +2102,34 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3">
         <v>1003</v>
       </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
       <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
         <v>1005</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
       <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
         <v>1006</v>
       </c>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2107,31 +2146,34 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3">
         <v>1004</v>
       </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
       <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
         <v>1002</v>
       </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
       <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
         <v>1002</v>
       </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2148,31 +2190,34 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3">
         <v>1007</v>
       </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
       <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
         <v>1008</v>
       </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
       <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
         <v>1002</v>
       </c>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2189,31 +2234,34 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3">
         <v>1004</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
       <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
         <v>1007</v>
       </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
       <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
         <v>1003</v>
       </c>
-      <c r="K12" s="3">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2230,12 +2278,14 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3">
         <v>1001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2245,8 +2295,9 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2263,31 +2314,34 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3">
         <v>1003</v>
       </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
       <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
         <v>1005</v>
       </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
       <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
         <v>1006</v>
       </c>
-      <c r="K14" s="3">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2304,31 +2358,34 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3">
         <v>1004</v>
       </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
       <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
         <v>1002</v>
       </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
       <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
         <v>1002</v>
       </c>
-      <c r="K15" s="3">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2345,31 +2402,34 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3">
         <v>1007</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
       <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
         <v>1008</v>
       </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
       <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
         <v>1002</v>
       </c>
-      <c r="K16" s="3">
-        <v>2</v>
-      </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2386,31 +2446,34 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
         <v>1004</v>
       </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
       <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>1007</v>
       </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
       <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
         <v>1003</v>
       </c>
-      <c r="K17" s="3">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2427,12 +2490,14 @@
         <v>1</v>
       </c>
       <c r="F18" s="3">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3">
         <v>1001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2442,8 +2507,9 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2460,31 +2526,34 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3">
         <v>1003</v>
       </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
       <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
         <v>1005</v>
       </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
       <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
         <v>1006</v>
       </c>
-      <c r="K19" s="3">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2501,31 +2570,34 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>60</v>
+      </c>
+      <c r="G20" s="3">
         <v>1004</v>
       </c>
-      <c r="G20" s="3">
-        <v>2</v>
-      </c>
       <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
         <v>1002</v>
       </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
       <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
         <v>1002</v>
       </c>
-      <c r="K20" s="3">
-        <v>2</v>
-      </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2542,31 +2614,34 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3">
         <v>1007</v>
       </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
       <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
         <v>1008</v>
       </c>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
       <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
         <v>1002</v>
       </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2583,31 +2658,34 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3">
         <v>1004</v>
       </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
       <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
         <v>1007</v>
       </c>
-      <c r="I22" s="3">
-        <v>2</v>
-      </c>
       <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
         <v>1003</v>
       </c>
-      <c r="K22" s="3">
-        <v>2</v>
-      </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2624,12 +2702,14 @@
         <v>1</v>
       </c>
       <c r="F23" s="3">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3">
         <v>1001</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3</v>
       </c>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2639,8 +2719,9 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2657,31 +2738,34 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3">
         <v>1003</v>
       </c>
-      <c r="G24" s="3">
-        <v>2</v>
-      </c>
       <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
         <v>1005</v>
       </c>
-      <c r="I24" s="3">
-        <v>2</v>
-      </c>
       <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
         <v>1006</v>
       </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2698,31 +2782,34 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3">
         <v>1004</v>
       </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
       <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
         <v>1002</v>
       </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
       <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
         <v>1002</v>
       </c>
-      <c r="K25" s="3">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2739,31 +2826,34 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3">
         <v>1007</v>
       </c>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
       <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
         <v>1008</v>
       </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
       <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
         <v>1002</v>
       </c>
-      <c r="K26" s="3">
-        <v>2</v>
-      </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2780,31 +2870,34 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
         <v>1004</v>
       </c>
-      <c r="G27" s="3">
-        <v>2</v>
-      </c>
       <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
         <v>1007</v>
       </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
       <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3">
         <v>1003</v>
       </c>
-      <c r="K27" s="3">
-        <v>2</v>
-      </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2821,12 +2914,14 @@
         <v>1</v>
       </c>
       <c r="F28" s="3">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3">
         <v>1001</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2836,8 +2931,9 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2854,31 +2950,34 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>60</v>
+      </c>
+      <c r="G29" s="3">
         <v>1003</v>
       </c>
-      <c r="G29" s="3">
-        <v>2</v>
-      </c>
       <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
         <v>1005</v>
       </c>
-      <c r="I29" s="3">
-        <v>2</v>
-      </c>
       <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
         <v>1006</v>
       </c>
-      <c r="K29" s="3">
-        <v>2</v>
-      </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2895,31 +2994,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="3">
+        <v>60</v>
+      </c>
+      <c r="G30" s="3">
         <v>1004</v>
       </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
       <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
         <v>1002</v>
       </c>
-      <c r="I30" s="3">
-        <v>2</v>
-      </c>
       <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
         <v>1002</v>
       </c>
-      <c r="K30" s="3">
-        <v>2</v>
-      </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2936,31 +3038,34 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
+        <v>60</v>
+      </c>
+      <c r="G31" s="3">
         <v>1007</v>
       </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
       <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
         <v>1008</v>
       </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
       <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
         <v>1002</v>
       </c>
-      <c r="K31" s="3">
-        <v>2</v>
-      </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2977,31 +3082,34 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>60</v>
+      </c>
+      <c r="G32" s="3">
         <v>1004</v>
       </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
       <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
         <v>1007</v>
       </c>
-      <c r="I32" s="3">
-        <v>2</v>
-      </c>
       <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
         <v>1003</v>
       </c>
-      <c r="K32" s="3">
-        <v>2</v>
-      </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3018,12 +3126,14 @@
         <v>1</v>
       </c>
       <c r="F33" s="3">
+        <v>60</v>
+      </c>
+      <c r="G33" s="3">
         <v>1001</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3033,6 +3143,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C5EEC-A6C0-420E-97A4-D0A20F40DF85}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D32DC6-8813-4AE3-B699-99C10988B988}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="波次规划" sheetId="32" state="hidden" r:id="rId2"/>
-    <sheet name="关卡" sheetId="30" r:id="rId3"/>
-    <sheet name="章节表" sheetId="33" r:id="rId4"/>
+    <sheet name="章节表" sheetId="33" r:id="rId3"/>
+    <sheet name="调数值关卡" sheetId="35" r:id="rId4"/>
     <sheet name="关卡属性" sheetId="31" r:id="rId5"/>
-    <sheet name="关卡规划" sheetId="29" state="hidden" r:id="rId6"/>
+    <sheet name="关卡" sheetId="30" r:id="rId6"/>
+    <sheet name="关卡规划" sheetId="29" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{EF55101F-7903-4D0B-AC28-D197185B8389}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{71B6F318-C4D6-4E1C-BE29-96930406681F}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,95 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{C42FCBF2-89E0-421F-9730-66FCBBB8327E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
       <text>
         <r>
           <rPr>
@@ -113,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
   <si>
     <t>sheet名</t>
   </si>
@@ -294,10 +383,6 @@
   </si>
   <si>
     <t>巡逻入场时间3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -719,27 +804,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>isBoss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为BOSS关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间限制</t>
+    <t>BossLvs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:a&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0,60</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调数值关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1030,16 +1147,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>646994</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323144</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>75567</xdr:rowOff>
+      <xdr:rowOff>18417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1062,7 +1179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="3419475"/>
+          <a:off x="6496050" y="3362325"/>
           <a:ext cx="5647619" cy="5066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1341,7 +1458,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1380,20 +1497,20 @@
     </row>
     <row r="2" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1401,20 +1518,20 @@
     </row>
     <row r="3" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1422,20 +1539,20 @@
     </row>
     <row r="4" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1443,10 +1560,10 @@
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -1456,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1497,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1525,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1536,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1548,10 +1665,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1560,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1572,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1584,10 +1701,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1596,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1608,10 +1725,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1620,10 +1737,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1679,11 +1796,155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1691,77 +1952,70 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
-    <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="18" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1775,28 +2029,28 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
@@ -1810,70 +2064,58 @@
       <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1881,43 +2123,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
+      <c r="E4" s="3">
+        <v>1001</v>
       </c>
       <c r="F4" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1006</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1925,43 +2161,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
+      <c r="E5" s="3">
+        <v>1001</v>
       </c>
       <c r="F5" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>1002</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1969,43 +2199,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
+      <c r="E6" s="3">
+        <v>1001</v>
       </c>
       <c r="F6" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2013,43 +2237,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
+      <c r="E7" s="3">
+        <v>1001</v>
       </c>
       <c r="F7" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1003</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2057,35 +2275,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
+      <c r="E8" s="3">
+        <v>1001</v>
       </c>
       <c r="F8" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2093,43 +2313,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>1001</v>
       </c>
       <c r="F9" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2137,43 +2351,37 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>1001</v>
       </c>
       <c r="F10" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>1002</v>
       </c>
       <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2181,43 +2389,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
+      <c r="E11" s="3">
+        <v>1001</v>
       </c>
       <c r="F11" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2225,43 +2427,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>1001</v>
       </c>
       <c r="F12" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1003</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2269,23 +2465,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="3" t="b">
-        <v>1</v>
+      <c r="E13" s="3">
+        <v>1005</v>
       </c>
       <c r="F13" s="3">
-        <v>60</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2294,10 +2486,8 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2305,43 +2495,37 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>1001</v>
       </c>
       <c r="F14" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1006</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2349,43 +2533,37 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>1001</v>
       </c>
       <c r="F15" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <v>1002</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2393,43 +2571,37 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
+      <c r="E16" s="3">
+        <v>1001</v>
       </c>
       <c r="F16" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2437,43 +2609,37 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
+      <c r="E17" s="3">
+        <v>1001</v>
       </c>
       <c r="F17" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1003</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2481,35 +2647,37 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3" t="b">
-        <v>1</v>
+      <c r="E18" s="3">
+        <v>1001</v>
       </c>
       <c r="F18" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1004</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2517,43 +2685,37 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="3" t="b">
-        <v>0</v>
+      <c r="E19" s="3">
+        <v>1001</v>
       </c>
       <c r="F19" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1006</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2561,43 +2723,37 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="b">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>1001</v>
       </c>
       <c r="F20" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>1002</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2605,43 +2761,37 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="b">
-        <v>0</v>
+      <c r="E21" s="3">
+        <v>1001</v>
       </c>
       <c r="F21" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2649,43 +2799,37 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3">
         <v>9</v>
       </c>
-      <c r="E22" s="3" t="b">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>1001</v>
       </c>
       <c r="F22" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1003</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2693,23 +2837,19 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3">
         <v>10</v>
       </c>
-      <c r="E23" s="3" t="b">
-        <v>1</v>
+      <c r="E23" s="3">
+        <v>1005</v>
       </c>
       <c r="F23" s="3">
-        <v>60</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2718,10 +2858,8 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2729,43 +2867,37 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="b">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>1001</v>
       </c>
       <c r="F24" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1006</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2773,43 +2905,37 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="b">
-        <v>0</v>
+      <c r="E25" s="3">
+        <v>1001</v>
       </c>
       <c r="F25" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>1002</v>
       </c>
       <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2817,43 +2943,37 @@
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="b">
-        <v>0</v>
+      <c r="E26" s="3">
+        <v>1001</v>
       </c>
       <c r="F26" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2861,43 +2981,37 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="b">
-        <v>0</v>
+      <c r="E27" s="3">
+        <v>1001</v>
       </c>
       <c r="F27" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1003</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2905,35 +3019,37 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="3" t="b">
-        <v>1</v>
+      <c r="E28" s="3">
+        <v>1001</v>
       </c>
       <c r="F28" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1004</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2941,43 +3057,37 @@
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3">
         <v>6</v>
       </c>
-      <c r="E29" s="3" t="b">
-        <v>0</v>
+      <c r="E29" s="3">
+        <v>1001</v>
       </c>
       <c r="F29" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1006</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2985,43 +3095,37 @@
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="3" t="b">
-        <v>0</v>
+      <c r="E30" s="3">
+        <v>1001</v>
       </c>
       <c r="F30" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <v>1002</v>
       </c>
       <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L30" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3029,43 +3133,37 @@
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
+      <c r="E31" s="3">
+        <v>1001</v>
       </c>
       <c r="F31" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J31" s="3">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1002</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3073,43 +3171,37 @@
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3">
         <v>9</v>
       </c>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>1001</v>
       </c>
       <c r="F32" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J32" s="3">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1003</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3117,23 +3209,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="3">
         <v>10</v>
       </c>
-      <c r="E33" s="3" t="b">
-        <v>1</v>
+      <c r="E33" s="3">
+        <v>1005</v>
       </c>
       <c r="F33" s="3">
-        <v>60</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3142,8 +3230,6 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3153,117 +3239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3276,10 +3257,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3298,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -3315,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3333,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3347,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3361,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3375,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3389,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3403,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3417,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3431,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3445,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3459,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3473,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3520,6 +3501,1282 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B5F60-2516-465C-86D6-D932958CCAA8}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D32DC6-8813-4AE3-B699-99C10988B988}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E541C135-2C77-40EE-A39F-2945DE8461D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1148,15 +1148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>323144</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>18417</xdr:rowOff>
+      <xdr:colOff>208844</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>132717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,7 +1179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496050" y="3362325"/>
+          <a:off x="6381750" y="3295650"/>
           <a:ext cx="5647619" cy="5066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DF00E-CF04-41BA-ABE5-E3EDCE8AAEB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0012DB-4593-4E3B-97BE-170106A4D68B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1304,15 +1304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>208844</xdr:colOff>
+      <xdr:colOff>227894</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>46992</xdr:rowOff>
+      <xdr:rowOff>37467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1335,7 +1335,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381750" y="3295650"/>
+          <a:off x="6400800" y="3286125"/>
           <a:ext cx="5647619" cy="5066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4129,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:AG1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="U29" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="X45" sqref="X45"/>
@@ -67047,8 +67047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E593AF20-EBD5-4BB8-A8AC-1EBBF7A4E145}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F106C0C-4665-4F5A-AB23-DA1185AE0B48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="208">
   <si>
     <t>sheet名</t>
   </si>
@@ -1088,6 +1088,125 @@
     <t>award[2][2].valv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>突破丹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1][3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1][3].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1][3].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3][2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3][2].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3][2].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片抽取券</t>
+  </si>
+  <si>
+    <t>天命丹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1][4].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1][4].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1][4].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4][2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4][2].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4][2].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2029,10 +2148,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2042,10 +2164,10 @@
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="18" width="18.375" customWidth="1"/>
+    <col min="7" max="30" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -2083,25 +2205,61 @@
         <v>171</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2129,8 +2287,17 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
         <v>139</v>
@@ -2138,8 +2305,53 @@
       <c r="O2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2177,13 +2389,13 @@
         <v>164</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>162</v>
@@ -2194,8 +2406,44 @@
       <c r="R3" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2223,23 +2471,59 @@
       <c r="I4" s="3">
         <v>24.5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
       <c r="M4" s="4" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>48.5</v>
-      </c>
-      <c r="P4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2267,23 +2551,71 @@
       <c r="I5" s="3">
         <v>65</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
       <c r="M5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>30</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
         <v>73.5</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2311,23 +2643,71 @@
       <c r="I6" s="3">
         <v>108.5</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10</v>
+      </c>
       <c r="M6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>30</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
         <v>132.5</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2355,23 +2735,71 @@
       <c r="I7" s="3">
         <v>149</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
+      </c>
       <c r="M7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>30</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
         <v>157.5</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2399,23 +2827,71 @@
       <c r="I8" s="3">
         <v>165</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
       <c r="M8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>50</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>50</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3">
         <v>167</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2443,23 +2919,71 @@
       <c r="I9" s="3">
         <v>172.5</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10</v>
+      </c>
       <c r="M9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>50</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
         <v>162.5</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2487,23 +3011,71 @@
       <c r="I10" s="3">
         <v>158</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>10</v>
+      </c>
       <c r="M10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>50</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
         <v>145</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2531,23 +3103,71 @@
       <c r="I11" s="3">
         <v>150</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10</v>
+      </c>
       <c r="M11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>50</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
         <v>153</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2575,23 +3195,71 @@
       <c r="I12" s="3">
         <v>195.5</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>15</v>
+      </c>
       <c r="M12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>50</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
         <v>248.5</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2619,23 +3287,71 @@
       <c r="I13" s="3">
         <v>301.5</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>15</v>
+      </c>
       <c r="M13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>70</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
         <v>354.5</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2664,23 +3380,71 @@
       <c r="I14" s="3">
         <v>407.5</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="J14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>20</v>
+      </c>
       <c r="M14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>70</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
         <v>460.5</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2709,23 +3473,71 @@
       <c r="I15" s="3">
         <v>513.5</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>20</v>
+      </c>
       <c r="M15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>70</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
         <v>566.5</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2754,23 +3566,71 @@
       <c r="I16" s="3">
         <v>619.5</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>25</v>
+      </c>
       <c r="M16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>70</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3">
         <v>677</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2799,23 +3659,71 @@
       <c r="I17" s="3">
         <v>806.5</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>25</v>
+      </c>
       <c r="M17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>70</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
         <v>955.5</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2844,23 +3752,71 @@
       <c r="I18" s="3">
         <v>1104</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>30</v>
+      </c>
       <c r="M18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>15</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
         <v>1252.5</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2889,23 +3845,71 @@
       <c r="I19" s="3">
         <v>1401.5</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="J19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>30</v>
+      </c>
       <c r="M19" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>15</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>100</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
         <v>1550</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2934,23 +3938,71 @@
       <c r="I20" s="3">
         <v>1698.5</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="J20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>30</v>
+      </c>
       <c r="M20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>15</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
         <v>1847.5</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2979,23 +4031,71 @@
       <c r="I21" s="3">
         <v>1996</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="J21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>30</v>
+      </c>
       <c r="M21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>15</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
         <v>2201</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3024,23 +4124,71 @@
       <c r="I22" s="3">
         <v>2637.5</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="J22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>30</v>
+      </c>
       <c r="M22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>15</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3">
         <v>2891</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3069,23 +4217,71 @@
       <c r="I23" s="3">
         <v>3144.5</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="J23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>30</v>
+      </c>
       <c r="M23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>20</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>120</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
         <v>3398</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3114,23 +4310,71 @@
       <c r="I24" s="3">
         <v>3651.5</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="J24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>30</v>
+      </c>
       <c r="M24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>120</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
         <v>3905</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3159,23 +4403,71 @@
       <c r="I25" s="3">
         <v>4158.5</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>30</v>
+      </c>
       <c r="M25" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>20</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>120</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
         <v>4412</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3204,23 +4496,71 @@
       <c r="I26" s="3">
         <v>4666</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="J26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>30</v>
+      </c>
       <c r="M26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>20</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>120</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
         <v>5013.5</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3249,23 +4589,71 @@
       <c r="I27" s="3">
         <v>5888.5</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="J27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>30</v>
+      </c>
       <c r="M27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>20</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>120</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
         <v>6549</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3294,23 +4682,71 @@
       <c r="I28" s="3">
         <v>7210</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="J28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>40</v>
+      </c>
       <c r="M28" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>20</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>120</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
         <v>7871</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3339,23 +4775,71 @@
       <c r="I29" s="3">
         <v>8531.5</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="J29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>45</v>
+      </c>
       <c r="M29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>20</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>120</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
         <v>9192.5</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>85</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3384,23 +4868,71 @@
       <c r="I30" s="3">
         <v>9942</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="J30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>45</v>
+      </c>
       <c r="M30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>20</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>120</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N30" s="3">
+      <c r="T30" s="3">
         <v>2</v>
       </c>
-      <c r="O30" s="3">
+      <c r="U30" s="3">
         <v>10.96</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>90</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3429,23 +4961,71 @@
       <c r="I31" s="3">
         <v>11.63</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="J31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>50</v>
+      </c>
       <c r="M31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>20</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>120</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N31" s="3">
+      <c r="T31" s="3">
         <v>2</v>
       </c>
-      <c r="O31" s="3">
+      <c r="U31" s="3">
         <v>12.29</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3474,23 +5054,71 @@
       <c r="I32" s="3">
         <v>12.96</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="J32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>55</v>
+      </c>
       <c r="M32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>20</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>120</v>
+      </c>
+      <c r="S32" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
         <v>2</v>
       </c>
-      <c r="O32" s="3">
+      <c r="U32" s="3">
         <v>13.62</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3519,23 +5147,71 @@
       <c r="I33" s="3">
         <v>14.29</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="J33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>65</v>
+      </c>
       <c r="M33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>10</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>150</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3">
         <v>2</v>
       </c>
-      <c r="O33" s="3">
+      <c r="U33" s="3">
         <v>14.98</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>120</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3564,23 +5240,71 @@
       <c r="I34" s="3">
         <v>16.38</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="J34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>65</v>
+      </c>
       <c r="M34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>10</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>150</v>
+      </c>
+      <c r="S34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N34" s="3">
+      <c r="T34" s="3">
         <v>2</v>
       </c>
-      <c r="O34" s="3">
+      <c r="U34" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>125</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3609,23 +5333,71 @@
       <c r="I35" s="3">
         <v>19.82</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="J35" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>70</v>
+      </c>
       <c r="M35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>10</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>150</v>
+      </c>
+      <c r="S35" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3">
         <v>2</v>
       </c>
-      <c r="O35" s="3">
+      <c r="U35" s="3">
         <v>21.54</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V35" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>135</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3654,23 +5426,71 @@
       <c r="I36" s="3">
         <v>23.17</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="J36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>75</v>
+      </c>
       <c r="M36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>10</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>150</v>
+      </c>
+      <c r="S36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N36" s="3">
+      <c r="T36" s="3">
         <v>2</v>
       </c>
-      <c r="O36" s="3">
+      <c r="U36" s="3">
         <v>23.82</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>140</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3699,23 +5519,71 @@
       <c r="I37" s="3">
         <v>24.36</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="J37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>80</v>
+      </c>
       <c r="M37" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>10</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>150</v>
+      </c>
+      <c r="S37" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N37" s="3">
+      <c r="T37" s="3">
         <v>2</v>
       </c>
-      <c r="O37" s="3">
+      <c r="U37" s="3">
         <v>24.9</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>150</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3744,23 +5612,71 @@
       <c r="I38" s="3">
         <v>25.45</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="J38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>85</v>
+      </c>
       <c r="M38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>15</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>150</v>
+      </c>
+      <c r="S38" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N38" s="3">
+      <c r="T38" s="3">
         <v>2</v>
       </c>
-      <c r="O38" s="3">
+      <c r="U38" s="3">
         <v>25.9</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>165</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3789,23 +5705,71 @@
       <c r="I39" s="3">
         <v>26.08</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="J39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>95</v>
+      </c>
       <c r="M39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>15</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>150</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N39" s="3">
+      <c r="T39" s="3">
         <v>2</v>
       </c>
-      <c r="O39" s="3">
+      <c r="U39" s="3">
         <v>26.68</v>
       </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>180</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3834,23 +5798,71 @@
       <c r="I40" s="3">
         <v>27.28</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="J40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>100</v>
+      </c>
       <c r="M40" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>15</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>150</v>
+      </c>
+      <c r="S40" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N40" s="3">
+      <c r="T40" s="3">
         <v>2</v>
       </c>
-      <c r="O40" s="3">
+      <c r="U40" s="3">
         <v>27.87</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>195</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3879,23 +5891,71 @@
       <c r="I41" s="3">
         <v>28.88</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="J41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>110</v>
+      </c>
       <c r="M41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>15</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>150</v>
+      </c>
+      <c r="S41" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3">
         <v>2</v>
       </c>
-      <c r="O41" s="3">
+      <c r="U41" s="3">
         <v>31.19</v>
       </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>205</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3924,23 +5984,71 @@
       <c r="I42" s="3">
         <v>31.9</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="J42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>110</v>
+      </c>
       <c r="M42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>15</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>150</v>
+      </c>
+      <c r="S42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3">
         <v>2</v>
       </c>
-      <c r="O42" s="3">
+      <c r="U42" s="3">
         <v>32.61</v>
       </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>205</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3969,23 +6077,71 @@
       <c r="I43" s="3">
         <v>33.32</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="J43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>120</v>
+      </c>
       <c r="M43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>20</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>150</v>
+      </c>
+      <c r="S43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3">
         <v>2</v>
       </c>
-      <c r="O43" s="3">
+      <c r="U43" s="3">
         <v>34.159999999999997</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>220</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4014,23 +6170,71 @@
       <c r="I44" s="3">
         <v>36.409999999999997</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="J44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>120</v>
+      </c>
       <c r="M44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>20</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>150</v>
+      </c>
+      <c r="S44" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N44" s="3">
+      <c r="T44" s="3">
         <v>2</v>
       </c>
-      <c r="O44" s="3">
+      <c r="U44" s="3">
         <v>38.83</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>220</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4059,23 +6263,71 @@
       <c r="I45" s="3">
         <v>41.26</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="J45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>125</v>
+      </c>
       <c r="M45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>20</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>150</v>
+      </c>
+      <c r="S45" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3">
         <v>2</v>
       </c>
-      <c r="O45" s="3">
+      <c r="U45" s="3">
         <v>44.42</v>
       </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>235</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4104,23 +6356,71 @@
       <c r="I46" s="3">
         <v>49.24</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="J46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>125</v>
+      </c>
       <c r="M46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>20</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>150</v>
+      </c>
+      <c r="S46" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N46" s="3">
+      <c r="T46" s="3">
         <v>2</v>
       </c>
-      <c r="O46" s="3">
+      <c r="U46" s="3">
         <v>48.06</v>
       </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>235</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -4149,23 +6449,71 @@
       <c r="I47" s="3">
         <v>49.07</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="J47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>135</v>
+      </c>
       <c r="M47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>20</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>150</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N47" s="3">
+      <c r="T47" s="3">
         <v>2</v>
       </c>
-      <c r="O47" s="3">
+      <c r="U47" s="3">
         <v>50.1</v>
       </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>250</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -4194,23 +6542,71 @@
       <c r="I48" s="3">
         <v>51.14</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="J48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>140</v>
+      </c>
       <c r="M48" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>25</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>150</v>
+      </c>
+      <c r="S48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3">
         <v>2</v>
       </c>
-      <c r="O48" s="3">
+      <c r="U48" s="3">
         <v>52.09</v>
       </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>265</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -4239,23 +6635,71 @@
       <c r="I49" s="3">
         <v>53.04</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="J49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>140</v>
+      </c>
       <c r="M49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>25</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>150</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3">
         <v>2</v>
       </c>
-      <c r="O49" s="3">
+      <c r="U49" s="3">
         <v>53.96</v>
       </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>265</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -4284,23 +6728,71 @@
       <c r="I50" s="3">
         <v>54.79</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="J50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>150</v>
+      </c>
       <c r="M50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>25</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>150</v>
+      </c>
+      <c r="S50" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N50" s="3">
+      <c r="T50" s="3">
         <v>2</v>
       </c>
-      <c r="O50" s="3">
+      <c r="U50" s="3">
         <v>55.81</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>280</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -4329,23 +6821,71 @@
       <c r="I51" s="3">
         <v>56.83</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="J51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>150</v>
+      </c>
       <c r="M51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>25</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>150</v>
+      </c>
+      <c r="S51" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N51" s="3">
+      <c r="T51" s="3">
         <v>2</v>
       </c>
-      <c r="O51" s="3">
+      <c r="U51" s="3">
         <v>57.88</v>
       </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>280</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -4374,23 +6914,71 @@
       <c r="I52" s="3">
         <v>58.97</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="J52" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>150</v>
+      </c>
       <c r="M52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>25</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>150</v>
+      </c>
+      <c r="S52" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3">
         <v>2</v>
       </c>
-      <c r="O52" s="3">
+      <c r="U52" s="3">
         <v>59.9</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V52" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>280</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -4419,23 +7007,71 @@
       <c r="I53" s="3">
         <v>60.83</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="J53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>160</v>
+      </c>
       <c r="M53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>30</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>150</v>
+      </c>
+      <c r="S53" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N53" s="3">
+      <c r="T53" s="3">
         <v>2</v>
       </c>
-      <c r="O53" s="3">
+      <c r="U53" s="3">
         <v>61.88</v>
       </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -4464,23 +7100,71 @@
       <c r="I54" s="3">
         <v>63.22</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="J54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>160</v>
+      </c>
       <c r="M54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>30</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>150</v>
+      </c>
+      <c r="S54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3">
         <v>2</v>
       </c>
-      <c r="O54" s="3">
+      <c r="U54" s="3">
         <v>64.040000000000006</v>
       </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -4509,23 +7193,71 @@
       <c r="I55" s="3">
         <v>64.87</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>160</v>
+      </c>
       <c r="M55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>30</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>150</v>
+      </c>
+      <c r="S55" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N55" s="3">
+      <c r="T55" s="3">
         <v>2</v>
       </c>
-      <c r="O55" s="3">
+      <c r="U55" s="3">
         <v>65.77</v>
       </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V55" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -4554,23 +7286,71 @@
       <c r="I56" s="3">
         <v>66.94</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>160</v>
+      </c>
       <c r="M56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>30</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>150</v>
+      </c>
+      <c r="S56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N56" s="3">
+      <c r="T56" s="3">
         <v>2</v>
       </c>
-      <c r="O56" s="3">
+      <c r="U56" s="3">
         <v>67.81</v>
       </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -4599,23 +7379,71 @@
       <c r="I57" s="3">
         <v>68.680000000000007</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>160</v>
+      </c>
       <c r="M57" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>30</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>150</v>
+      </c>
+      <c r="S57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3">
         <v>2</v>
       </c>
-      <c r="O57" s="3">
+      <c r="U57" s="3">
         <v>69.599999999999994</v>
       </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -4644,23 +7472,71 @@
       <c r="I58" s="3">
         <v>70.66</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="J58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>160</v>
+      </c>
       <c r="M58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>35</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>150</v>
+      </c>
+      <c r="S58" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3">
         <v>2</v>
       </c>
-      <c r="O58" s="3">
+      <c r="U58" s="3">
         <v>71.58</v>
       </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -4689,23 +7565,71 @@
       <c r="I59" s="3">
         <v>72.5</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="J59" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>160</v>
+      </c>
       <c r="M59" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>35</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>150</v>
+      </c>
+      <c r="S59" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3">
         <v>2</v>
       </c>
-      <c r="O59" s="3">
+      <c r="U59" s="3">
         <v>73.42</v>
       </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V59" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -4734,23 +7658,71 @@
       <c r="I60" s="3">
         <v>74.37</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="J60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>160</v>
+      </c>
       <c r="M60" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>35</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>150</v>
+      </c>
+      <c r="S60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3">
         <v>2</v>
       </c>
-      <c r="O60" s="3">
+      <c r="U60" s="3">
         <v>75.34</v>
       </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -4779,23 +7751,71 @@
       <c r="I61" s="3">
         <v>76.319999999999993</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="J61" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>160</v>
+      </c>
       <c r="M61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>35</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>150</v>
+      </c>
+      <c r="S61" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N61" s="3">
+      <c r="T61" s="3">
         <v>2</v>
       </c>
-      <c r="O61" s="3">
+      <c r="U61" s="3">
         <v>77.989999999999995</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V61" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -4824,23 +7844,71 @@
       <c r="I62" s="3">
         <v>81.81</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="J62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>160</v>
+      </c>
       <c r="M62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>35</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>150</v>
+      </c>
+      <c r="S62" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N62" s="3">
+      <c r="T62" s="3">
         <v>2</v>
       </c>
-      <c r="O62" s="3">
+      <c r="U62" s="3">
         <v>82.88</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -4869,23 +7937,71 @@
       <c r="I63" s="3">
         <v>83.95</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="J63" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>160</v>
+      </c>
       <c r="M63" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>15</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>150</v>
+      </c>
+      <c r="S63" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N63" s="3">
+      <c r="T63" s="3">
         <v>2</v>
       </c>
-      <c r="O63" s="3">
+      <c r="U63" s="3">
         <v>85.64</v>
       </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V63" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -4914,23 +8030,71 @@
       <c r="I64" s="3">
         <v>89.25</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="J64" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>160</v>
+      </c>
       <c r="M64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>15</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>150</v>
+      </c>
+      <c r="S64" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N64" s="3">
+      <c r="T64" s="3">
         <v>2</v>
       </c>
-      <c r="O64" s="3">
+      <c r="U64" s="3">
         <v>90.42</v>
       </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V64" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -4959,23 +8123,71 @@
       <c r="I65" s="3">
         <v>91.58</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="J65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>160</v>
+      </c>
       <c r="M65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>15</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>150</v>
+      </c>
+      <c r="S65" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N65" s="3">
+      <c r="T65" s="3">
         <v>2</v>
       </c>
-      <c r="O65" s="3">
+      <c r="U65" s="3">
         <v>93.29</v>
       </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -5004,23 +8216,71 @@
       <c r="I66" s="3">
         <v>96.69</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="J66" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>160</v>
+      </c>
       <c r="M66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>15</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>150</v>
+      </c>
+      <c r="S66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3">
         <v>2</v>
       </c>
-      <c r="O66" s="3">
+      <c r="U66" s="3">
         <v>97.95</v>
       </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V66" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -5049,23 +8309,71 @@
       <c r="I67" s="3">
         <v>99.21</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="J67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>160</v>
+      </c>
       <c r="M67" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>15</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <v>150</v>
+      </c>
+      <c r="S67" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N67" s="3">
+      <c r="T67" s="3">
         <v>2</v>
       </c>
-      <c r="O67" s="3">
+      <c r="U67" s="3">
         <v>100.94</v>
       </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0</v>
+      </c>
+      <c r="X67" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -5094,23 +8402,71 @@
       <c r="I68" s="3">
         <v>104.13</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="J68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>160</v>
+      </c>
       <c r="M68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>20</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>150</v>
+      </c>
+      <c r="S68" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N68" s="3">
+      <c r="T68" s="3">
         <v>2</v>
       </c>
-      <c r="O68" s="3">
+      <c r="U68" s="3">
         <v>105.49</v>
       </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB68" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -5139,23 +8495,71 @@
       <c r="I69" s="3">
         <v>106.85</v>
       </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="J69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>160</v>
+      </c>
       <c r="M69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>20</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>150</v>
+      </c>
+      <c r="S69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N69" s="3">
+      <c r="T69" s="3">
         <v>2</v>
       </c>
-      <c r="O69" s="3">
+      <c r="U69" s="3">
         <v>108.59</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -5184,23 +8588,71 @@
       <c r="I70" s="3">
         <v>111.56</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="J70" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>160</v>
+      </c>
       <c r="M70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>20</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>150</v>
+      </c>
+      <c r="S70" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N70" s="3">
+      <c r="T70" s="3">
         <v>2</v>
       </c>
-      <c r="O70" s="3">
+      <c r="U70" s="3">
         <v>113.02</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V70" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -5229,23 +8681,71 @@
       <c r="I71" s="3">
         <v>114.47</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="J71" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>160</v>
+      </c>
       <c r="M71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>20</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>150</v>
+      </c>
+      <c r="S71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N71" s="3">
+      <c r="T71" s="3">
         <v>2</v>
       </c>
-      <c r="O71" s="3">
+      <c r="U71" s="3">
         <v>116.24</v>
       </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V71" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -5274,23 +8774,71 @@
       <c r="I72" s="3">
         <v>119</v>
       </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="J72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>160</v>
+      </c>
       <c r="M72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>20</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>150</v>
+      </c>
+      <c r="S72" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3">
         <v>2</v>
       </c>
-      <c r="O72" s="3">
+      <c r="U72" s="3">
         <v>120.55</v>
       </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -5319,23 +8867,71 @@
       <c r="I73" s="3">
         <v>122.11</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="J73" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>160</v>
+      </c>
       <c r="M73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>25</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>150</v>
+      </c>
+      <c r="S73" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N73" s="3">
+      <c r="T73" s="3">
         <v>2</v>
       </c>
-      <c r="O73" s="3">
+      <c r="U73" s="3">
         <v>123.89</v>
       </c>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V73" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -5364,23 +8960,71 @@
       <c r="I74" s="3">
         <v>126.44</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="J74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>160</v>
+      </c>
       <c r="M74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>25</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>150</v>
+      </c>
+      <c r="S74" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N74" s="3">
+      <c r="T74" s="3">
         <v>2</v>
       </c>
-      <c r="O74" s="3">
+      <c r="U74" s="3">
         <v>128.09</v>
       </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -5409,23 +9053,71 @@
       <c r="I75" s="3">
         <v>129.74</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="J75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>160</v>
+      </c>
       <c r="M75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>25</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>150</v>
+      </c>
+      <c r="S75" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N75" s="3">
+      <c r="T75" s="3">
         <v>2</v>
       </c>
-      <c r="O75" s="3">
+      <c r="U75" s="3">
         <v>131.55000000000001</v>
       </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -5454,23 +9146,71 @@
       <c r="I76" s="3">
         <v>133.88</v>
       </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="J76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>160</v>
+      </c>
       <c r="M76" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>25</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>150</v>
+      </c>
+      <c r="S76" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3">
         <v>2</v>
       </c>
-      <c r="O76" s="3">
+      <c r="U76" s="3">
         <v>135.62</v>
       </c>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y76" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -5499,23 +9239,71 @@
       <c r="I77" s="3">
         <v>137.37</v>
       </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="J77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>160</v>
+      </c>
       <c r="M77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>25</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>150</v>
+      </c>
+      <c r="S77" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N77" s="3">
+      <c r="T77" s="3">
         <v>2</v>
       </c>
-      <c r="O77" s="3">
+      <c r="U77" s="3">
         <v>139.19999999999999</v>
       </c>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB77" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -5544,23 +9332,71 @@
       <c r="I78" s="3">
         <v>141.32</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="J78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>160</v>
+      </c>
       <c r="M78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <v>25</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>150</v>
+      </c>
+      <c r="S78" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N78" s="3">
+      <c r="T78" s="3">
         <v>2</v>
       </c>
-      <c r="O78" s="3">
+      <c r="U78" s="3">
         <v>143.16</v>
       </c>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0</v>
+      </c>
+      <c r="X78" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -5589,23 +9425,71 @@
       <c r="I79" s="3">
         <v>145</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="J79" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <v>160</v>
+      </c>
       <c r="M79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3">
+        <v>25</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
+      </c>
+      <c r="R79" s="3">
+        <v>150</v>
+      </c>
+      <c r="S79" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N79" s="3">
+      <c r="T79" s="3">
         <v>2</v>
       </c>
-      <c r="O79" s="3">
+      <c r="U79" s="3">
         <v>146.85</v>
       </c>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V79" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W79" s="3">
+        <v>0</v>
+      </c>
+      <c r="X79" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -5634,23 +9518,71 @@
       <c r="I80" s="3">
         <v>148.75</v>
       </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="J80" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>160</v>
+      </c>
       <c r="M80" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <v>25</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>150</v>
+      </c>
+      <c r="S80" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N80" s="3">
+      <c r="T80" s="3">
         <v>2</v>
       </c>
-      <c r="O80" s="3">
+      <c r="U80" s="3">
         <v>150.69999999999999</v>
       </c>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V80" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W80" s="3">
+        <v>0</v>
+      </c>
+      <c r="X80" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y80" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB80" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -5679,23 +9611,71 @@
       <c r="I81" s="3">
         <v>152.63999999999999</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="J81" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>160</v>
+      </c>
       <c r="M81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>25</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>150</v>
+      </c>
+      <c r="S81" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3">
         <v>2</v>
       </c>
-      <c r="O81" s="3">
+      <c r="U81" s="3">
         <v>154.5</v>
       </c>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V81" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -5724,23 +9704,71 @@
       <c r="I82" s="3">
         <v>156.19</v>
       </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+      <c r="J82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>160</v>
+      </c>
       <c r="M82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
+      </c>
+      <c r="O82" s="3">
+        <v>25</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
+      <c r="R82" s="3">
+        <v>150</v>
+      </c>
+      <c r="S82" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N82" s="3">
+      <c r="T82" s="3">
         <v>2</v>
       </c>
-      <c r="O82" s="3">
+      <c r="U82" s="3">
         <v>158.22999999999999</v>
       </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W82" s="3">
+        <v>0</v>
+      </c>
+      <c r="X82" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB82" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -5769,23 +9797,71 @@
       <c r="I83" s="3">
         <v>160.27000000000001</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="J83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>160</v>
+      </c>
       <c r="M83" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>25</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>150</v>
+      </c>
+      <c r="S83" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N83" s="3">
+      <c r="T83" s="3">
         <v>2</v>
       </c>
-      <c r="O83" s="3">
+      <c r="U83" s="3">
         <v>162.69999999999999</v>
       </c>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y83" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB83" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -5814,23 +9890,71 @@
       <c r="I84" s="3">
         <v>174.97</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
+      <c r="J84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>160</v>
+      </c>
       <c r="M84" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>25</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>150</v>
+      </c>
+      <c r="S84" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N84" s="3">
+      <c r="T84" s="3">
         <v>2</v>
       </c>
-      <c r="O84" s="3">
+      <c r="U84" s="3">
         <v>191.94</v>
       </c>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y84" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -5859,23 +9983,71 @@
       <c r="I85" s="3">
         <v>210.43</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="J85" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>160</v>
+      </c>
       <c r="M85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>25</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>150</v>
+      </c>
+      <c r="S85" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N85" s="3">
+      <c r="T85" s="3">
         <v>2</v>
       </c>
-      <c r="O85" s="3">
+      <c r="U85" s="3">
         <v>227.67</v>
       </c>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V85" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB85" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -5904,23 +10076,71 @@
       <c r="I86" s="3">
         <v>246.67</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="J86" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>160</v>
+      </c>
       <c r="M86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>25</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>150</v>
+      </c>
+      <c r="S86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N86" s="3">
+      <c r="T86" s="3">
         <v>2</v>
       </c>
-      <c r="O86" s="3">
+      <c r="U86" s="3">
         <v>264.18</v>
       </c>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V86" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -5949,23 +10169,71 @@
       <c r="I87" s="3">
         <v>283.67</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
+      <c r="J87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>160</v>
+      </c>
       <c r="M87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>25</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>150</v>
+      </c>
+      <c r="S87" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N87" s="3">
+      <c r="T87" s="3">
         <v>2</v>
       </c>
-      <c r="O87" s="3">
+      <c r="U87" s="3">
         <v>301.45999999999998</v>
       </c>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -5994,23 +10262,71 @@
       <c r="I88" s="3">
         <v>321.47000000000003</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="J88" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>160</v>
+      </c>
       <c r="M88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>25</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>150</v>
+      </c>
+      <c r="S88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N88" s="3">
+      <c r="T88" s="3">
         <v>2</v>
       </c>
-      <c r="O88" s="3">
+      <c r="U88" s="3">
         <v>339.53</v>
       </c>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V88" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -6039,23 +10355,71 @@
       <c r="I89" s="3">
         <v>360.04</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
+      <c r="J89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>160</v>
+      </c>
       <c r="M89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>25</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>150</v>
+      </c>
+      <c r="S89" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3">
         <v>2</v>
       </c>
-      <c r="O89" s="3">
+      <c r="U89" s="3">
         <v>378.37</v>
       </c>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -6084,23 +10448,71 @@
       <c r="I90" s="3">
         <v>399.38</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="J90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>160</v>
+      </c>
       <c r="M90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>25</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <v>150</v>
+      </c>
+      <c r="S90" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N90" s="3">
+      <c r="T90" s="3">
         <v>2</v>
       </c>
-      <c r="O90" s="3">
+      <c r="U90" s="3">
         <v>417.99</v>
       </c>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W90" s="3">
+        <v>0</v>
+      </c>
+      <c r="X90" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -6129,23 +10541,71 @@
       <c r="I91" s="3">
         <v>439.49</v>
       </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="J91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>160</v>
+      </c>
       <c r="M91" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>25</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>150</v>
+      </c>
+      <c r="S91" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N91" s="3">
+      <c r="T91" s="3">
         <v>2</v>
       </c>
-      <c r="O91" s="3">
+      <c r="U91" s="3">
         <v>458.37</v>
       </c>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y91" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -6174,23 +10634,71 @@
       <c r="I92" s="3">
         <v>480.4</v>
       </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
+      <c r="J92" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>160</v>
+      </c>
       <c r="M92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>25</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>150</v>
+      </c>
+      <c r="S92" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N92" s="3">
+      <c r="T92" s="3">
         <v>2</v>
       </c>
-      <c r="O92" s="3">
+      <c r="U92" s="3">
         <v>499.54</v>
       </c>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V92" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -6219,23 +10727,71 @@
       <c r="I93" s="3">
         <v>522.08000000000004</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="J93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>160</v>
+      </c>
       <c r="M93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>25</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>150</v>
+      </c>
+      <c r="S93" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N93" s="3">
+      <c r="T93" s="3">
         <v>2</v>
       </c>
-      <c r="O93" s="3">
+      <c r="U93" s="3">
         <v>541.49</v>
       </c>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB93" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -6264,23 +10820,71 @@
       <c r="I94" s="3">
         <v>564.51</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="J94" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>160</v>
+      </c>
       <c r="M94" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>25</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>150</v>
+      </c>
+      <c r="S94" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3">
         <v>2</v>
       </c>
-      <c r="O94" s="3">
+      <c r="U94" s="3">
         <v>584.20000000000005</v>
       </c>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V94" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB94" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -6309,23 +10913,71 @@
       <c r="I95" s="3">
         <v>607.75</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="J95" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3">
+        <v>160</v>
+      </c>
       <c r="M95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <v>25</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0</v>
+      </c>
+      <c r="R95" s="3">
+        <v>150</v>
+      </c>
+      <c r="S95" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N95" s="3">
+      <c r="T95" s="3">
         <v>2</v>
       </c>
-      <c r="O95" s="3">
+      <c r="U95" s="3">
         <v>627.71</v>
       </c>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V95" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W95" s="3">
+        <v>0</v>
+      </c>
+      <c r="X95" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB95" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -6354,23 +11006,71 @@
       <c r="I96" s="3">
         <v>651.76</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="J96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>160</v>
+      </c>
       <c r="M96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>25</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>150</v>
+      </c>
+      <c r="S96" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N96" s="3">
+      <c r="T96" s="3">
         <v>2</v>
       </c>
-      <c r="O96" s="3">
+      <c r="U96" s="3">
         <v>671.99</v>
       </c>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB96" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -6399,23 +11099,71 @@
       <c r="I97" s="3">
         <v>696.54</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="J97" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>160</v>
+      </c>
       <c r="M97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>25</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>150</v>
+      </c>
+      <c r="S97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N97" s="3">
+      <c r="T97" s="3">
         <v>2</v>
       </c>
-      <c r="O97" s="3">
+      <c r="U97" s="3">
         <v>717.05</v>
       </c>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V97" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB97" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -6444,23 +11192,71 @@
       <c r="I98" s="3">
         <v>742.09</v>
       </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
+      <c r="J98" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>160</v>
+      </c>
       <c r="M98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>25</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>150</v>
+      </c>
+      <c r="S98" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N98" s="3">
+      <c r="T98" s="3">
         <v>2</v>
       </c>
-      <c r="O98" s="3">
+      <c r="U98" s="3">
         <v>762.87</v>
       </c>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V98" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB98" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -6489,23 +11285,71 @@
       <c r="I99" s="3">
         <v>788.43</v>
       </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+      <c r="J99" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>160</v>
+      </c>
       <c r="M99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>25</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>150</v>
+      </c>
+      <c r="S99" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N99" s="3">
+      <c r="T99" s="3">
         <v>2</v>
       </c>
-      <c r="O99" s="3">
+      <c r="U99" s="3">
         <v>809.48</v>
       </c>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V99" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -6534,23 +11378,71 @@
       <c r="I100" s="3">
         <v>835.55</v>
       </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
+      <c r="J100" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>160</v>
+      </c>
       <c r="M100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>25</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>150</v>
+      </c>
+      <c r="S100" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N100" s="3">
+      <c r="T100" s="3">
         <v>2</v>
       </c>
-      <c r="O100" s="3">
+      <c r="U100" s="3">
         <v>856.86</v>
       </c>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V100" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -6579,23 +11471,71 @@
       <c r="I101" s="3">
         <v>883.41</v>
       </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
+      <c r="J101" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>160</v>
+      </c>
       <c r="M101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>25</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>150</v>
+      </c>
+      <c r="S101" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N101" s="3">
+      <c r="T101" s="3">
         <v>2</v>
       </c>
-      <c r="O101" s="3">
+      <c r="U101" s="3">
         <v>905.01</v>
       </c>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V101" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -6624,23 +11564,71 @@
       <c r="I102" s="3">
         <v>932.09</v>
       </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
+      <c r="J102" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>160</v>
+      </c>
       <c r="M102" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>25</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>150</v>
+      </c>
+      <c r="S102" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3">
         <v>2</v>
       </c>
-      <c r="O102" s="3">
+      <c r="U102" s="3">
         <v>953.96</v>
       </c>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-    </row>
-    <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V102" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y102" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -6669,21 +11657,69 @@
       <c r="I103" s="3">
         <v>981.54</v>
       </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
+      <c r="J103" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>160</v>
+      </c>
       <c r="M103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N103" s="3">
+        <v>0</v>
+      </c>
+      <c r="O103" s="3">
+        <v>25</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>0</v>
+      </c>
+      <c r="R103" s="3">
+        <v>150</v>
+      </c>
+      <c r="S103" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N103" s="3">
+      <c r="T103" s="3">
         <v>2</v>
       </c>
-      <c r="O103" s="3">
+      <c r="U103" s="3">
         <v>1001.73</v>
       </c>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
+      <c r="V103" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W103" s="3">
+        <v>0</v>
+      </c>
+      <c r="X103" s="3">
+        <v>295</v>
+      </c>
+      <c r="Y103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z103" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC103" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="3">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F106C0C-4665-4F5A-AB23-DA1185AE0B48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C210B03-0714-49CB-8B58-8C78571492D4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,18 +1109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>award[3][2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[3][2].valw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[3][2].valv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>武器S1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1196,15 +1184,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>award[4][2].id</t>
+    <t>award[2][3].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>award[4][2].valw</t>
+    <t>award[2][3].valw</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>award[4][2].valv</t>
+    <t>award[2][3].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2][4].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2][4].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2][4].valv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2151,10 +2151,10 @@
   <dimension ref="A1:AD103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2214,13 +2214,13 @@
         <v>182</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>172</v>
@@ -2241,13 +2241,13 @@
         <v>177</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>205</v>
@@ -2481,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Z5" s="3">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC5" s="3">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Z6" s="3">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC6" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="3">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Z7" s="3">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>5</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC7" s="3">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>50</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>25</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>25</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z11" s="3">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC11" s="3">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>30</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC12" s="3">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>10</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>30</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>10</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC13" s="3">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>40</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>40</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>25</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="3">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>45</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z16" s="3">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC16" s="3">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>10</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>45</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>10</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC17" s="3">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>15</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>55</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>15</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC18" s="3">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>30</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>15</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>55</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z19" s="3">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>15</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC19" s="3">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>30</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>15</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>55</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>15</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>30</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>15</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>55</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>15</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC21" s="3">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         <v>30</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>15</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>55</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>15</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>30</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>20</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>60</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>20</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC23" s="3">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>30</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>60</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>20</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>20</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>60</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z25" s="3">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC25" s="3">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>30</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -4542,7 +4542,7 @@
         <v>60</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC26" s="3">
         <v>0</v>
@@ -4599,7 +4599,7 @@
         <v>30</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>60</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC27" s="3">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>40</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>20</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>75</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z28" s="3">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC28" s="3">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>45</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>20</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>85</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>45</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>90</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z30" s="3">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>20</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC30" s="3">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>50</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>100</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z31" s="3">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC31" s="3">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>55</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>105</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>20</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>65</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>120</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>10</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC33" s="3">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>65</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>10</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>125</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z34" s="3">
         <v>0</v>
@@ -5295,7 +5295,7 @@
         <v>10</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC34" s="3">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>70</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>135</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>10</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC35" s="3">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>75</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>10</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="3">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>140</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z36" s="3">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>10</v>
       </c>
       <c r="AB36" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC36" s="3">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>80</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>10</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="3">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>150</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z37" s="3">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>10</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC37" s="3">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>85</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>15</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>165</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z38" s="3">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>15</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC38" s="3">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>95</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>15</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q39" s="3">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>180</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z39" s="3">
         <v>0</v>
@@ -5760,7 +5760,7 @@
         <v>15</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC39" s="3">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>100</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
@@ -5817,7 +5817,7 @@
         <v>15</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -5844,7 +5844,7 @@
         <v>195</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z40" s="3">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>15</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC40" s="3">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>110</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>15</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>205</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>15</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>110</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>15</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>205</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>15</v>
       </c>
       <c r="AB42" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>120</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>20</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>220</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>20</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>120</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>20</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>220</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="AB44" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC44" s="3">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>125</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>20</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>235</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>20</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>125</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>20</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>235</v>
       </c>
       <c r="Y46" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>20</v>
       </c>
       <c r="AB46" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>135</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>20</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -6495,7 +6495,7 @@
         <v>250</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>20</v>
       </c>
       <c r="AB47" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>140</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>25</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>265</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>25</v>
       </c>
       <c r="AB48" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC48" s="3">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>140</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -6654,7 +6654,7 @@
         <v>25</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -6681,7 +6681,7 @@
         <v>265</v>
       </c>
       <c r="Y49" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -6690,7 +6690,7 @@
         <v>25</v>
       </c>
       <c r="AB49" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC49" s="3">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>150</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N50" s="3">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>25</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>280</v>
       </c>
       <c r="Y50" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z50" s="3">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>25</v>
       </c>
       <c r="AB50" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC50" s="3">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>150</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>25</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>280</v>
       </c>
       <c r="Y51" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z51" s="3">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>25</v>
       </c>
       <c r="AB51" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC51" s="3">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>150</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -6933,7 +6933,7 @@
         <v>25</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -6960,7 +6960,7 @@
         <v>280</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>25</v>
       </c>
       <c r="AB52" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC52" s="3">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>160</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N53" s="3">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>30</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>295</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z53" s="3">
         <v>0</v>
@@ -7062,7 +7062,7 @@
         <v>30</v>
       </c>
       <c r="AB53" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC53" s="3">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>160</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>30</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>295</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>30</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC54" s="3">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>160</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>30</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q55" s="3">
         <v>0</v>
@@ -7239,7 +7239,7 @@
         <v>295</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z55" s="3">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>30</v>
       </c>
       <c r="AB55" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC55" s="3">
         <v>0</v>
@@ -7296,7 +7296,7 @@
         <v>160</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N56" s="3">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>30</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q56" s="3">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>295</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z56" s="3">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>30</v>
       </c>
       <c r="AB56" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC56" s="3">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>160</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>30</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -7425,7 +7425,7 @@
         <v>295</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>30</v>
       </c>
       <c r="AB57" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>160</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>35</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>295</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>35</v>
       </c>
       <c r="AB58" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>160</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>35</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>295</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -7620,7 +7620,7 @@
         <v>35</v>
       </c>
       <c r="AB59" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC59" s="3">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>160</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>35</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -7704,7 +7704,7 @@
         <v>295</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>35</v>
       </c>
       <c r="AB60" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC60" s="3">
         <v>0</v>
@@ -7761,7 +7761,7 @@
         <v>160</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>35</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>295</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>35</v>
       </c>
       <c r="AB61" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
@@ -7854,7 +7854,7 @@
         <v>160</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -7863,7 +7863,7 @@
         <v>35</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>295</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -7899,7 +7899,7 @@
         <v>35</v>
       </c>
       <c r="AB62" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
@@ -7947,7 +7947,7 @@
         <v>160</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
@@ -7956,7 +7956,7 @@
         <v>15</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>295</v>
       </c>
       <c r="Y63" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z63" s="3">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>15</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC63" s="3">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>160</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N64" s="3">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>15</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q64" s="3">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>295</v>
       </c>
       <c r="Y64" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z64" s="3">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>15</v>
       </c>
       <c r="AB64" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC64" s="3">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>160</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>15</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q65" s="3">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>295</v>
       </c>
       <c r="Y65" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z65" s="3">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>15</v>
       </c>
       <c r="AB65" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC65" s="3">
         <v>0</v>
@@ -8226,7 +8226,7 @@
         <v>160</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>15</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>295</v>
       </c>
       <c r="Y66" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z66" s="3">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>15</v>
       </c>
       <c r="AB66" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC66" s="3">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>160</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N67" s="3">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>15</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q67" s="3">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>295</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z67" s="3">
         <v>0</v>
@@ -8364,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="AB67" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC67" s="3">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>160</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N68" s="3">
         <v>0</v>
@@ -8421,7 +8421,7 @@
         <v>20</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>295</v>
       </c>
       <c r="Y68" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z68" s="3">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>20</v>
       </c>
       <c r="AB68" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC68" s="3">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>160</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N69" s="3">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>20</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>295</v>
       </c>
       <c r="Y69" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z69" s="3">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>20</v>
       </c>
       <c r="AB69" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC69" s="3">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>160</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -8607,7 +8607,7 @@
         <v>20</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>295</v>
       </c>
       <c r="Y70" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z70" s="3">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>20</v>
       </c>
       <c r="AB70" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC70" s="3">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>160</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N71" s="3">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>20</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q71" s="3">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>295</v>
       </c>
       <c r="Y71" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z71" s="3">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>20</v>
       </c>
       <c r="AB71" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC71" s="3">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>160</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>20</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>295</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z72" s="3">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>20</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC72" s="3">
         <v>0</v>
@@ -8877,7 +8877,7 @@
         <v>160</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N73" s="3">
         <v>0</v>
@@ -8886,7 +8886,7 @@
         <v>25</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>295</v>
       </c>
       <c r="Y73" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z73" s="3">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>25</v>
       </c>
       <c r="AB73" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC73" s="3">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>160</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N74" s="3">
         <v>0</v>
@@ -8979,7 +8979,7 @@
         <v>25</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>295</v>
       </c>
       <c r="Y74" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z74" s="3">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>25</v>
       </c>
       <c r="AB74" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC74" s="3">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>160</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N75" s="3">
         <v>0</v>
@@ -9072,7 +9072,7 @@
         <v>25</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q75" s="3">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>295</v>
       </c>
       <c r="Y75" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z75" s="3">
         <v>0</v>
@@ -9108,7 +9108,7 @@
         <v>25</v>
       </c>
       <c r="AB75" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC75" s="3">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>160</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>25</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -9192,7 +9192,7 @@
         <v>295</v>
       </c>
       <c r="Y76" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z76" s="3">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>25</v>
       </c>
       <c r="AB76" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC76" s="3">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>160</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N77" s="3">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>25</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q77" s="3">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>295</v>
       </c>
       <c r="Y77" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z77" s="3">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>25</v>
       </c>
       <c r="AB77" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC77" s="3">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>160</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N78" s="3">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>25</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>295</v>
       </c>
       <c r="Y78" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z78" s="3">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>25</v>
       </c>
       <c r="AB78" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC78" s="3">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>160</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N79" s="3">
         <v>0</v>
@@ -9444,7 +9444,7 @@
         <v>25</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q79" s="3">
         <v>0</v>
@@ -9471,7 +9471,7 @@
         <v>295</v>
       </c>
       <c r="Y79" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z79" s="3">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>25</v>
       </c>
       <c r="AB79" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC79" s="3">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>160</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N80" s="3">
         <v>0</v>
@@ -9537,7 +9537,7 @@
         <v>25</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q80" s="3">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>295</v>
       </c>
       <c r="Y80" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z80" s="3">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>25</v>
       </c>
       <c r="AB80" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC80" s="3">
         <v>0</v>
@@ -9621,7 +9621,7 @@
         <v>160</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -9630,7 +9630,7 @@
         <v>25</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>295</v>
       </c>
       <c r="Y81" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
@@ -9666,7 +9666,7 @@
         <v>25</v>
       </c>
       <c r="AB81" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC81" s="3">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>160</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N82" s="3">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>25</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q82" s="3">
         <v>0</v>
@@ -9750,7 +9750,7 @@
         <v>295</v>
       </c>
       <c r="Y82" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z82" s="3">
         <v>0</v>
@@ -9759,7 +9759,7 @@
         <v>25</v>
       </c>
       <c r="AB82" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC82" s="3">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>160</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>25</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>295</v>
       </c>
       <c r="Y83" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>25</v>
       </c>
       <c r="AB83" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>160</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N84" s="3">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>25</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q84" s="3">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>295</v>
       </c>
       <c r="Y84" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z84" s="3">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>25</v>
       </c>
       <c r="AB84" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC84" s="3">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>160</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N85" s="3">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>25</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q85" s="3">
         <v>0</v>
@@ -10029,7 +10029,7 @@
         <v>295</v>
       </c>
       <c r="Y85" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z85" s="3">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>25</v>
       </c>
       <c r="AB85" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC85" s="3">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>160</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N86" s="3">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>25</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q86" s="3">
         <v>0</v>
@@ -10122,7 +10122,7 @@
         <v>295</v>
       </c>
       <c r="Y86" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z86" s="3">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>25</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC86" s="3">
         <v>0</v>
@@ -10179,7 +10179,7 @@
         <v>160</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N87" s="3">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>25</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q87" s="3">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>295</v>
       </c>
       <c r="Y87" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z87" s="3">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>25</v>
       </c>
       <c r="AB87" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC87" s="3">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>160</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N88" s="3">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>25</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q88" s="3">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>295</v>
       </c>
       <c r="Y88" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z88" s="3">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>25</v>
       </c>
       <c r="AB88" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC88" s="3">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>160</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -10374,7 +10374,7 @@
         <v>25</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>295</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -10410,7 +10410,7 @@
         <v>25</v>
       </c>
       <c r="AB89" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
@@ -10458,7 +10458,7 @@
         <v>160</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N90" s="3">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>25</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q90" s="3">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>295</v>
       </c>
       <c r="Y90" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z90" s="3">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>25</v>
       </c>
       <c r="AB90" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC90" s="3">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>160</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>25</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>295</v>
       </c>
       <c r="Y91" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>25</v>
       </c>
       <c r="AB91" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>160</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N92" s="3">
         <v>0</v>
@@ -10653,7 +10653,7 @@
         <v>25</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q92" s="3">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>295</v>
       </c>
       <c r="Y92" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z92" s="3">
         <v>0</v>
@@ -10689,7 +10689,7 @@
         <v>25</v>
       </c>
       <c r="AB92" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC92" s="3">
         <v>0</v>
@@ -10737,7 +10737,7 @@
         <v>160</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N93" s="3">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>25</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q93" s="3">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>295</v>
       </c>
       <c r="Y93" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z93" s="3">
         <v>0</v>
@@ -10782,7 +10782,7 @@
         <v>25</v>
       </c>
       <c r="AB93" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC93" s="3">
         <v>0</v>
@@ -10830,7 +10830,7 @@
         <v>160</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -10839,7 +10839,7 @@
         <v>25</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>295</v>
       </c>
       <c r="Y94" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>25</v>
       </c>
       <c r="AB94" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>160</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N95" s="3">
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>25</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q95" s="3">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>295</v>
       </c>
       <c r="Y95" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z95" s="3">
         <v>0</v>
@@ -10968,7 +10968,7 @@
         <v>25</v>
       </c>
       <c r="AB95" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC95" s="3">
         <v>0</v>
@@ -11016,7 +11016,7 @@
         <v>160</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>25</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>295</v>
       </c>
       <c r="Y96" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>25</v>
       </c>
       <c r="AB96" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC96" s="3">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>160</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N97" s="3">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>25</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>295</v>
       </c>
       <c r="Y97" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z97" s="3">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>25</v>
       </c>
       <c r="AB97" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC97" s="3">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>160</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N98" s="3">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>25</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q98" s="3">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>295</v>
       </c>
       <c r="Y98" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z98" s="3">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>25</v>
       </c>
       <c r="AB98" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC98" s="3">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>160</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N99" s="3">
         <v>0</v>
@@ -11304,7 +11304,7 @@
         <v>25</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -11331,7 +11331,7 @@
         <v>295</v>
       </c>
       <c r="Y99" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z99" s="3">
         <v>0</v>
@@ -11340,7 +11340,7 @@
         <v>25</v>
       </c>
       <c r="AB99" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC99" s="3">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>160</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>25</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -11424,7 +11424,7 @@
         <v>295</v>
       </c>
       <c r="Y100" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -11433,7 +11433,7 @@
         <v>25</v>
       </c>
       <c r="AB100" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
@@ -11481,7 +11481,7 @@
         <v>160</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -11490,7 +11490,7 @@
         <v>25</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -11517,7 +11517,7 @@
         <v>295</v>
       </c>
       <c r="Y101" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>25</v>
       </c>
       <c r="AB101" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC101" s="3">
         <v>0</v>
@@ -11574,7 +11574,7 @@
         <v>160</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -11583,7 +11583,7 @@
         <v>25</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -11610,7 +11610,7 @@
         <v>295</v>
       </c>
       <c r="Y102" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -11619,7 +11619,7 @@
         <v>25</v>
       </c>
       <c r="AB102" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC102" s="3">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>160</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N103" s="3">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>25</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q103" s="3">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>295</v>
       </c>
       <c r="Y103" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z103" s="3">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>25</v>
       </c>
       <c r="AB103" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AC103" s="3">
         <v>0</v>
@@ -11733,10 +11733,10 @@
   <dimension ref="A1:AM1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I976" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="R1:W1048576"/>
+      <selection pane="bottomRight" activeCell="I1006" sqref="I1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74650,7 +74650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62784939-42BC-4A68-B525-F917D5B67589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7E93A-1BE1-43F5-B5AC-9305859CAC03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1496,16 +1496,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>208844</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>265994</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>46992</xdr:rowOff>
+      <xdr:rowOff>75567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1528,7 +1528,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381750" y="3295650"/>
+          <a:off x="8496300" y="3324225"/>
           <a:ext cx="5647619" cy="5066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:AD103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
@@ -11730,8 +11730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:Y1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
@@ -76400,10 +76400,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -76463,7 +76463,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -76481,7 +76481,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -76495,7 +76495,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -76509,7 +76509,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -76523,7 +76523,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
@@ -76537,7 +76537,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -76551,7 +76551,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>8</v>
@@ -76565,7 +76565,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>9</v>
@@ -76579,7 +76579,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
@@ -76593,7 +76593,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
@@ -76607,7 +76607,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
@@ -76621,7 +76621,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>13</v>
@@ -76632,7 +76632,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>14</v>
@@ -76643,7 +76643,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
@@ -76656,7 +76656,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>16</v>
@@ -76667,7 +76667,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>17</v>
@@ -76678,7 +76678,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>18</v>
@@ -76689,7 +76689,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3">
         <v>19</v>
@@ -76700,7 +76700,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>20</v>
@@ -76711,7 +76711,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <v>21</v>
@@ -76722,7 +76722,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <v>22</v>
@@ -76733,7 +76733,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>23</v>
@@ -76744,7 +76744,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>24</v>
@@ -76755,7 +76755,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <v>25</v>
@@ -76766,7 +76766,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <v>26</v>
@@ -76777,7 +76777,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>27</v>
@@ -76788,7 +76788,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3">
         <v>28</v>
@@ -76799,7 +76799,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
         <v>29</v>
@@ -76810,7 +76810,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>30</v>
@@ -76821,7 +76821,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>31</v>
@@ -76832,7 +76832,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>32</v>
@@ -76843,7 +76843,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3">
         <v>33</v>
@@ -76854,7 +76854,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>34</v>
@@ -76865,7 +76865,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3">
         <v>35</v>
@@ -76876,7 +76876,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3">
         <v>36</v>
@@ -76887,7 +76887,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <v>37</v>
@@ -76898,7 +76898,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3">
         <v>38</v>
@@ -76909,7 +76909,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3">
         <v>39</v>
@@ -76920,7 +76920,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3">
         <v>40</v>
@@ -76931,7 +76931,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3">
         <v>41</v>
@@ -76942,7 +76942,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3">
         <v>42</v>
@@ -76953,7 +76953,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3">
         <v>43</v>
@@ -76964,7 +76964,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="C47" s="3">
         <v>44</v>
@@ -76975,7 +76975,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="C48" s="3">
         <v>45</v>
@@ -76986,7 +76986,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="C49" s="3">
         <v>46</v>
@@ -76997,7 +76997,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="C50" s="3">
         <v>47</v>
@@ -77008,7 +77008,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="C51" s="3">
         <v>48</v>
@@ -77019,7 +77019,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="3">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="C52" s="3">
         <v>49</v>
@@ -77030,7 +77030,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="C53" s="3">
         <v>50</v>
@@ -77041,7 +77041,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="3">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="C54" s="3">
         <v>51</v>
@@ -77052,7 +77052,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>620</v>
+        <v>190</v>
       </c>
       <c r="C55" s="3">
         <v>52</v>
@@ -77063,7 +77063,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="C56" s="3">
         <v>53</v>
@@ -77074,7 +77074,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>660</v>
+        <v>210</v>
       </c>
       <c r="C57" s="3">
         <v>54</v>
@@ -77085,7 +77085,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="C58" s="3">
         <v>55</v>
@@ -77096,7 +77096,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="C59" s="3">
         <v>56</v>
@@ -77107,7 +77107,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="C60" s="3">
         <v>57</v>
@@ -77118,7 +77118,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>740</v>
+        <v>250</v>
       </c>
       <c r="C61" s="3">
         <v>58</v>
@@ -77129,7 +77129,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>760</v>
+        <v>260</v>
       </c>
       <c r="C62" s="3">
         <v>59</v>
@@ -77140,7 +77140,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>780</v>
+        <v>270</v>
       </c>
       <c r="C63" s="3">
         <v>60</v>
@@ -77151,7 +77151,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="C64" s="3">
         <v>61</v>
@@ -77162,7 +77162,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>810</v>
+        <v>290</v>
       </c>
       <c r="C65" s="3">
         <v>62</v>
@@ -77173,7 +77173,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>820</v>
+        <v>300</v>
       </c>
       <c r="C66" s="3">
         <v>63</v>
@@ -77184,7 +77184,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>830</v>
+        <v>320</v>
       </c>
       <c r="C67" s="3">
         <v>64</v>
@@ -77195,7 +77195,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>840</v>
+        <v>340</v>
       </c>
       <c r="C68" s="3">
         <v>65</v>
@@ -77206,7 +77206,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>850</v>
+        <v>360</v>
       </c>
       <c r="C69" s="3">
         <v>66</v>
@@ -77217,7 +77217,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>860</v>
+        <v>380</v>
       </c>
       <c r="C70" s="3">
         <v>67</v>
@@ -77228,7 +77228,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>870</v>
+        <v>400</v>
       </c>
       <c r="C71" s="3">
         <v>68</v>
@@ -77239,7 +77239,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>880</v>
+        <v>420</v>
       </c>
       <c r="C72" s="3">
         <v>69</v>
@@ -77250,7 +77250,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>890</v>
+        <v>440</v>
       </c>
       <c r="C73" s="3">
         <v>70</v>
@@ -77261,7 +77261,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>900</v>
+        <v>460</v>
       </c>
       <c r="C74" s="3">
         <v>71</v>
@@ -77272,7 +77272,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>910</v>
+        <v>480</v>
       </c>
       <c r="C75" s="3">
         <v>72</v>
@@ -77283,7 +77283,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>920</v>
+        <v>500</v>
       </c>
       <c r="C76" s="3">
         <v>73</v>
@@ -77294,7 +77294,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>930</v>
+        <v>520</v>
       </c>
       <c r="C77" s="3">
         <v>74</v>
@@ -77305,7 +77305,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>940</v>
+        <v>540</v>
       </c>
       <c r="C78" s="3">
         <v>75</v>
@@ -77316,7 +77316,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>950</v>
+        <v>560</v>
       </c>
       <c r="C79" s="3">
         <v>76</v>
@@ -77327,7 +77327,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="C80" s="3">
         <v>77</v>
@@ -77338,7 +77338,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="C81" s="3">
         <v>78</v>
@@ -77349,7 +77349,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>980</v>
+        <v>620</v>
       </c>
       <c r="C82" s="3">
         <v>79</v>
@@ -77360,7 +77360,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>990</v>
+        <v>640</v>
       </c>
       <c r="C83" s="3">
         <v>80</v>
@@ -77371,7 +77371,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="C84" s="3">
         <v>81</v>
@@ -77382,10 +77382,296 @@
         <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="C85" s="3">
         <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>700</v>
+      </c>
+      <c r="C86" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>720</v>
+      </c>
+      <c r="C87" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>740</v>
+      </c>
+      <c r="C88" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>760</v>
+      </c>
+      <c r="C89" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>780</v>
+      </c>
+      <c r="C90" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>800</v>
+      </c>
+      <c r="C91" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>810</v>
+      </c>
+      <c r="C92" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>820</v>
+      </c>
+      <c r="C93" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>830</v>
+      </c>
+      <c r="C94" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>840</v>
+      </c>
+      <c r="C95" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>850</v>
+      </c>
+      <c r="C96" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>860</v>
+      </c>
+      <c r="C97" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>870</v>
+      </c>
+      <c r="C98" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>880</v>
+      </c>
+      <c r="C99" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>890</v>
+      </c>
+      <c r="C100" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>900</v>
+      </c>
+      <c r="C101" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>910</v>
+      </c>
+      <c r="C102" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>920</v>
+      </c>
+      <c r="C103" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3">
+        <v>930</v>
+      </c>
+      <c r="C104" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>940</v>
+      </c>
+      <c r="C105" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>950</v>
+      </c>
+      <c r="C106" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3">
+        <v>960</v>
+      </c>
+      <c r="C107" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>970</v>
+      </c>
+      <c r="C108" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>980</v>
+      </c>
+      <c r="C109" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>990</v>
+      </c>
+      <c r="C110" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C111" s="3">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810076CC-B147-4AFC-B13F-90F0E7467163}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7BE596-8416-4414-87D3-522B69A34548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -11981,10 +11981,10 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z24" sqref="Z24"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7BE596-8416-4414-87D3-522B69A34548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967A2CD-4B29-4859-B6BB-D06319F87AAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2089,11 +2089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:AE103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11980,7 +11980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967A2CD-4B29-4859-B6BB-D06319F87AAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DCCA02-B769-43DC-BFE0-205A442252F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2093,7 +2093,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC22A0-8B84-4646-9490-12ED643A547C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E1712-9E60-4C27-AC9B-15AB83CC8591}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="297">
   <si>
     <t>sheet名</t>
   </si>
@@ -1382,6 +1382,10 @@
   <si>
     <t>第100章. 战争机器</t>
   </si>
+  <si>
+    <t>武器S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2350,10 +2354,10 @@
   <dimension ref="A1:AE103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2730,9 +2734,15 @@
       <c r="AB4" s="3">
         <v>20</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="AC4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E1712-9E60-4C27-AC9B-15AB83CC8591}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448677DF-D030-4704-B155-C8982BD2BA30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2353,11 +2353,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12161,10 +12161,10 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -77930,10 +77930,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -78406,7 +78406,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3">
         <v>36</v>
@@ -78417,7 +78417,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3">
         <v>37</v>
@@ -78428,7 +78428,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3">
         <v>38</v>
@@ -78439,7 +78439,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3">
         <v>39</v>
@@ -78450,7 +78450,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3">
         <v>40</v>
@@ -78461,7 +78461,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3">
         <v>41</v>
@@ -78472,7 +78472,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3">
         <v>42</v>
@@ -78483,7 +78483,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3">
         <v>43</v>
@@ -78494,7 +78494,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3">
         <v>44</v>
@@ -78505,7 +78505,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3">
         <v>45</v>
@@ -78516,7 +78516,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3">
         <v>46</v>
@@ -78527,7 +78527,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
         <v>47</v>
@@ -78538,7 +78538,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C51" s="3">
         <v>48</v>
@@ -78549,7 +78549,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="3">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3">
         <v>49</v>
@@ -78560,7 +78560,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3">
         <v>50</v>
@@ -78571,7 +78571,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="3">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="C54" s="3">
         <v>51</v>
@@ -78582,7 +78582,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3">
         <v>52</v>
@@ -78593,7 +78593,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C56" s="3">
         <v>53</v>
@@ -78604,7 +78604,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3">
         <v>54</v>
@@ -78615,7 +78615,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C58" s="3">
         <v>55</v>
@@ -78626,7 +78626,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C59" s="3">
         <v>56</v>
@@ -78637,7 +78637,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="C60" s="3">
         <v>57</v>
@@ -78648,7 +78648,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="C61" s="3">
         <v>58</v>
@@ -78659,7 +78659,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C62" s="3">
         <v>59</v>
@@ -78670,7 +78670,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="C63" s="3">
         <v>60</v>
@@ -78681,7 +78681,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="C64" s="3">
         <v>61</v>
@@ -78692,7 +78692,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="C65" s="3">
         <v>62</v>
@@ -78703,7 +78703,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="C66" s="3">
         <v>63</v>
@@ -78714,7 +78714,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C67" s="3">
         <v>64</v>
@@ -78725,7 +78725,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="C68" s="3">
         <v>65</v>
@@ -78736,7 +78736,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="C69" s="3">
         <v>66</v>
@@ -78747,7 +78747,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="C70" s="3">
         <v>67</v>
@@ -78758,7 +78758,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="C71" s="3">
         <v>68</v>
@@ -78769,7 +78769,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C72" s="3">
         <v>69</v>
@@ -78780,7 +78780,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="C73" s="3">
         <v>70</v>
@@ -78791,7 +78791,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="C74" s="3">
         <v>71</v>
@@ -78802,7 +78802,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="C75" s="3">
         <v>72</v>
@@ -78813,7 +78813,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="C76" s="3">
         <v>73</v>
@@ -78824,7 +78824,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="C77" s="3">
         <v>74</v>
@@ -78835,7 +78835,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="C78" s="3">
         <v>75</v>
@@ -78846,7 +78846,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="C79" s="3">
         <v>76</v>
@@ -78857,7 +78857,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="C80" s="3">
         <v>77</v>
@@ -78868,7 +78868,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="C81" s="3">
         <v>78</v>
@@ -78879,7 +78879,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="C82" s="3">
         <v>79</v>
@@ -78890,7 +78890,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>640</v>
+        <v>420</v>
       </c>
       <c r="C83" s="3">
         <v>80</v>
@@ -78901,7 +78901,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="C84" s="3">
         <v>81</v>
@@ -78912,7 +78912,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>680</v>
+        <v>460</v>
       </c>
       <c r="C85" s="3">
         <v>82</v>
@@ -78923,7 +78923,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="C86" s="3">
         <v>83</v>
@@ -78934,7 +78934,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="C87" s="3">
         <v>84</v>
@@ -78945,7 +78945,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="3">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="C88" s="3">
         <v>85</v>
@@ -78956,7 +78956,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="3">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="C89" s="3">
         <v>86</v>
@@ -78967,7 +78967,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="3">
-        <v>780</v>
+        <v>560</v>
       </c>
       <c r="C90" s="3">
         <v>87</v>
@@ -78978,7 +78978,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="3">
-        <v>800</v>
+        <v>580</v>
       </c>
       <c r="C91" s="3">
         <v>88</v>
@@ -78989,7 +78989,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="3">
-        <v>810</v>
+        <v>600</v>
       </c>
       <c r="C92" s="3">
         <v>89</v>
@@ -79000,7 +79000,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="3">
-        <v>820</v>
+        <v>620</v>
       </c>
       <c r="C93" s="3">
         <v>90</v>
@@ -79011,7 +79011,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="3">
-        <v>830</v>
+        <v>640</v>
       </c>
       <c r="C94" s="3">
         <v>91</v>
@@ -79022,7 +79022,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="3">
-        <v>840</v>
+        <v>660</v>
       </c>
       <c r="C95" s="3">
         <v>92</v>
@@ -79033,7 +79033,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="3">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="C96" s="3">
         <v>93</v>
@@ -79044,7 +79044,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="3">
-        <v>860</v>
+        <v>700</v>
       </c>
       <c r="C97" s="3">
         <v>94</v>
@@ -79055,7 +79055,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="3">
-        <v>870</v>
+        <v>720</v>
       </c>
       <c r="C98" s="3">
         <v>95</v>
@@ -79066,7 +79066,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="3">
-        <v>880</v>
+        <v>740</v>
       </c>
       <c r="C99" s="3">
         <v>96</v>
@@ -79077,7 +79077,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="3">
-        <v>890</v>
+        <v>760</v>
       </c>
       <c r="C100" s="3">
         <v>97</v>
@@ -79088,7 +79088,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="3">
-        <v>900</v>
+        <v>780</v>
       </c>
       <c r="C101" s="3">
         <v>98</v>
@@ -79099,7 +79099,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="3">
-        <v>910</v>
+        <v>800</v>
       </c>
       <c r="C102" s="3">
         <v>99</v>
@@ -79110,7 +79110,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="3">
-        <v>920</v>
+        <v>810</v>
       </c>
       <c r="C103" s="3">
         <v>100</v>
@@ -79121,7 +79121,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="3">
-        <v>930</v>
+        <v>820</v>
       </c>
       <c r="C104" s="3">
         <v>101</v>
@@ -79132,7 +79132,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="3">
-        <v>940</v>
+        <v>830</v>
       </c>
       <c r="C105" s="3">
         <v>102</v>
@@ -79143,7 +79143,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="3">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="C106" s="3">
         <v>103</v>
@@ -79154,7 +79154,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="3">
-        <v>960</v>
+        <v>850</v>
       </c>
       <c r="C107" s="3">
         <v>104</v>
@@ -79165,7 +79165,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="3">
-        <v>970</v>
+        <v>860</v>
       </c>
       <c r="C108" s="3">
         <v>105</v>
@@ -79176,7 +79176,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="3">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="C109" s="3">
         <v>106</v>
@@ -79187,7 +79187,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="3">
-        <v>990</v>
+        <v>880</v>
       </c>
       <c r="C110" s="3">
         <v>107</v>
@@ -79198,10 +79198,131 @@
         <v>108</v>
       </c>
       <c r="B111" s="3">
-        <v>1000</v>
+        <v>890</v>
       </c>
       <c r="C111" s="3">
         <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>900</v>
+      </c>
+      <c r="C112" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>910</v>
+      </c>
+      <c r="C113" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>920</v>
+      </c>
+      <c r="C114" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>930</v>
+      </c>
+      <c r="C115" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>940</v>
+      </c>
+      <c r="C116" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>950</v>
+      </c>
+      <c r="C117" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>960</v>
+      </c>
+      <c r="C118" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>970</v>
+      </c>
+      <c r="C119" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>980</v>
+      </c>
+      <c r="C120" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
+        <v>990</v>
+      </c>
+      <c r="C121" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C122" s="3">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448677DF-D030-4704-B155-C8982BD2BA30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDDF2A0-C345-49D7-9BC1-6062008EE0EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12160,11 +12160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="R19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14389,7 +14389,7 @@
         <v>183</v>
       </c>
       <c r="Y34" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z34" s="3">
         <v>93046</v>
@@ -14458,7 +14458,7 @@
         <v>183</v>
       </c>
       <c r="Y35" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z35" s="3">
         <v>97902</v>
@@ -14527,7 +14527,7 @@
         <v>183</v>
       </c>
       <c r="Y36" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z36" s="3">
         <v>101146</v>
@@ -14596,7 +14596,7 @@
         <v>183</v>
       </c>
       <c r="Y37" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z37" s="3">
         <v>102749</v>
@@ -14657,7 +14657,7 @@
         <v>183</v>
       </c>
       <c r="Y38" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z38" s="3">
         <v>152553</v>
@@ -14726,7 +14726,7 @@
         <v>183</v>
       </c>
       <c r="Y39" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z39" s="3">
         <v>224312</v>
@@ -14795,7 +14795,7 @@
         <v>183</v>
       </c>
       <c r="Y40" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z40" s="3">
         <v>301736</v>
@@ -14864,7 +14864,7 @@
         <v>183</v>
       </c>
       <c r="Y41" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z41" s="3">
         <v>358030</v>
@@ -14933,7 +14933,7 @@
         <v>183</v>
       </c>
       <c r="Y42" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z42" s="3">
         <v>505470</v>
@@ -14994,7 +14994,7 @@
         <v>183</v>
       </c>
       <c r="Y43" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z43" s="3">
         <v>667933</v>
@@ -15063,7 +15063,7 @@
         <v>183</v>
       </c>
       <c r="Y44" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z44" s="3">
         <v>786451</v>
@@ -15132,7 +15132,7 @@
         <v>183</v>
       </c>
       <c r="Y45" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z45" s="3">
         <v>1034123</v>
@@ -15201,7 +15201,7 @@
         <v>183</v>
       </c>
       <c r="Y46" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z46" s="3">
         <v>1348235</v>
@@ -15270,7 +15270,7 @@
         <v>183</v>
       </c>
       <c r="Y47" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z47" s="3">
         <v>1509684</v>
@@ -15331,7 +15331,7 @@
         <v>183</v>
       </c>
       <c r="Y48" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z48" s="3">
         <v>1917370</v>
@@ -15400,7 +15400,7 @@
         <v>183</v>
       </c>
       <c r="Y49" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z49" s="3">
         <v>2518437</v>
@@ -15469,7 +15469,7 @@
         <v>183</v>
       </c>
       <c r="Y50" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z50" s="3">
         <v>2927979</v>
@@ -15538,7 +15538,7 @@
         <v>183</v>
       </c>
       <c r="Y51" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z51" s="3">
         <v>3741171</v>
@@ -15607,7 +15607,7 @@
         <v>183</v>
       </c>
       <c r="Y52" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z52" s="3">
         <v>4003212</v>
@@ -15668,7 +15668,7 @@
         <v>183</v>
       </c>
       <c r="Y53" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z53" s="3">
         <v>4312741</v>
@@ -15737,7 +15737,7 @@
         <v>183</v>
       </c>
       <c r="Y54" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z54" s="3">
         <v>4928362</v>
@@ -15806,7 +15806,7 @@
         <v>183</v>
       </c>
       <c r="Y55" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z55" s="3">
         <v>5288710</v>
@@ -15875,7 +15875,7 @@
         <v>183</v>
       </c>
       <c r="Y56" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z56" s="3">
         <v>7560734</v>
@@ -15944,7 +15944,7 @@
         <v>183</v>
       </c>
       <c r="Y57" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z57" s="3">
         <v>8177882</v>
@@ -16005,7 +16005,7 @@
         <v>183</v>
       </c>
       <c r="Y58" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z58" s="3">
         <v>8684219</v>
@@ -16074,7 +16074,7 @@
         <v>183</v>
       </c>
       <c r="Y59" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z59" s="3">
         <v>9071060</v>
@@ -16143,7 +16143,7 @@
         <v>183</v>
       </c>
       <c r="Y60" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z60" s="3">
         <v>9747372</v>
@@ -16212,7 +16212,7 @@
         <v>183</v>
       </c>
       <c r="Y61" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z61" s="3">
         <v>10150007</v>
@@ -16281,7 +16281,7 @@
         <v>183</v>
       </c>
       <c r="Y62" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z62" s="3">
         <v>10960032</v>
@@ -16342,7 +16342,7 @@
         <v>183</v>
       </c>
       <c r="Y63" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z63" s="3">
         <v>13060485</v>
@@ -16411,7 +16411,7 @@
         <v>183</v>
       </c>
       <c r="Y64" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z64" s="3">
         <v>14149517</v>
@@ -16480,7 +16480,7 @@
         <v>183</v>
       </c>
       <c r="Y65" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z65" s="3">
         <v>14990386</v>
@@ -16549,7 +16549,7 @@
         <v>183</v>
       </c>
       <c r="Y66" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z66" s="3">
         <v>16144423</v>
@@ -16618,7 +16618,7 @@
         <v>183</v>
       </c>
       <c r="Y67" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z67" s="3">
         <v>19223532</v>
@@ -16679,7 +16679,7 @@
         <v>183</v>
       </c>
       <c r="Y68" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z68" s="3">
         <v>21485182</v>
@@ -16748,7 +16748,7 @@
         <v>183</v>
       </c>
       <c r="Y69" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z69" s="3">
         <v>26221810</v>
@@ -16817,7 +16817,7 @@
         <v>183</v>
       </c>
       <c r="Y70" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z70" s="3">
         <v>29587380</v>
@@ -16886,7 +16886,7 @@
         <v>183</v>
       </c>
       <c r="Y71" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z71" s="3">
         <v>31012559</v>
@@ -16955,7 +16955,7 @@
         <v>183</v>
       </c>
       <c r="Y72" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z72" s="3">
         <v>33549947</v>
@@ -17016,7 +17016,7 @@
         <v>183</v>
       </c>
       <c r="Y73" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z73" s="3">
         <v>48868352</v>
@@ -17085,7 +17085,7 @@
         <v>183</v>
       </c>
       <c r="Y74" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z74" s="3">
         <v>56159164</v>
@@ -17154,7 +17154,7 @@
         <v>183</v>
       </c>
       <c r="Y75" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z75" s="3">
         <v>64342301</v>
@@ -17223,7 +17223,7 @@
         <v>183</v>
       </c>
       <c r="Y76" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z76" s="3">
         <v>71190665</v>
@@ -17292,7 +17292,7 @@
         <v>183</v>
       </c>
       <c r="Y77" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z77" s="3">
         <v>77030543</v>
@@ -17353,7 +17353,7 @@
         <v>183</v>
       </c>
       <c r="Y78" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z78" s="3">
         <v>86853631</v>
@@ -17422,7 +17422,7 @@
         <v>183</v>
       </c>
       <c r="Y79" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z79" s="3">
         <v>89762452</v>
@@ -17491,7 +17491,7 @@
         <v>183</v>
       </c>
       <c r="Y80" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z80" s="3">
         <v>92447011</v>
@@ -17560,7 +17560,7 @@
         <v>183</v>
       </c>
       <c r="Y81" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z81" s="3">
         <v>104183937</v>
@@ -17629,7 +17629,7 @@
         <v>183</v>
       </c>
       <c r="Y82" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z82" s="3">
         <v>113107364</v>
@@ -17690,7 +17690,7 @@
         <v>183</v>
       </c>
       <c r="Y83" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z83" s="3">
         <v>124300505</v>
@@ -17759,7 +17759,7 @@
         <v>174</v>
       </c>
       <c r="Y84" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z84" s="3">
         <v>131036860</v>
@@ -17828,7 +17828,7 @@
         <v>174</v>
       </c>
       <c r="Y85" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z85" s="3">
         <v>134332238</v>
@@ -17897,7 +17897,7 @@
         <v>174</v>
       </c>
       <c r="Y86" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z86" s="3">
         <v>137893769</v>
@@ -17966,7 +17966,7 @@
         <v>174</v>
       </c>
       <c r="Y87" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z87" s="3">
         <v>145748717</v>
@@ -18027,7 +18027,7 @@
         <v>174</v>
       </c>
       <c r="Y88" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z88" s="3">
         <v>154209705</v>
@@ -18096,7 +18096,7 @@
         <v>174</v>
       </c>
       <c r="Y89" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z89" s="3">
         <v>169446411</v>
@@ -18165,7 +18165,7 @@
         <v>174</v>
       </c>
       <c r="Y90" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z90" s="3">
         <v>184124344</v>
@@ -18234,7 +18234,7 @@
         <v>174</v>
       </c>
       <c r="Y91" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z91" s="3">
         <v>192092405</v>
@@ -18303,7 +18303,7 @@
         <v>174</v>
       </c>
       <c r="Y92" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z92" s="3">
         <v>201715123</v>
@@ -18364,7 +18364,7 @@
         <v>174</v>
       </c>
       <c r="Y93" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z93" s="3">
         <v>213202982</v>
@@ -18433,7 +18433,7 @@
         <v>174</v>
       </c>
       <c r="Y94" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z94" s="3">
         <v>215567937</v>
@@ -18502,7 +18502,7 @@
         <v>174</v>
       </c>
       <c r="Y95" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z95" s="3">
         <v>219330510</v>
@@ -18571,7 +18571,7 @@
         <v>174</v>
       </c>
       <c r="Y96" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z96" s="3">
         <v>233055328</v>
@@ -18640,7 +18640,7 @@
         <v>174</v>
       </c>
       <c r="Y97" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z97" s="3">
         <v>251829542</v>
@@ -18701,7 +18701,7 @@
         <v>174</v>
       </c>
       <c r="Y98" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z98" s="3">
         <v>262843736</v>
@@ -18770,7 +18770,7 @@
         <v>174</v>
       </c>
       <c r="Y99" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z99" s="3">
         <v>271543736</v>
@@ -18839,7 +18839,7 @@
         <v>174</v>
       </c>
       <c r="Y100" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z100" s="3">
         <v>274266167</v>
@@ -18908,7 +18908,7 @@
         <v>174</v>
       </c>
       <c r="Y101" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z101" s="3">
         <v>303360378</v>
@@ -18977,7 +18977,7 @@
         <v>174</v>
       </c>
       <c r="Y102" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z102" s="3">
         <v>316007810</v>
@@ -19038,7 +19038,7 @@
         <v>174</v>
       </c>
       <c r="Y103" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z103" s="3">
         <v>318672701</v>
@@ -19107,7 +19107,7 @@
         <v>174</v>
       </c>
       <c r="Y104" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z104" s="3">
         <v>321758802</v>
@@ -19176,7 +19176,7 @@
         <v>174</v>
       </c>
       <c r="Y105" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z105" s="3">
         <v>324851733</v>
@@ -19245,7 +19245,7 @@
         <v>174</v>
       </c>
       <c r="Y106" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z106" s="3">
         <v>327972434</v>
@@ -19314,7 +19314,7 @@
         <v>174</v>
       </c>
       <c r="Y107" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z107" s="3">
         <v>331049455</v>
@@ -19375,7 +19375,7 @@
         <v>174</v>
       </c>
       <c r="Y108" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z108" s="3">
         <v>333714326</v>
@@ -19444,7 +19444,7 @@
         <v>174</v>
       </c>
       <c r="Y109" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z109" s="3">
         <v>336801137</v>
@@ -19513,7 +19513,7 @@
         <v>174</v>
       </c>
       <c r="Y110" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z110" s="3">
         <v>339878168</v>
@@ -19582,7 +19582,7 @@
         <v>174</v>
       </c>
       <c r="Y111" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z111" s="3">
         <v>342964969</v>
@@ -19651,7 +19651,7 @@
         <v>174</v>
       </c>
       <c r="Y112" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z112" s="3"/>
     </row>
@@ -19710,7 +19710,7 @@
         <v>174</v>
       </c>
       <c r="Y113" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z113" s="3"/>
     </row>
@@ -19777,7 +19777,7 @@
         <v>174</v>
       </c>
       <c r="Y114" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z114" s="3"/>
     </row>
@@ -19844,7 +19844,7 @@
         <v>174</v>
       </c>
       <c r="Y115" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z115" s="3"/>
     </row>
@@ -19911,7 +19911,7 @@
         <v>174</v>
       </c>
       <c r="Y116" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z116" s="3"/>
     </row>
@@ -19978,7 +19978,7 @@
         <v>174</v>
       </c>
       <c r="Y117" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z117" s="3"/>
     </row>
@@ -20037,7 +20037,7 @@
         <v>174</v>
       </c>
       <c r="Y118" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z118" s="3"/>
     </row>
@@ -20104,7 +20104,7 @@
         <v>174</v>
       </c>
       <c r="Y119" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z119" s="3"/>
     </row>
@@ -20171,7 +20171,7 @@
         <v>174</v>
       </c>
       <c r="Y120" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z120" s="3"/>
     </row>
@@ -20238,7 +20238,7 @@
         <v>174</v>
       </c>
       <c r="Y121" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z121" s="3"/>
     </row>
@@ -20305,7 +20305,7 @@
         <v>174</v>
       </c>
       <c r="Y122" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z122" s="3"/>
     </row>
@@ -20364,7 +20364,7 @@
         <v>174</v>
       </c>
       <c r="Y123" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z123" s="3"/>
     </row>
@@ -20431,7 +20431,7 @@
         <v>174</v>
       </c>
       <c r="Y124" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z124" s="3"/>
     </row>
@@ -20498,7 +20498,7 @@
         <v>174</v>
       </c>
       <c r="Y125" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z125" s="3"/>
     </row>
@@ -20565,7 +20565,7 @@
         <v>174</v>
       </c>
       <c r="Y126" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z126" s="3"/>
     </row>
@@ -20632,7 +20632,7 @@
         <v>174</v>
       </c>
       <c r="Y127" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z127" s="3"/>
     </row>
@@ -20691,7 +20691,7 @@
         <v>174</v>
       </c>
       <c r="Y128" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z128" s="3"/>
     </row>
@@ -20758,7 +20758,7 @@
         <v>174</v>
       </c>
       <c r="Y129" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z129" s="3"/>
     </row>
@@ -20825,7 +20825,7 @@
         <v>174</v>
       </c>
       <c r="Y130" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z130" s="3"/>
     </row>
@@ -20892,7 +20892,7 @@
         <v>174</v>
       </c>
       <c r="Y131" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z131" s="3"/>
     </row>
@@ -20959,7 +20959,7 @@
         <v>174</v>
       </c>
       <c r="Y132" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z132" s="3"/>
     </row>
@@ -21018,7 +21018,7 @@
         <v>174</v>
       </c>
       <c r="Y133" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z133" s="3"/>
     </row>
@@ -21085,7 +21085,7 @@
         <v>174</v>
       </c>
       <c r="Y134" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z134" s="3"/>
     </row>
@@ -21152,7 +21152,7 @@
         <v>174</v>
       </c>
       <c r="Y135" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z135" s="3"/>
     </row>
@@ -21219,7 +21219,7 @@
         <v>174</v>
       </c>
       <c r="Y136" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z136" s="3"/>
     </row>
@@ -21286,7 +21286,7 @@
         <v>174</v>
       </c>
       <c r="Y137" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z137" s="3"/>
     </row>
@@ -21345,7 +21345,7 @@
         <v>174</v>
       </c>
       <c r="Y138" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z138" s="3"/>
     </row>
@@ -21412,7 +21412,7 @@
         <v>174</v>
       </c>
       <c r="Y139" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z139" s="3"/>
     </row>
@@ -21479,7 +21479,7 @@
         <v>174</v>
       </c>
       <c r="Y140" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z140" s="3"/>
     </row>
@@ -21546,7 +21546,7 @@
         <v>174</v>
       </c>
       <c r="Y141" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z141" s="3"/>
     </row>
@@ -21613,7 +21613,7 @@
         <v>174</v>
       </c>
       <c r="Y142" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z142" s="3"/>
     </row>
@@ -21672,7 +21672,7 @@
         <v>174</v>
       </c>
       <c r="Y143" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z143" s="3"/>
     </row>
@@ -21739,7 +21739,7 @@
         <v>175</v>
       </c>
       <c r="Y144" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z144" s="3"/>
     </row>
@@ -21806,7 +21806,7 @@
         <v>175</v>
       </c>
       <c r="Y145" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z145" s="3"/>
     </row>
@@ -21873,7 +21873,7 @@
         <v>175</v>
       </c>
       <c r="Y146" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z146" s="3"/>
     </row>
@@ -21940,7 +21940,7 @@
         <v>175</v>
       </c>
       <c r="Y147" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z147" s="3"/>
     </row>
@@ -21999,7 +21999,7 @@
         <v>175</v>
       </c>
       <c r="Y148" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z148" s="3"/>
     </row>
@@ -22066,7 +22066,7 @@
         <v>175</v>
       </c>
       <c r="Y149" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z149" s="3"/>
     </row>
@@ -22133,7 +22133,7 @@
         <v>175</v>
       </c>
       <c r="Y150" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z150" s="3"/>
     </row>
@@ -22200,7 +22200,7 @@
         <v>175</v>
       </c>
       <c r="Y151" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z151" s="3"/>
     </row>
@@ -22267,7 +22267,7 @@
         <v>175</v>
       </c>
       <c r="Y152" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z152" s="3"/>
     </row>
@@ -22326,7 +22326,7 @@
         <v>175</v>
       </c>
       <c r="Y153" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z153" s="3"/>
     </row>
@@ -22393,7 +22393,7 @@
         <v>175</v>
       </c>
       <c r="Y154" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z154" s="3"/>
     </row>
@@ -22460,7 +22460,7 @@
         <v>175</v>
       </c>
       <c r="Y155" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z155" s="3"/>
     </row>
@@ -22527,7 +22527,7 @@
         <v>175</v>
       </c>
       <c r="Y156" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z156" s="3"/>
     </row>
@@ -22594,7 +22594,7 @@
         <v>175</v>
       </c>
       <c r="Y157" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z157" s="3"/>
     </row>
@@ -22653,7 +22653,7 @@
         <v>175</v>
       </c>
       <c r="Y158" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z158" s="3"/>
     </row>
@@ -22720,7 +22720,7 @@
         <v>175</v>
       </c>
       <c r="Y159" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z159" s="3"/>
     </row>
@@ -22787,7 +22787,7 @@
         <v>175</v>
       </c>
       <c r="Y160" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z160" s="3"/>
     </row>
@@ -22854,7 +22854,7 @@
         <v>175</v>
       </c>
       <c r="Y161" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z161" s="3"/>
     </row>
@@ -22921,7 +22921,7 @@
         <v>175</v>
       </c>
       <c r="Y162" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z162" s="3"/>
     </row>
@@ -22980,7 +22980,7 @@
         <v>175</v>
       </c>
       <c r="Y163" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z163" s="3"/>
     </row>
@@ -23047,7 +23047,7 @@
         <v>175</v>
       </c>
       <c r="Y164" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z164" s="3"/>
     </row>
@@ -23114,7 +23114,7 @@
         <v>175</v>
       </c>
       <c r="Y165" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z165" s="3"/>
     </row>
@@ -23181,7 +23181,7 @@
         <v>175</v>
       </c>
       <c r="Y166" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z166" s="3"/>
     </row>
@@ -23248,7 +23248,7 @@
         <v>175</v>
       </c>
       <c r="Y167" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z167" s="3"/>
     </row>
@@ -23307,7 +23307,7 @@
         <v>175</v>
       </c>
       <c r="Y168" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z168" s="3"/>
     </row>
@@ -23374,7 +23374,7 @@
         <v>175</v>
       </c>
       <c r="Y169" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z169" s="3"/>
     </row>
@@ -23441,7 +23441,7 @@
         <v>175</v>
       </c>
       <c r="Y170" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z170" s="3"/>
     </row>
@@ -23508,7 +23508,7 @@
         <v>175</v>
       </c>
       <c r="Y171" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z171" s="3"/>
     </row>
@@ -23575,7 +23575,7 @@
         <v>175</v>
       </c>
       <c r="Y172" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z172" s="3"/>
     </row>
@@ -23634,7 +23634,7 @@
         <v>175</v>
       </c>
       <c r="Y173" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z173" s="3"/>
     </row>
@@ -23701,7 +23701,7 @@
         <v>175</v>
       </c>
       <c r="Y174" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z174" s="3"/>
     </row>
@@ -23768,7 +23768,7 @@
         <v>175</v>
       </c>
       <c r="Y175" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z175" s="3"/>
     </row>
@@ -23835,7 +23835,7 @@
         <v>175</v>
       </c>
       <c r="Y176" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z176" s="3"/>
     </row>
@@ -23902,7 +23902,7 @@
         <v>175</v>
       </c>
       <c r="Y177" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z177" s="3"/>
     </row>
@@ -23961,7 +23961,7 @@
         <v>175</v>
       </c>
       <c r="Y178" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z178" s="3"/>
     </row>
@@ -24028,7 +24028,7 @@
         <v>175</v>
       </c>
       <c r="Y179" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z179" s="3"/>
     </row>
@@ -24095,7 +24095,7 @@
         <v>175</v>
       </c>
       <c r="Y180" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z180" s="3"/>
     </row>
@@ -24162,7 +24162,7 @@
         <v>175</v>
       </c>
       <c r="Y181" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z181" s="3"/>
     </row>
@@ -24229,7 +24229,7 @@
         <v>175</v>
       </c>
       <c r="Y182" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z182" s="3"/>
     </row>
@@ -24288,7 +24288,7 @@
         <v>175</v>
       </c>
       <c r="Y183" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z183" s="3"/>
     </row>
@@ -24355,7 +24355,7 @@
         <v>175</v>
       </c>
       <c r="Y184" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z184" s="3"/>
     </row>
@@ -24422,7 +24422,7 @@
         <v>175</v>
       </c>
       <c r="Y185" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z185" s="3"/>
     </row>
@@ -24489,7 +24489,7 @@
         <v>175</v>
       </c>
       <c r="Y186" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z186" s="3"/>
     </row>
@@ -24556,7 +24556,7 @@
         <v>175</v>
       </c>
       <c r="Y187" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z187" s="3"/>
     </row>
@@ -24615,7 +24615,7 @@
         <v>175</v>
       </c>
       <c r="Y188" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z188" s="3"/>
     </row>
@@ -24682,7 +24682,7 @@
         <v>175</v>
       </c>
       <c r="Y189" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z189" s="3"/>
     </row>
@@ -24749,7 +24749,7 @@
         <v>175</v>
       </c>
       <c r="Y190" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z190" s="3"/>
     </row>
@@ -24816,7 +24816,7 @@
         <v>175</v>
       </c>
       <c r="Y191" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z191" s="3"/>
     </row>
@@ -24883,7 +24883,7 @@
         <v>175</v>
       </c>
       <c r="Y192" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z192" s="3"/>
     </row>
@@ -24942,7 +24942,7 @@
         <v>175</v>
       </c>
       <c r="Y193" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z193" s="3"/>
     </row>
@@ -25009,7 +25009,7 @@
         <v>175</v>
       </c>
       <c r="Y194" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z194" s="3"/>
     </row>
@@ -25076,7 +25076,7 @@
         <v>175</v>
       </c>
       <c r="Y195" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z195" s="3"/>
     </row>
@@ -25143,7 +25143,7 @@
         <v>175</v>
       </c>
       <c r="Y196" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z196" s="3"/>
     </row>
@@ -25210,7 +25210,7 @@
         <v>175</v>
       </c>
       <c r="Y197" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z197" s="3"/>
     </row>
@@ -25269,7 +25269,7 @@
         <v>175</v>
       </c>
       <c r="Y198" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z198" s="3"/>
     </row>
@@ -25336,7 +25336,7 @@
         <v>175</v>
       </c>
       <c r="Y199" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z199" s="3"/>
     </row>
@@ -25403,7 +25403,7 @@
         <v>175</v>
       </c>
       <c r="Y200" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z200" s="3"/>
     </row>
@@ -25470,7 +25470,7 @@
         <v>175</v>
       </c>
       <c r="Y201" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z201" s="3"/>
     </row>
@@ -25537,7 +25537,7 @@
         <v>175</v>
       </c>
       <c r="Y202" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z202" s="3"/>
     </row>
@@ -25596,7 +25596,7 @@
         <v>175</v>
       </c>
       <c r="Y203" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z203" s="3"/>
     </row>
@@ -25663,7 +25663,7 @@
         <v>176</v>
       </c>
       <c r="Y204" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z204" s="3"/>
     </row>
@@ -25730,7 +25730,7 @@
         <v>176</v>
       </c>
       <c r="Y205" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z205" s="3"/>
     </row>
@@ -25797,7 +25797,7 @@
         <v>176</v>
       </c>
       <c r="Y206" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z206" s="3"/>
     </row>
@@ -25864,7 +25864,7 @@
         <v>176</v>
       </c>
       <c r="Y207" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z207" s="3"/>
     </row>
@@ -25923,7 +25923,7 @@
         <v>176</v>
       </c>
       <c r="Y208" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z208" s="3"/>
     </row>
@@ -25990,7 +25990,7 @@
         <v>176</v>
       </c>
       <c r="Y209" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z209" s="3"/>
     </row>
@@ -26057,7 +26057,7 @@
         <v>176</v>
       </c>
       <c r="Y210" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z210" s="3"/>
     </row>
@@ -26124,7 +26124,7 @@
         <v>176</v>
       </c>
       <c r="Y211" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z211" s="3"/>
     </row>
@@ -26191,7 +26191,7 @@
         <v>176</v>
       </c>
       <c r="Y212" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z212" s="3"/>
     </row>
@@ -26250,7 +26250,7 @@
         <v>176</v>
       </c>
       <c r="Y213" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z213" s="3"/>
     </row>
@@ -26317,7 +26317,7 @@
         <v>176</v>
       </c>
       <c r="Y214" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z214" s="3"/>
     </row>
@@ -26384,7 +26384,7 @@
         <v>176</v>
       </c>
       <c r="Y215" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z215" s="3"/>
     </row>
@@ -26451,7 +26451,7 @@
         <v>176</v>
       </c>
       <c r="Y216" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z216" s="3"/>
     </row>
@@ -26518,7 +26518,7 @@
         <v>176</v>
       </c>
       <c r="Y217" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z217" s="3"/>
     </row>
@@ -26577,7 +26577,7 @@
         <v>176</v>
       </c>
       <c r="Y218" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z218" s="3"/>
     </row>
@@ -26644,7 +26644,7 @@
         <v>176</v>
       </c>
       <c r="Y219" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z219" s="3"/>
     </row>
@@ -26711,7 +26711,7 @@
         <v>176</v>
       </c>
       <c r="Y220" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z220" s="3"/>
     </row>
@@ -26778,7 +26778,7 @@
         <v>176</v>
       </c>
       <c r="Y221" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z221" s="3"/>
     </row>
@@ -26845,7 +26845,7 @@
         <v>176</v>
       </c>
       <c r="Y222" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z222" s="3"/>
     </row>
@@ -26904,7 +26904,7 @@
         <v>176</v>
       </c>
       <c r="Y223" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z223" s="3"/>
     </row>
@@ -26971,7 +26971,7 @@
         <v>176</v>
       </c>
       <c r="Y224" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z224" s="3"/>
     </row>
@@ -27038,7 +27038,7 @@
         <v>176</v>
       </c>
       <c r="Y225" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z225" s="3"/>
     </row>
@@ -27105,7 +27105,7 @@
         <v>176</v>
       </c>
       <c r="Y226" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z226" s="3"/>
     </row>
@@ -27172,7 +27172,7 @@
         <v>176</v>
       </c>
       <c r="Y227" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z227" s="3"/>
     </row>
@@ -27231,7 +27231,7 @@
         <v>176</v>
       </c>
       <c r="Y228" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z228" s="3"/>
     </row>
@@ -27298,7 +27298,7 @@
         <v>176</v>
       </c>
       <c r="Y229" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z229" s="3"/>
     </row>
@@ -27365,7 +27365,7 @@
         <v>176</v>
       </c>
       <c r="Y230" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z230" s="3"/>
     </row>
@@ -27432,7 +27432,7 @@
         <v>176</v>
       </c>
       <c r="Y231" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z231" s="3"/>
     </row>
@@ -27499,7 +27499,7 @@
         <v>176</v>
       </c>
       <c r="Y232" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z232" s="3"/>
     </row>
@@ -27558,7 +27558,7 @@
         <v>176</v>
       </c>
       <c r="Y233" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z233" s="3"/>
     </row>
@@ -27625,7 +27625,7 @@
         <v>176</v>
       </c>
       <c r="Y234" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z234" s="3"/>
     </row>
@@ -27692,7 +27692,7 @@
         <v>176</v>
       </c>
       <c r="Y235" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z235" s="3"/>
     </row>
@@ -27759,7 +27759,7 @@
         <v>176</v>
       </c>
       <c r="Y236" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z236" s="3"/>
     </row>
@@ -27826,7 +27826,7 @@
         <v>176</v>
       </c>
       <c r="Y237" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z237" s="3"/>
     </row>
@@ -27885,7 +27885,7 @@
         <v>176</v>
       </c>
       <c r="Y238" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z238" s="3"/>
     </row>
@@ -27952,7 +27952,7 @@
         <v>176</v>
       </c>
       <c r="Y239" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z239" s="3"/>
     </row>
@@ -28019,7 +28019,7 @@
         <v>176</v>
       </c>
       <c r="Y240" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z240" s="3"/>
     </row>
@@ -28086,7 +28086,7 @@
         <v>176</v>
       </c>
       <c r="Y241" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z241" s="3"/>
     </row>
@@ -28153,7 +28153,7 @@
         <v>176</v>
       </c>
       <c r="Y242" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z242" s="3"/>
     </row>
@@ -28212,7 +28212,7 @@
         <v>176</v>
       </c>
       <c r="Y243" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z243" s="3"/>
     </row>
@@ -28279,7 +28279,7 @@
         <v>176</v>
       </c>
       <c r="Y244" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z244" s="3"/>
     </row>
@@ -28346,7 +28346,7 @@
         <v>176</v>
       </c>
       <c r="Y245" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z245" s="3"/>
     </row>
@@ -28413,7 +28413,7 @@
         <v>176</v>
       </c>
       <c r="Y246" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z246" s="3"/>
     </row>
@@ -28480,7 +28480,7 @@
         <v>176</v>
       </c>
       <c r="Y247" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z247" s="3"/>
     </row>
@@ -28539,7 +28539,7 @@
         <v>176</v>
       </c>
       <c r="Y248" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z248" s="3"/>
     </row>
@@ -28606,7 +28606,7 @@
         <v>176</v>
       </c>
       <c r="Y249" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z249" s="3"/>
     </row>
@@ -28673,7 +28673,7 @@
         <v>176</v>
       </c>
       <c r="Y250" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z250" s="3"/>
     </row>
@@ -28740,7 +28740,7 @@
         <v>176</v>
       </c>
       <c r="Y251" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z251" s="3"/>
     </row>
@@ -28807,7 +28807,7 @@
         <v>176</v>
       </c>
       <c r="Y252" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z252" s="3"/>
     </row>
@@ -28866,7 +28866,7 @@
         <v>176</v>
       </c>
       <c r="Y253" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z253" s="3"/>
     </row>
@@ -28933,7 +28933,7 @@
         <v>176</v>
       </c>
       <c r="Y254" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z254" s="3"/>
     </row>
@@ -29000,7 +29000,7 @@
         <v>176</v>
       </c>
       <c r="Y255" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z255" s="3"/>
     </row>
@@ -29067,7 +29067,7 @@
         <v>176</v>
       </c>
       <c r="Y256" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z256" s="3"/>
     </row>
@@ -29134,7 +29134,7 @@
         <v>176</v>
       </c>
       <c r="Y257" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z257" s="3"/>
     </row>
@@ -29193,7 +29193,7 @@
         <v>176</v>
       </c>
       <c r="Y258" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z258" s="3"/>
     </row>
@@ -29260,7 +29260,7 @@
         <v>176</v>
       </c>
       <c r="Y259" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z259" s="3"/>
     </row>
@@ -29327,7 +29327,7 @@
         <v>176</v>
       </c>
       <c r="Y260" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z260" s="3"/>
     </row>
@@ -29394,7 +29394,7 @@
         <v>176</v>
       </c>
       <c r="Y261" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z261" s="3"/>
     </row>
@@ -29461,7 +29461,7 @@
         <v>176</v>
       </c>
       <c r="Y262" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z262" s="3"/>
     </row>
@@ -29520,7 +29520,7 @@
         <v>176</v>
       </c>
       <c r="Y263" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z263" s="3"/>
     </row>
@@ -29587,7 +29587,7 @@
         <v>176</v>
       </c>
       <c r="Y264" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z264" s="3"/>
     </row>
@@ -29654,7 +29654,7 @@
         <v>176</v>
       </c>
       <c r="Y265" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z265" s="3"/>
     </row>
@@ -29721,7 +29721,7 @@
         <v>176</v>
       </c>
       <c r="Y266" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z266" s="3"/>
     </row>
@@ -29788,7 +29788,7 @@
         <v>176</v>
       </c>
       <c r="Y267" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z267" s="3"/>
     </row>
@@ -29847,7 +29847,7 @@
         <v>176</v>
       </c>
       <c r="Y268" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z268" s="3"/>
     </row>
@@ -29914,7 +29914,7 @@
         <v>176</v>
       </c>
       <c r="Y269" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z269" s="3"/>
     </row>
@@ -29981,7 +29981,7 @@
         <v>176</v>
       </c>
       <c r="Y270" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z270" s="3"/>
     </row>
@@ -30048,7 +30048,7 @@
         <v>176</v>
       </c>
       <c r="Y271" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z271" s="3"/>
     </row>
@@ -30115,7 +30115,7 @@
         <v>176</v>
       </c>
       <c r="Y272" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z272" s="3"/>
     </row>
@@ -30174,7 +30174,7 @@
         <v>176</v>
       </c>
       <c r="Y273" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z273" s="3"/>
     </row>
@@ -30241,7 +30241,7 @@
         <v>177</v>
       </c>
       <c r="Y274" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z274" s="3"/>
     </row>
@@ -30308,7 +30308,7 @@
         <v>177</v>
       </c>
       <c r="Y275" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z275" s="3"/>
     </row>
@@ -30375,7 +30375,7 @@
         <v>177</v>
       </c>
       <c r="Y276" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z276" s="3"/>
     </row>
@@ -30442,7 +30442,7 @@
         <v>177</v>
       </c>
       <c r="Y277" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z277" s="3"/>
     </row>
@@ -30501,7 +30501,7 @@
         <v>177</v>
       </c>
       <c r="Y278" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z278" s="3"/>
     </row>
@@ -30568,7 +30568,7 @@
         <v>177</v>
       </c>
       <c r="Y279" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z279" s="3"/>
     </row>
@@ -30635,7 +30635,7 @@
         <v>177</v>
       </c>
       <c r="Y280" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z280" s="3"/>
     </row>
@@ -30702,7 +30702,7 @@
         <v>177</v>
       </c>
       <c r="Y281" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z281" s="3"/>
     </row>
@@ -30769,7 +30769,7 @@
         <v>177</v>
       </c>
       <c r="Y282" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z282" s="3"/>
     </row>
@@ -30828,7 +30828,7 @@
         <v>177</v>
       </c>
       <c r="Y283" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z283" s="3"/>
     </row>
@@ -30895,7 +30895,7 @@
         <v>177</v>
       </c>
       <c r="Y284" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z284" s="3"/>
     </row>
@@ -30962,7 +30962,7 @@
         <v>177</v>
       </c>
       <c r="Y285" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z285" s="3"/>
     </row>
@@ -31029,7 +31029,7 @@
         <v>177</v>
       </c>
       <c r="Y286" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z286" s="3"/>
     </row>
@@ -31096,7 +31096,7 @@
         <v>177</v>
       </c>
       <c r="Y287" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z287" s="3"/>
     </row>
@@ -31155,7 +31155,7 @@
         <v>177</v>
       </c>
       <c r="Y288" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z288" s="3"/>
     </row>
@@ -31222,7 +31222,7 @@
         <v>177</v>
       </c>
       <c r="Y289" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z289" s="3"/>
     </row>
@@ -31289,7 +31289,7 @@
         <v>177</v>
       </c>
       <c r="Y290" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z290" s="3"/>
     </row>
@@ -31356,7 +31356,7 @@
         <v>177</v>
       </c>
       <c r="Y291" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z291" s="3"/>
     </row>
@@ -31423,7 +31423,7 @@
         <v>177</v>
       </c>
       <c r="Y292" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z292" s="3"/>
     </row>
@@ -31482,7 +31482,7 @@
         <v>177</v>
       </c>
       <c r="Y293" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z293" s="3"/>
     </row>
@@ -31549,7 +31549,7 @@
         <v>177</v>
       </c>
       <c r="Y294" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z294" s="3"/>
     </row>
@@ -31616,7 +31616,7 @@
         <v>177</v>
       </c>
       <c r="Y295" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z295" s="3"/>
     </row>
@@ -31683,7 +31683,7 @@
         <v>177</v>
       </c>
       <c r="Y296" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z296" s="3"/>
     </row>
@@ -31750,7 +31750,7 @@
         <v>177</v>
       </c>
       <c r="Y297" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z297" s="3"/>
     </row>
@@ -31809,7 +31809,7 @@
         <v>177</v>
       </c>
       <c r="Y298" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z298" s="3"/>
     </row>
@@ -31876,7 +31876,7 @@
         <v>177</v>
       </c>
       <c r="Y299" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z299" s="3"/>
     </row>
@@ -31943,7 +31943,7 @@
         <v>177</v>
       </c>
       <c r="Y300" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z300" s="3"/>
     </row>
@@ -32010,7 +32010,7 @@
         <v>177</v>
       </c>
       <c r="Y301" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z301" s="3"/>
     </row>
@@ -32077,7 +32077,7 @@
         <v>177</v>
       </c>
       <c r="Y302" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z302" s="3"/>
     </row>
@@ -32136,7 +32136,7 @@
         <v>177</v>
       </c>
       <c r="Y303" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z303" s="3"/>
     </row>
@@ -32203,7 +32203,7 @@
         <v>177</v>
       </c>
       <c r="Y304" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z304" s="3"/>
     </row>
@@ -32270,7 +32270,7 @@
         <v>177</v>
       </c>
       <c r="Y305" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z305" s="3"/>
     </row>
@@ -32337,7 +32337,7 @@
         <v>177</v>
       </c>
       <c r="Y306" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z306" s="3"/>
     </row>
@@ -32404,7 +32404,7 @@
         <v>177</v>
       </c>
       <c r="Y307" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z307" s="3"/>
     </row>
@@ -32463,7 +32463,7 @@
         <v>177</v>
       </c>
       <c r="Y308" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z308" s="3"/>
     </row>
@@ -32530,7 +32530,7 @@
         <v>177</v>
       </c>
       <c r="Y309" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z309" s="3"/>
     </row>
@@ -32597,7 +32597,7 @@
         <v>177</v>
       </c>
       <c r="Y310" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z310" s="3"/>
     </row>
@@ -32664,7 +32664,7 @@
         <v>177</v>
       </c>
       <c r="Y311" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z311" s="3"/>
     </row>
@@ -32731,7 +32731,7 @@
         <v>177</v>
       </c>
       <c r="Y312" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z312" s="3"/>
     </row>
@@ -32790,7 +32790,7 @@
         <v>177</v>
       </c>
       <c r="Y313" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z313" s="3"/>
     </row>
@@ -32857,7 +32857,7 @@
         <v>177</v>
       </c>
       <c r="Y314" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z314" s="3"/>
     </row>
@@ -32924,7 +32924,7 @@
         <v>177</v>
       </c>
       <c r="Y315" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z315" s="3"/>
     </row>
@@ -32991,7 +32991,7 @@
         <v>177</v>
       </c>
       <c r="Y316" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z316" s="3"/>
     </row>
@@ -33058,7 +33058,7 @@
         <v>177</v>
       </c>
       <c r="Y317" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z317" s="3"/>
     </row>
@@ -33117,7 +33117,7 @@
         <v>177</v>
       </c>
       <c r="Y318" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z318" s="3"/>
     </row>
@@ -33184,7 +33184,7 @@
         <v>177</v>
       </c>
       <c r="Y319" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z319" s="3"/>
     </row>
@@ -33251,7 +33251,7 @@
         <v>177</v>
       </c>
       <c r="Y320" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z320" s="3"/>
     </row>
@@ -33318,7 +33318,7 @@
         <v>177</v>
       </c>
       <c r="Y321" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z321" s="3"/>
     </row>
@@ -33385,7 +33385,7 @@
         <v>177</v>
       </c>
       <c r="Y322" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z322" s="3"/>
     </row>
@@ -33444,7 +33444,7 @@
         <v>177</v>
       </c>
       <c r="Y323" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z323" s="3"/>
     </row>
@@ -33511,7 +33511,7 @@
         <v>177</v>
       </c>
       <c r="Y324" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z324" s="3"/>
     </row>
@@ -33578,7 +33578,7 @@
         <v>177</v>
       </c>
       <c r="Y325" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z325" s="3"/>
     </row>
@@ -33645,7 +33645,7 @@
         <v>177</v>
       </c>
       <c r="Y326" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z326" s="3"/>
     </row>
@@ -33712,7 +33712,7 @@
         <v>177</v>
       </c>
       <c r="Y327" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z327" s="3"/>
     </row>
@@ -33771,7 +33771,7 @@
         <v>177</v>
       </c>
       <c r="Y328" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z328" s="3"/>
     </row>
@@ -33838,7 +33838,7 @@
         <v>177</v>
       </c>
       <c r="Y329" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z329" s="3"/>
     </row>
@@ -33905,7 +33905,7 @@
         <v>177</v>
       </c>
       <c r="Y330" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z330" s="3"/>
     </row>
@@ -33972,7 +33972,7 @@
         <v>177</v>
       </c>
       <c r="Y331" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z331" s="3"/>
     </row>
@@ -34039,7 +34039,7 @@
         <v>177</v>
       </c>
       <c r="Y332" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z332" s="3"/>
     </row>
@@ -34098,7 +34098,7 @@
         <v>177</v>
       </c>
       <c r="Y333" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z333" s="3"/>
     </row>
@@ -34165,7 +34165,7 @@
         <v>177</v>
       </c>
       <c r="Y334" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z334" s="3"/>
     </row>
@@ -34232,7 +34232,7 @@
         <v>177</v>
       </c>
       <c r="Y335" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z335" s="3"/>
     </row>
@@ -34299,7 +34299,7 @@
         <v>177</v>
       </c>
       <c r="Y336" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z336" s="3"/>
     </row>
@@ -34366,7 +34366,7 @@
         <v>177</v>
       </c>
       <c r="Y337" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z337" s="3"/>
     </row>
@@ -34425,7 +34425,7 @@
         <v>177</v>
       </c>
       <c r="Y338" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z338" s="3"/>
     </row>
@@ -34492,7 +34492,7 @@
         <v>177</v>
       </c>
       <c r="Y339" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z339" s="3"/>
     </row>
@@ -34559,7 +34559,7 @@
         <v>177</v>
       </c>
       <c r="Y340" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z340" s="3"/>
     </row>
@@ -34626,7 +34626,7 @@
         <v>177</v>
       </c>
       <c r="Y341" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z341" s="3"/>
     </row>
@@ -34693,7 +34693,7 @@
         <v>177</v>
       </c>
       <c r="Y342" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z342" s="3"/>
     </row>
@@ -34752,7 +34752,7 @@
         <v>177</v>
       </c>
       <c r="Y343" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z343" s="3"/>
     </row>
@@ -34819,7 +34819,7 @@
         <v>177</v>
       </c>
       <c r="Y344" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z344" s="3"/>
     </row>
@@ -34886,7 +34886,7 @@
         <v>177</v>
       </c>
       <c r="Y345" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z345" s="3"/>
     </row>
@@ -34953,7 +34953,7 @@
         <v>177</v>
       </c>
       <c r="Y346" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z346" s="3"/>
     </row>
@@ -35020,7 +35020,7 @@
         <v>177</v>
       </c>
       <c r="Y347" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z347" s="3"/>
     </row>
@@ -35079,7 +35079,7 @@
         <v>177</v>
       </c>
       <c r="Y348" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z348" s="3"/>
     </row>
@@ -35146,7 +35146,7 @@
         <v>177</v>
       </c>
       <c r="Y349" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z349" s="3"/>
     </row>
@@ -35213,7 +35213,7 @@
         <v>177</v>
       </c>
       <c r="Y350" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z350" s="3"/>
     </row>
@@ -35280,7 +35280,7 @@
         <v>177</v>
       </c>
       <c r="Y351" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z351" s="3"/>
     </row>
@@ -35347,7 +35347,7 @@
         <v>177</v>
       </c>
       <c r="Y352" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z352" s="3"/>
     </row>
@@ -35406,7 +35406,7 @@
         <v>177</v>
       </c>
       <c r="Y353" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z353" s="3"/>
     </row>
@@ -35473,7 +35473,7 @@
         <v>178</v>
       </c>
       <c r="Y354" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z354" s="3"/>
     </row>
@@ -35540,7 +35540,7 @@
         <v>178</v>
       </c>
       <c r="Y355" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z355" s="3"/>
     </row>
@@ -35607,7 +35607,7 @@
         <v>178</v>
       </c>
       <c r="Y356" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z356" s="3"/>
     </row>
@@ -35674,7 +35674,7 @@
         <v>178</v>
       </c>
       <c r="Y357" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z357" s="3"/>
     </row>
@@ -35733,7 +35733,7 @@
         <v>178</v>
       </c>
       <c r="Y358" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z358" s="3"/>
     </row>
@@ -35800,7 +35800,7 @@
         <v>178</v>
       </c>
       <c r="Y359" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z359" s="3"/>
     </row>
@@ -35867,7 +35867,7 @@
         <v>178</v>
       </c>
       <c r="Y360" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z360" s="3"/>
     </row>
@@ -35934,7 +35934,7 @@
         <v>178</v>
       </c>
       <c r="Y361" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z361" s="3"/>
     </row>
@@ -36001,7 +36001,7 @@
         <v>178</v>
       </c>
       <c r="Y362" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z362" s="3"/>
     </row>
@@ -36060,7 +36060,7 @@
         <v>178</v>
       </c>
       <c r="Y363" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z363" s="3"/>
     </row>
@@ -36127,7 +36127,7 @@
         <v>178</v>
       </c>
       <c r="Y364" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z364" s="3"/>
     </row>
@@ -36194,7 +36194,7 @@
         <v>178</v>
       </c>
       <c r="Y365" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z365" s="3"/>
     </row>
@@ -36261,7 +36261,7 @@
         <v>178</v>
       </c>
       <c r="Y366" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z366" s="3"/>
     </row>
@@ -36328,7 +36328,7 @@
         <v>178</v>
       </c>
       <c r="Y367" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z367" s="3"/>
     </row>
@@ -36387,7 +36387,7 @@
         <v>178</v>
       </c>
       <c r="Y368" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z368" s="3"/>
     </row>
@@ -36454,7 +36454,7 @@
         <v>178</v>
       </c>
       <c r="Y369" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z369" s="3"/>
     </row>
@@ -36521,7 +36521,7 @@
         <v>178</v>
       </c>
       <c r="Y370" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z370" s="3"/>
     </row>
@@ -36588,7 +36588,7 @@
         <v>178</v>
       </c>
       <c r="Y371" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z371" s="3"/>
     </row>
@@ -36655,7 +36655,7 @@
         <v>178</v>
       </c>
       <c r="Y372" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z372" s="3"/>
     </row>
@@ -36714,7 +36714,7 @@
         <v>178</v>
       </c>
       <c r="Y373" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z373" s="3"/>
     </row>
@@ -36781,7 +36781,7 @@
         <v>178</v>
       </c>
       <c r="Y374" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z374" s="3"/>
     </row>
@@ -36848,7 +36848,7 @@
         <v>178</v>
       </c>
       <c r="Y375" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z375" s="3"/>
     </row>
@@ -36915,7 +36915,7 @@
         <v>178</v>
       </c>
       <c r="Y376" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z376" s="3"/>
     </row>
@@ -36982,7 +36982,7 @@
         <v>178</v>
       </c>
       <c r="Y377" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z377" s="3"/>
     </row>
@@ -37041,7 +37041,7 @@
         <v>178</v>
       </c>
       <c r="Y378" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z378" s="3"/>
     </row>
@@ -37108,7 +37108,7 @@
         <v>178</v>
       </c>
       <c r="Y379" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z379" s="3"/>
     </row>
@@ -37175,7 +37175,7 @@
         <v>178</v>
       </c>
       <c r="Y380" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z380" s="3"/>
     </row>
@@ -37242,7 +37242,7 @@
         <v>178</v>
       </c>
       <c r="Y381" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z381" s="3"/>
     </row>
@@ -37309,7 +37309,7 @@
         <v>178</v>
       </c>
       <c r="Y382" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z382" s="3"/>
     </row>
@@ -37368,7 +37368,7 @@
         <v>178</v>
       </c>
       <c r="Y383" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z383" s="3"/>
     </row>
@@ -37435,7 +37435,7 @@
         <v>178</v>
       </c>
       <c r="Y384" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z384" s="3"/>
     </row>
@@ -37502,7 +37502,7 @@
         <v>178</v>
       </c>
       <c r="Y385" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z385" s="3"/>
     </row>
@@ -37569,7 +37569,7 @@
         <v>178</v>
       </c>
       <c r="Y386" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z386" s="3"/>
     </row>
@@ -37636,7 +37636,7 @@
         <v>178</v>
       </c>
       <c r="Y387" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z387" s="3"/>
     </row>
@@ -37695,7 +37695,7 @@
         <v>178</v>
       </c>
       <c r="Y388" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z388" s="3"/>
     </row>
@@ -37762,7 +37762,7 @@
         <v>178</v>
       </c>
       <c r="Y389" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z389" s="3"/>
     </row>
@@ -37829,7 +37829,7 @@
         <v>178</v>
       </c>
       <c r="Y390" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z390" s="3"/>
     </row>
@@ -37896,7 +37896,7 @@
         <v>178</v>
       </c>
       <c r="Y391" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z391" s="3"/>
     </row>
@@ -37963,7 +37963,7 @@
         <v>178</v>
       </c>
       <c r="Y392" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z392" s="3"/>
     </row>
@@ -38022,7 +38022,7 @@
         <v>178</v>
       </c>
       <c r="Y393" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z393" s="3"/>
     </row>
@@ -38089,7 +38089,7 @@
         <v>178</v>
       </c>
       <c r="Y394" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z394" s="3"/>
     </row>
@@ -38156,7 +38156,7 @@
         <v>178</v>
       </c>
       <c r="Y395" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z395" s="3"/>
     </row>
@@ -38223,7 +38223,7 @@
         <v>178</v>
       </c>
       <c r="Y396" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z396" s="3"/>
     </row>
@@ -38290,7 +38290,7 @@
         <v>178</v>
       </c>
       <c r="Y397" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z397" s="3"/>
     </row>
@@ -38349,7 +38349,7 @@
         <v>178</v>
       </c>
       <c r="Y398" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z398" s="3"/>
     </row>
@@ -38416,7 +38416,7 @@
         <v>178</v>
       </c>
       <c r="Y399" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z399" s="3"/>
     </row>
@@ -38483,7 +38483,7 @@
         <v>178</v>
       </c>
       <c r="Y400" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z400" s="3"/>
     </row>
@@ -38550,7 +38550,7 @@
         <v>178</v>
       </c>
       <c r="Y401" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z401" s="3"/>
     </row>
@@ -38617,7 +38617,7 @@
         <v>178</v>
       </c>
       <c r="Y402" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z402" s="3"/>
     </row>
@@ -38676,7 +38676,7 @@
         <v>178</v>
       </c>
       <c r="Y403" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z403" s="3"/>
     </row>
@@ -38743,7 +38743,7 @@
         <v>178</v>
       </c>
       <c r="Y404" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z404" s="3"/>
     </row>
@@ -38810,7 +38810,7 @@
         <v>178</v>
       </c>
       <c r="Y405" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z405" s="3"/>
     </row>
@@ -38877,7 +38877,7 @@
         <v>178</v>
       </c>
       <c r="Y406" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z406" s="3"/>
     </row>
@@ -38944,7 +38944,7 @@
         <v>178</v>
       </c>
       <c r="Y407" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z407" s="3"/>
     </row>
@@ -39003,7 +39003,7 @@
         <v>178</v>
       </c>
       <c r="Y408" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z408" s="3"/>
     </row>
@@ -39070,7 +39070,7 @@
         <v>178</v>
       </c>
       <c r="Y409" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z409" s="3"/>
     </row>
@@ -39137,7 +39137,7 @@
         <v>178</v>
       </c>
       <c r="Y410" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z410" s="3"/>
     </row>
@@ -39204,7 +39204,7 @@
         <v>178</v>
       </c>
       <c r="Y411" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z411" s="3"/>
     </row>
@@ -39271,7 +39271,7 @@
         <v>178</v>
       </c>
       <c r="Y412" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z412" s="3"/>
     </row>
@@ -39330,7 +39330,7 @@
         <v>178</v>
       </c>
       <c r="Y413" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z413" s="3"/>
     </row>
@@ -39397,7 +39397,7 @@
         <v>178</v>
       </c>
       <c r="Y414" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z414" s="3"/>
     </row>
@@ -39464,7 +39464,7 @@
         <v>178</v>
       </c>
       <c r="Y415" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z415" s="3"/>
     </row>
@@ -39531,7 +39531,7 @@
         <v>178</v>
       </c>
       <c r="Y416" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z416" s="3"/>
     </row>
@@ -39598,7 +39598,7 @@
         <v>178</v>
       </c>
       <c r="Y417" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z417" s="3"/>
     </row>
@@ -39657,7 +39657,7 @@
         <v>178</v>
       </c>
       <c r="Y418" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z418" s="3"/>
     </row>
@@ -39724,7 +39724,7 @@
         <v>178</v>
       </c>
       <c r="Y419" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z419" s="3"/>
     </row>
@@ -39791,7 +39791,7 @@
         <v>178</v>
       </c>
       <c r="Y420" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z420" s="3"/>
     </row>
@@ -39858,7 +39858,7 @@
         <v>178</v>
       </c>
       <c r="Y421" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z421" s="3"/>
     </row>
@@ -39925,7 +39925,7 @@
         <v>178</v>
       </c>
       <c r="Y422" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z422" s="3"/>
     </row>
@@ -39984,7 +39984,7 @@
         <v>178</v>
       </c>
       <c r="Y423" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z423" s="3"/>
     </row>
@@ -40051,7 +40051,7 @@
         <v>179</v>
       </c>
       <c r="Y424" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z424" s="3"/>
     </row>
@@ -40118,7 +40118,7 @@
         <v>179</v>
       </c>
       <c r="Y425" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z425" s="3"/>
     </row>
@@ -40185,7 +40185,7 @@
         <v>179</v>
       </c>
       <c r="Y426" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z426" s="3"/>
     </row>
@@ -40252,7 +40252,7 @@
         <v>179</v>
       </c>
       <c r="Y427" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z427" s="3"/>
     </row>
@@ -40311,7 +40311,7 @@
         <v>179</v>
       </c>
       <c r="Y428" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z428" s="3"/>
     </row>
@@ -40378,7 +40378,7 @@
         <v>179</v>
       </c>
       <c r="Y429" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z429" s="3"/>
     </row>
@@ -40445,7 +40445,7 @@
         <v>179</v>
       </c>
       <c r="Y430" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z430" s="3"/>
     </row>
@@ -40512,7 +40512,7 @@
         <v>179</v>
       </c>
       <c r="Y431" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z431" s="3"/>
     </row>
@@ -40579,7 +40579,7 @@
         <v>179</v>
       </c>
       <c r="Y432" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z432" s="3"/>
     </row>
@@ -40638,7 +40638,7 @@
         <v>179</v>
       </c>
       <c r="Y433" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z433" s="3"/>
     </row>
@@ -40705,7 +40705,7 @@
         <v>179</v>
       </c>
       <c r="Y434" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z434" s="3"/>
     </row>
@@ -40772,7 +40772,7 @@
         <v>179</v>
       </c>
       <c r="Y435" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z435" s="3"/>
     </row>
@@ -40839,7 +40839,7 @@
         <v>179</v>
       </c>
       <c r="Y436" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z436" s="3"/>
     </row>
@@ -40906,7 +40906,7 @@
         <v>179</v>
       </c>
       <c r="Y437" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z437" s="3"/>
     </row>
@@ -40965,7 +40965,7 @@
         <v>179</v>
       </c>
       <c r="Y438" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z438" s="3"/>
     </row>
@@ -41032,7 +41032,7 @@
         <v>179</v>
       </c>
       <c r="Y439" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z439" s="3"/>
     </row>
@@ -41099,7 +41099,7 @@
         <v>179</v>
       </c>
       <c r="Y440" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z440" s="3"/>
     </row>
@@ -41166,7 +41166,7 @@
         <v>179</v>
       </c>
       <c r="Y441" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z441" s="3"/>
     </row>
@@ -41233,7 +41233,7 @@
         <v>179</v>
       </c>
       <c r="Y442" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z442" s="3"/>
     </row>
@@ -41292,7 +41292,7 @@
         <v>179</v>
       </c>
       <c r="Y443" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z443" s="3"/>
     </row>
@@ -41359,7 +41359,7 @@
         <v>179</v>
       </c>
       <c r="Y444" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z444" s="3"/>
     </row>
@@ -41426,7 +41426,7 @@
         <v>179</v>
       </c>
       <c r="Y445" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z445" s="3"/>
     </row>
@@ -41493,7 +41493,7 @@
         <v>179</v>
       </c>
       <c r="Y446" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z446" s="3"/>
     </row>
@@ -41560,7 +41560,7 @@
         <v>179</v>
       </c>
       <c r="Y447" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z447" s="3"/>
     </row>
@@ -41619,7 +41619,7 @@
         <v>179</v>
       </c>
       <c r="Y448" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z448" s="3"/>
     </row>
@@ -41686,7 +41686,7 @@
         <v>179</v>
       </c>
       <c r="Y449" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z449" s="3"/>
     </row>
@@ -41753,7 +41753,7 @@
         <v>179</v>
       </c>
       <c r="Y450" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z450" s="3"/>
     </row>
@@ -41820,7 +41820,7 @@
         <v>179</v>
       </c>
       <c r="Y451" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z451" s="3"/>
     </row>
@@ -41887,7 +41887,7 @@
         <v>179</v>
       </c>
       <c r="Y452" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z452" s="3"/>
     </row>
@@ -41946,7 +41946,7 @@
         <v>179</v>
       </c>
       <c r="Y453" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z453" s="3"/>
     </row>
@@ -42013,7 +42013,7 @@
         <v>179</v>
       </c>
       <c r="Y454" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z454" s="3"/>
     </row>
@@ -42080,7 +42080,7 @@
         <v>179</v>
       </c>
       <c r="Y455" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z455" s="3"/>
     </row>
@@ -42147,7 +42147,7 @@
         <v>179</v>
       </c>
       <c r="Y456" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z456" s="3"/>
     </row>
@@ -42214,7 +42214,7 @@
         <v>179</v>
       </c>
       <c r="Y457" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z457" s="3"/>
     </row>
@@ -42273,7 +42273,7 @@
         <v>179</v>
       </c>
       <c r="Y458" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z458" s="3"/>
     </row>
@@ -42340,7 +42340,7 @@
         <v>179</v>
       </c>
       <c r="Y459" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z459" s="3"/>
     </row>
@@ -42407,7 +42407,7 @@
         <v>179</v>
       </c>
       <c r="Y460" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z460" s="3"/>
     </row>
@@ -42474,7 +42474,7 @@
         <v>179</v>
       </c>
       <c r="Y461" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z461" s="3"/>
     </row>
@@ -42541,7 +42541,7 @@
         <v>179</v>
       </c>
       <c r="Y462" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z462" s="3"/>
     </row>
@@ -42600,7 +42600,7 @@
         <v>179</v>
       </c>
       <c r="Y463" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z463" s="3"/>
     </row>
@@ -42667,7 +42667,7 @@
         <v>179</v>
       </c>
       <c r="Y464" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z464" s="3"/>
     </row>
@@ -42734,7 +42734,7 @@
         <v>179</v>
       </c>
       <c r="Y465" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z465" s="3"/>
     </row>
@@ -42801,7 +42801,7 @@
         <v>179</v>
       </c>
       <c r="Y466" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z466" s="3"/>
     </row>
@@ -42868,7 +42868,7 @@
         <v>179</v>
       </c>
       <c r="Y467" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z467" s="3"/>
     </row>
@@ -42927,7 +42927,7 @@
         <v>179</v>
       </c>
       <c r="Y468" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z468" s="3"/>
     </row>
@@ -42994,7 +42994,7 @@
         <v>179</v>
       </c>
       <c r="Y469" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z469" s="3"/>
     </row>
@@ -43061,7 +43061,7 @@
         <v>179</v>
       </c>
       <c r="Y470" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z470" s="3"/>
     </row>
@@ -43128,7 +43128,7 @@
         <v>179</v>
       </c>
       <c r="Y471" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z471" s="3"/>
     </row>
@@ -43195,7 +43195,7 @@
         <v>179</v>
       </c>
       <c r="Y472" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z472" s="3"/>
     </row>
@@ -43254,7 +43254,7 @@
         <v>179</v>
       </c>
       <c r="Y473" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z473" s="3"/>
     </row>
@@ -43321,7 +43321,7 @@
         <v>179</v>
       </c>
       <c r="Y474" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z474" s="3"/>
     </row>
@@ -43388,7 +43388,7 @@
         <v>179</v>
       </c>
       <c r="Y475" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z475" s="3"/>
     </row>
@@ -43455,7 +43455,7 @@
         <v>179</v>
       </c>
       <c r="Y476" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z476" s="3"/>
     </row>
@@ -43522,7 +43522,7 @@
         <v>179</v>
       </c>
       <c r="Y477" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z477" s="3"/>
     </row>
@@ -43581,7 +43581,7 @@
         <v>179</v>
       </c>
       <c r="Y478" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z478" s="3"/>
     </row>
@@ -43648,7 +43648,7 @@
         <v>179</v>
       </c>
       <c r="Y479" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z479" s="3"/>
     </row>
@@ -43715,7 +43715,7 @@
         <v>179</v>
       </c>
       <c r="Y480" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z480" s="3"/>
     </row>
@@ -43782,7 +43782,7 @@
         <v>179</v>
       </c>
       <c r="Y481" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z481" s="3"/>
     </row>
@@ -43849,7 +43849,7 @@
         <v>179</v>
       </c>
       <c r="Y482" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z482" s="3"/>
     </row>
@@ -43908,7 +43908,7 @@
         <v>179</v>
       </c>
       <c r="Y483" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z483" s="3"/>
     </row>
@@ -43975,7 +43975,7 @@
         <v>179</v>
       </c>
       <c r="Y484" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z484" s="3"/>
     </row>
@@ -44042,7 +44042,7 @@
         <v>179</v>
       </c>
       <c r="Y485" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z485" s="3"/>
     </row>
@@ -44109,7 +44109,7 @@
         <v>179</v>
       </c>
       <c r="Y486" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z486" s="3"/>
     </row>
@@ -44176,7 +44176,7 @@
         <v>179</v>
       </c>
       <c r="Y487" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z487" s="3"/>
     </row>
@@ -44235,7 +44235,7 @@
         <v>179</v>
       </c>
       <c r="Y488" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z488" s="3"/>
     </row>
@@ -44302,7 +44302,7 @@
         <v>179</v>
       </c>
       <c r="Y489" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z489" s="3"/>
     </row>
@@ -44369,7 +44369,7 @@
         <v>179</v>
       </c>
       <c r="Y490" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z490" s="3"/>
     </row>
@@ -44436,7 +44436,7 @@
         <v>179</v>
       </c>
       <c r="Y491" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z491" s="3"/>
     </row>
@@ -44503,7 +44503,7 @@
         <v>179</v>
       </c>
       <c r="Y492" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z492" s="3"/>
     </row>
@@ -44562,7 +44562,7 @@
         <v>179</v>
       </c>
       <c r="Y493" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z493" s="3"/>
     </row>
@@ -44629,7 +44629,7 @@
         <v>179</v>
       </c>
       <c r="Y494" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z494" s="3"/>
     </row>
@@ -44696,7 +44696,7 @@
         <v>179</v>
       </c>
       <c r="Y495" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z495" s="3"/>
     </row>
@@ -44763,7 +44763,7 @@
         <v>179</v>
       </c>
       <c r="Y496" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z496" s="3"/>
     </row>
@@ -44830,7 +44830,7 @@
         <v>179</v>
       </c>
       <c r="Y497" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z497" s="3"/>
     </row>
@@ -44889,7 +44889,7 @@
         <v>179</v>
       </c>
       <c r="Y498" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z498" s="3"/>
     </row>
@@ -44956,7 +44956,7 @@
         <v>179</v>
       </c>
       <c r="Y499" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z499" s="3"/>
     </row>
@@ -45023,7 +45023,7 @@
         <v>179</v>
       </c>
       <c r="Y500" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z500" s="3"/>
     </row>
@@ -45090,7 +45090,7 @@
         <v>179</v>
       </c>
       <c r="Y501" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z501" s="3"/>
     </row>
@@ -45157,7 +45157,7 @@
         <v>179</v>
       </c>
       <c r="Y502" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z502" s="3"/>
     </row>
@@ -45216,7 +45216,7 @@
         <v>179</v>
       </c>
       <c r="Y503" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z503" s="3"/>
     </row>
@@ -45283,7 +45283,7 @@
         <v>180</v>
       </c>
       <c r="Y504" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z504" s="3"/>
     </row>
@@ -45350,7 +45350,7 @@
         <v>180</v>
       </c>
       <c r="Y505" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z505" s="3"/>
     </row>
@@ -45417,7 +45417,7 @@
         <v>180</v>
       </c>
       <c r="Y506" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z506" s="3"/>
     </row>
@@ -45484,7 +45484,7 @@
         <v>180</v>
       </c>
       <c r="Y507" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z507" s="3"/>
     </row>
@@ -45543,7 +45543,7 @@
         <v>180</v>
       </c>
       <c r="Y508" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z508" s="3"/>
     </row>
@@ -45610,7 +45610,7 @@
         <v>180</v>
       </c>
       <c r="Y509" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z509" s="3"/>
     </row>
@@ -45677,7 +45677,7 @@
         <v>180</v>
       </c>
       <c r="Y510" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z510" s="3"/>
     </row>
@@ -45744,7 +45744,7 @@
         <v>180</v>
       </c>
       <c r="Y511" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z511" s="3"/>
     </row>
@@ -45811,7 +45811,7 @@
         <v>180</v>
       </c>
       <c r="Y512" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z512" s="3"/>
     </row>
@@ -45870,7 +45870,7 @@
         <v>180</v>
       </c>
       <c r="Y513" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z513" s="3"/>
     </row>
@@ -45937,7 +45937,7 @@
         <v>180</v>
       </c>
       <c r="Y514" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z514" s="3"/>
     </row>
@@ -46004,7 +46004,7 @@
         <v>180</v>
       </c>
       <c r="Y515" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z515" s="3"/>
     </row>
@@ -46071,7 +46071,7 @@
         <v>180</v>
       </c>
       <c r="Y516" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z516" s="3"/>
     </row>
@@ -46138,7 +46138,7 @@
         <v>180</v>
       </c>
       <c r="Y517" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z517" s="3"/>
     </row>
@@ -46197,7 +46197,7 @@
         <v>180</v>
       </c>
       <c r="Y518" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z518" s="3"/>
     </row>
@@ -46264,7 +46264,7 @@
         <v>180</v>
       </c>
       <c r="Y519" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z519" s="3"/>
     </row>
@@ -46331,7 +46331,7 @@
         <v>180</v>
       </c>
       <c r="Y520" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z520" s="3"/>
     </row>
@@ -46398,7 +46398,7 @@
         <v>180</v>
       </c>
       <c r="Y521" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z521" s="3"/>
     </row>
@@ -46465,7 +46465,7 @@
         <v>180</v>
       </c>
       <c r="Y522" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z522" s="3"/>
     </row>
@@ -46524,7 +46524,7 @@
         <v>180</v>
       </c>
       <c r="Y523" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z523" s="3"/>
     </row>
@@ -46591,7 +46591,7 @@
         <v>180</v>
       </c>
       <c r="Y524" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z524" s="3"/>
     </row>
@@ -46658,7 +46658,7 @@
         <v>180</v>
       </c>
       <c r="Y525" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z525" s="3"/>
     </row>
@@ -46725,7 +46725,7 @@
         <v>180</v>
       </c>
       <c r="Y526" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z526" s="3"/>
     </row>
@@ -46792,7 +46792,7 @@
         <v>180</v>
       </c>
       <c r="Y527" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z527" s="3"/>
     </row>
@@ -46851,7 +46851,7 @@
         <v>180</v>
       </c>
       <c r="Y528" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z528" s="3"/>
     </row>
@@ -46918,7 +46918,7 @@
         <v>180</v>
       </c>
       <c r="Y529" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z529" s="3"/>
     </row>
@@ -46985,7 +46985,7 @@
         <v>180</v>
       </c>
       <c r="Y530" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z530" s="3"/>
     </row>
@@ -47052,7 +47052,7 @@
         <v>180</v>
       </c>
       <c r="Y531" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z531" s="3"/>
     </row>
@@ -47119,7 +47119,7 @@
         <v>180</v>
       </c>
       <c r="Y532" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z532" s="3"/>
     </row>
@@ -47178,7 +47178,7 @@
         <v>180</v>
       </c>
       <c r="Y533" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z533" s="3"/>
     </row>
@@ -47245,7 +47245,7 @@
         <v>180</v>
       </c>
       <c r="Y534" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z534" s="3"/>
     </row>
@@ -47312,7 +47312,7 @@
         <v>180</v>
       </c>
       <c r="Y535" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z535" s="3"/>
     </row>
@@ -47379,7 +47379,7 @@
         <v>180</v>
       </c>
       <c r="Y536" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z536" s="3"/>
     </row>
@@ -47446,7 +47446,7 @@
         <v>180</v>
       </c>
       <c r="Y537" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z537" s="3"/>
     </row>
@@ -47505,7 +47505,7 @@
         <v>180</v>
       </c>
       <c r="Y538" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z538" s="3"/>
     </row>
@@ -47572,7 +47572,7 @@
         <v>180</v>
       </c>
       <c r="Y539" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z539" s="3"/>
     </row>
@@ -47639,7 +47639,7 @@
         <v>180</v>
       </c>
       <c r="Y540" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z540" s="3"/>
     </row>
@@ -47706,7 +47706,7 @@
         <v>180</v>
       </c>
       <c r="Y541" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z541" s="3"/>
     </row>
@@ -47773,7 +47773,7 @@
         <v>180</v>
       </c>
       <c r="Y542" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z542" s="3"/>
     </row>
@@ -47832,7 +47832,7 @@
         <v>180</v>
       </c>
       <c r="Y543" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z543" s="3"/>
     </row>
@@ -47899,7 +47899,7 @@
         <v>180</v>
       </c>
       <c r="Y544" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z544" s="3"/>
     </row>
@@ -47966,7 +47966,7 @@
         <v>180</v>
       </c>
       <c r="Y545" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z545" s="3"/>
     </row>
@@ -48033,7 +48033,7 @@
         <v>180</v>
       </c>
       <c r="Y546" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z546" s="3"/>
     </row>
@@ -48100,7 +48100,7 @@
         <v>180</v>
       </c>
       <c r="Y547" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z547" s="3"/>
     </row>
@@ -48159,7 +48159,7 @@
         <v>180</v>
       </c>
       <c r="Y548" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z548" s="3"/>
     </row>
@@ -48226,7 +48226,7 @@
         <v>180</v>
       </c>
       <c r="Y549" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z549" s="3"/>
     </row>
@@ -48293,7 +48293,7 @@
         <v>180</v>
       </c>
       <c r="Y550" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z550" s="3"/>
     </row>
@@ -48360,7 +48360,7 @@
         <v>180</v>
       </c>
       <c r="Y551" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z551" s="3"/>
     </row>
@@ -48427,7 +48427,7 @@
         <v>180</v>
       </c>
       <c r="Y552" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z552" s="3"/>
     </row>
@@ -48486,7 +48486,7 @@
         <v>180</v>
       </c>
       <c r="Y553" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z553" s="3"/>
     </row>
@@ -48553,7 +48553,7 @@
         <v>180</v>
       </c>
       <c r="Y554" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z554" s="3"/>
     </row>
@@ -48620,7 +48620,7 @@
         <v>180</v>
       </c>
       <c r="Y555" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z555" s="3"/>
     </row>
@@ -48687,7 +48687,7 @@
         <v>180</v>
       </c>
       <c r="Y556" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z556" s="3"/>
     </row>
@@ -48754,7 +48754,7 @@
         <v>180</v>
       </c>
       <c r="Y557" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z557" s="3"/>
     </row>
@@ -48813,7 +48813,7 @@
         <v>180</v>
       </c>
       <c r="Y558" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z558" s="3"/>
     </row>
@@ -48880,7 +48880,7 @@
         <v>180</v>
       </c>
       <c r="Y559" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z559" s="3"/>
     </row>
@@ -48947,7 +48947,7 @@
         <v>180</v>
       </c>
       <c r="Y560" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z560" s="3"/>
     </row>
@@ -49014,7 +49014,7 @@
         <v>180</v>
       </c>
       <c r="Y561" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z561" s="3"/>
     </row>
@@ -49081,7 +49081,7 @@
         <v>180</v>
       </c>
       <c r="Y562" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z562" s="3"/>
     </row>
@@ -49140,7 +49140,7 @@
         <v>180</v>
       </c>
       <c r="Y563" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z563" s="3"/>
     </row>
@@ -49207,7 +49207,7 @@
         <v>180</v>
       </c>
       <c r="Y564" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z564" s="3"/>
     </row>
@@ -49274,7 +49274,7 @@
         <v>180</v>
       </c>
       <c r="Y565" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z565" s="3"/>
     </row>
@@ -49341,7 +49341,7 @@
         <v>180</v>
       </c>
       <c r="Y566" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z566" s="3"/>
     </row>
@@ -49408,7 +49408,7 @@
         <v>180</v>
       </c>
       <c r="Y567" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z567" s="3"/>
     </row>
@@ -49467,7 +49467,7 @@
         <v>180</v>
       </c>
       <c r="Y568" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z568" s="3"/>
     </row>
@@ -49534,7 +49534,7 @@
         <v>180</v>
       </c>
       <c r="Y569" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z569" s="3"/>
     </row>
@@ -49601,7 +49601,7 @@
         <v>180</v>
       </c>
       <c r="Y570" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z570" s="3"/>
     </row>
@@ -49668,7 +49668,7 @@
         <v>180</v>
       </c>
       <c r="Y571" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z571" s="3"/>
     </row>
@@ -49735,7 +49735,7 @@
         <v>180</v>
       </c>
       <c r="Y572" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z572" s="3"/>
     </row>
@@ -49794,7 +49794,7 @@
         <v>180</v>
       </c>
       <c r="Y573" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z573" s="3"/>
     </row>
@@ -49861,7 +49861,7 @@
         <v>180</v>
       </c>
       <c r="Y574" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z574" s="3"/>
     </row>
@@ -49928,7 +49928,7 @@
         <v>180</v>
       </c>
       <c r="Y575" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z575" s="3"/>
     </row>
@@ -49995,7 +49995,7 @@
         <v>180</v>
       </c>
       <c r="Y576" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z576" s="3"/>
     </row>
@@ -50062,7 +50062,7 @@
         <v>180</v>
       </c>
       <c r="Y577" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z577" s="3"/>
     </row>
@@ -50121,7 +50121,7 @@
         <v>180</v>
       </c>
       <c r="Y578" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z578" s="3"/>
     </row>
@@ -50188,7 +50188,7 @@
         <v>180</v>
       </c>
       <c r="Y579" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z579" s="3"/>
     </row>
@@ -50255,7 +50255,7 @@
         <v>180</v>
       </c>
       <c r="Y580" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z580" s="3"/>
     </row>
@@ -50322,7 +50322,7 @@
         <v>180</v>
       </c>
       <c r="Y581" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z581" s="3"/>
     </row>
@@ -50389,7 +50389,7 @@
         <v>180</v>
       </c>
       <c r="Y582" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z582" s="3"/>
     </row>
@@ -50448,7 +50448,7 @@
         <v>180</v>
       </c>
       <c r="Y583" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z583" s="3"/>
     </row>
@@ -50515,7 +50515,7 @@
         <v>180</v>
       </c>
       <c r="Y584" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z584" s="3"/>
     </row>
@@ -50582,7 +50582,7 @@
         <v>180</v>
       </c>
       <c r="Y585" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z585" s="3"/>
     </row>
@@ -50649,7 +50649,7 @@
         <v>180</v>
       </c>
       <c r="Y586" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z586" s="3"/>
     </row>
@@ -50716,7 +50716,7 @@
         <v>180</v>
       </c>
       <c r="Y587" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z587" s="3"/>
     </row>
@@ -50775,7 +50775,7 @@
         <v>180</v>
       </c>
       <c r="Y588" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z588" s="3"/>
     </row>
@@ -50842,7 +50842,7 @@
         <v>180</v>
       </c>
       <c r="Y589" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z589" s="3"/>
     </row>
@@ -50909,7 +50909,7 @@
         <v>180</v>
       </c>
       <c r="Y590" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z590" s="3"/>
     </row>
@@ -50976,7 +50976,7 @@
         <v>180</v>
       </c>
       <c r="Y591" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z591" s="3"/>
     </row>
@@ -51043,7 +51043,7 @@
         <v>180</v>
       </c>
       <c r="Y592" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z592" s="3"/>
     </row>
@@ -51102,7 +51102,7 @@
         <v>180</v>
       </c>
       <c r="Y593" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z593" s="3"/>
     </row>
@@ -51169,7 +51169,7 @@
         <v>180</v>
       </c>
       <c r="Y594" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z594" s="3"/>
     </row>
@@ -51236,7 +51236,7 @@
         <v>180</v>
       </c>
       <c r="Y595" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z595" s="3"/>
     </row>
@@ -51303,7 +51303,7 @@
         <v>180</v>
       </c>
       <c r="Y596" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z596" s="3"/>
     </row>
@@ -51370,7 +51370,7 @@
         <v>180</v>
       </c>
       <c r="Y597" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z597" s="3"/>
     </row>
@@ -51429,7 +51429,7 @@
         <v>180</v>
       </c>
       <c r="Y598" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z598" s="3"/>
     </row>
@@ -51496,7 +51496,7 @@
         <v>180</v>
       </c>
       <c r="Y599" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z599" s="3"/>
     </row>
@@ -51563,7 +51563,7 @@
         <v>180</v>
       </c>
       <c r="Y600" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z600" s="3"/>
     </row>
@@ -51630,7 +51630,7 @@
         <v>180</v>
       </c>
       <c r="Y601" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z601" s="3"/>
     </row>
@@ -51697,7 +51697,7 @@
         <v>180</v>
       </c>
       <c r="Y602" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z602" s="3"/>
     </row>
@@ -51756,7 +51756,7 @@
         <v>180</v>
       </c>
       <c r="Y603" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z603" s="3"/>
     </row>
@@ -51823,7 +51823,7 @@
         <v>180</v>
       </c>
       <c r="Y604" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z604" s="3"/>
     </row>
@@ -51890,7 +51890,7 @@
         <v>180</v>
       </c>
       <c r="Y605" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z605" s="3"/>
     </row>
@@ -51957,7 +51957,7 @@
         <v>180</v>
       </c>
       <c r="Y606" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z606" s="3"/>
     </row>
@@ -52024,7 +52024,7 @@
         <v>180</v>
       </c>
       <c r="Y607" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z607" s="3"/>
     </row>
@@ -52083,7 +52083,7 @@
         <v>180</v>
       </c>
       <c r="Y608" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z608" s="3"/>
     </row>
@@ -52150,7 +52150,7 @@
         <v>180</v>
       </c>
       <c r="Y609" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z609" s="3"/>
     </row>
@@ -52217,7 +52217,7 @@
         <v>180</v>
       </c>
       <c r="Y610" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z610" s="3"/>
     </row>
@@ -52284,7 +52284,7 @@
         <v>180</v>
       </c>
       <c r="Y611" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z611" s="3"/>
     </row>
@@ -52351,7 +52351,7 @@
         <v>180</v>
       </c>
       <c r="Y612" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z612" s="3"/>
     </row>
@@ -52410,7 +52410,7 @@
         <v>180</v>
       </c>
       <c r="Y613" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z613" s="3"/>
     </row>
@@ -52477,7 +52477,7 @@
         <v>180</v>
       </c>
       <c r="Y614" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z614" s="3"/>
     </row>
@@ -52544,7 +52544,7 @@
         <v>180</v>
       </c>
       <c r="Y615" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z615" s="3"/>
     </row>
@@ -52611,7 +52611,7 @@
         <v>180</v>
       </c>
       <c r="Y616" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z616" s="3"/>
     </row>
@@ -52678,7 +52678,7 @@
         <v>180</v>
       </c>
       <c r="Y617" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z617" s="3"/>
     </row>
@@ -52737,7 +52737,7 @@
         <v>180</v>
       </c>
       <c r="Y618" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z618" s="3"/>
     </row>
@@ -52804,7 +52804,7 @@
         <v>180</v>
       </c>
       <c r="Y619" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z619" s="3"/>
     </row>
@@ -52871,7 +52871,7 @@
         <v>180</v>
       </c>
       <c r="Y620" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z620" s="3"/>
     </row>
@@ -52938,7 +52938,7 @@
         <v>180</v>
       </c>
       <c r="Y621" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z621" s="3"/>
     </row>
@@ -53005,7 +53005,7 @@
         <v>180</v>
       </c>
       <c r="Y622" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z622" s="3"/>
     </row>
@@ -53064,7 +53064,7 @@
         <v>180</v>
       </c>
       <c r="Y623" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z623" s="3"/>
     </row>
@@ -53131,7 +53131,7 @@
         <v>180</v>
       </c>
       <c r="Y624" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z624" s="3"/>
     </row>
@@ -53198,7 +53198,7 @@
         <v>180</v>
       </c>
       <c r="Y625" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z625" s="3"/>
     </row>
@@ -53265,7 +53265,7 @@
         <v>180</v>
       </c>
       <c r="Y626" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z626" s="3"/>
     </row>
@@ -53332,7 +53332,7 @@
         <v>180</v>
       </c>
       <c r="Y627" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z627" s="3"/>
     </row>
@@ -53391,7 +53391,7 @@
         <v>180</v>
       </c>
       <c r="Y628" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z628" s="3"/>
     </row>
@@ -53458,7 +53458,7 @@
         <v>180</v>
       </c>
       <c r="Y629" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z629" s="3"/>
     </row>
@@ -53525,7 +53525,7 @@
         <v>180</v>
       </c>
       <c r="Y630" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z630" s="3"/>
     </row>
@@ -53592,7 +53592,7 @@
         <v>180</v>
       </c>
       <c r="Y631" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z631" s="3"/>
     </row>
@@ -53659,7 +53659,7 @@
         <v>180</v>
       </c>
       <c r="Y632" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z632" s="3"/>
     </row>
@@ -53718,7 +53718,7 @@
         <v>180</v>
       </c>
       <c r="Y633" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z633" s="3"/>
     </row>
@@ -53785,7 +53785,7 @@
         <v>180</v>
       </c>
       <c r="Y634" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z634" s="3"/>
     </row>
@@ -53852,7 +53852,7 @@
         <v>180</v>
       </c>
       <c r="Y635" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z635" s="3"/>
     </row>
@@ -53919,7 +53919,7 @@
         <v>180</v>
       </c>
       <c r="Y636" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z636" s="3"/>
     </row>
@@ -53986,7 +53986,7 @@
         <v>180</v>
       </c>
       <c r="Y637" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z637" s="3"/>
     </row>
@@ -54045,7 +54045,7 @@
         <v>180</v>
       </c>
       <c r="Y638" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z638" s="3"/>
     </row>
@@ -54112,7 +54112,7 @@
         <v>180</v>
       </c>
       <c r="Y639" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z639" s="3"/>
     </row>
@@ -54179,7 +54179,7 @@
         <v>180</v>
       </c>
       <c r="Y640" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z640" s="3"/>
     </row>
@@ -54246,7 +54246,7 @@
         <v>180</v>
       </c>
       <c r="Y641" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z641" s="3"/>
     </row>
@@ -54313,7 +54313,7 @@
         <v>180</v>
       </c>
       <c r="Y642" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z642" s="3"/>
     </row>
@@ -54372,7 +54372,7 @@
         <v>180</v>
       </c>
       <c r="Y643" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z643" s="3"/>
     </row>
@@ -54439,7 +54439,7 @@
         <v>180</v>
       </c>
       <c r="Y644" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z644" s="3"/>
     </row>
@@ -54506,7 +54506,7 @@
         <v>180</v>
       </c>
       <c r="Y645" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z645" s="3"/>
     </row>
@@ -54573,7 +54573,7 @@
         <v>180</v>
       </c>
       <c r="Y646" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z646" s="3"/>
     </row>
@@ -54640,7 +54640,7 @@
         <v>180</v>
       </c>
       <c r="Y647" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z647" s="3"/>
     </row>
@@ -54699,7 +54699,7 @@
         <v>180</v>
       </c>
       <c r="Y648" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z648" s="3"/>
     </row>
@@ -54766,7 +54766,7 @@
         <v>180</v>
       </c>
       <c r="Y649" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z649" s="3"/>
     </row>
@@ -54833,7 +54833,7 @@
         <v>180</v>
       </c>
       <c r="Y650" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z650" s="3"/>
     </row>
@@ -54900,7 +54900,7 @@
         <v>180</v>
       </c>
       <c r="Y651" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z651" s="3"/>
     </row>
@@ -54967,7 +54967,7 @@
         <v>180</v>
       </c>
       <c r="Y652" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z652" s="3"/>
     </row>
@@ -55026,7 +55026,7 @@
         <v>180</v>
       </c>
       <c r="Y653" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z653" s="3"/>
     </row>
@@ -55093,7 +55093,7 @@
         <v>181</v>
       </c>
       <c r="Y654" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z654" s="3"/>
     </row>
@@ -55160,7 +55160,7 @@
         <v>181</v>
       </c>
       <c r="Y655" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z655" s="3"/>
     </row>
@@ -55227,7 +55227,7 @@
         <v>181</v>
       </c>
       <c r="Y656" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z656" s="3"/>
     </row>
@@ -55294,7 +55294,7 @@
         <v>181</v>
       </c>
       <c r="Y657" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z657" s="3"/>
     </row>
@@ -55353,7 +55353,7 @@
         <v>181</v>
       </c>
       <c r="Y658" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z658" s="3"/>
     </row>
@@ -55420,7 +55420,7 @@
         <v>181</v>
       </c>
       <c r="Y659" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z659" s="3"/>
     </row>
@@ -55487,7 +55487,7 @@
         <v>181</v>
       </c>
       <c r="Y660" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z660" s="3"/>
     </row>
@@ -55554,7 +55554,7 @@
         <v>181</v>
       </c>
       <c r="Y661" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z661" s="3"/>
     </row>
@@ -55621,7 +55621,7 @@
         <v>181</v>
       </c>
       <c r="Y662" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z662" s="3"/>
     </row>
@@ -55680,7 +55680,7 @@
         <v>181</v>
       </c>
       <c r="Y663" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z663" s="3"/>
     </row>
@@ -55747,7 +55747,7 @@
         <v>181</v>
       </c>
       <c r="Y664" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z664" s="3"/>
     </row>
@@ -55814,7 +55814,7 @@
         <v>181</v>
       </c>
       <c r="Y665" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z665" s="3"/>
     </row>
@@ -55881,7 +55881,7 @@
         <v>181</v>
       </c>
       <c r="Y666" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z666" s="3"/>
     </row>
@@ -55948,7 +55948,7 @@
         <v>181</v>
       </c>
       <c r="Y667" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z667" s="3"/>
     </row>
@@ -56007,7 +56007,7 @@
         <v>181</v>
       </c>
       <c r="Y668" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z668" s="3"/>
     </row>
@@ -56074,7 +56074,7 @@
         <v>181</v>
       </c>
       <c r="Y669" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z669" s="3"/>
     </row>
@@ -56141,7 +56141,7 @@
         <v>181</v>
       </c>
       <c r="Y670" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z670" s="3"/>
     </row>
@@ -56208,7 +56208,7 @@
         <v>181</v>
       </c>
       <c r="Y671" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z671" s="3"/>
     </row>
@@ -56275,7 +56275,7 @@
         <v>181</v>
       </c>
       <c r="Y672" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z672" s="3"/>
     </row>
@@ -56334,7 +56334,7 @@
         <v>181</v>
       </c>
       <c r="Y673" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z673" s="3"/>
     </row>
@@ -56401,7 +56401,7 @@
         <v>181</v>
       </c>
       <c r="Y674" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z674" s="3"/>
     </row>
@@ -56468,7 +56468,7 @@
         <v>181</v>
       </c>
       <c r="Y675" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z675" s="3"/>
     </row>
@@ -56535,7 +56535,7 @@
         <v>181</v>
       </c>
       <c r="Y676" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z676" s="3"/>
     </row>
@@ -56602,7 +56602,7 @@
         <v>181</v>
       </c>
       <c r="Y677" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z677" s="3"/>
     </row>
@@ -56661,7 +56661,7 @@
         <v>181</v>
       </c>
       <c r="Y678" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z678" s="3"/>
     </row>
@@ -56728,7 +56728,7 @@
         <v>181</v>
       </c>
       <c r="Y679" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z679" s="3"/>
     </row>
@@ -56795,7 +56795,7 @@
         <v>181</v>
       </c>
       <c r="Y680" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z680" s="3"/>
     </row>
@@ -56862,7 +56862,7 @@
         <v>181</v>
       </c>
       <c r="Y681" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z681" s="3"/>
     </row>
@@ -56929,7 +56929,7 @@
         <v>181</v>
       </c>
       <c r="Y682" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z682" s="3"/>
     </row>
@@ -56988,7 +56988,7 @@
         <v>181</v>
       </c>
       <c r="Y683" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z683" s="3"/>
     </row>
@@ -57055,7 +57055,7 @@
         <v>181</v>
       </c>
       <c r="Y684" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z684" s="3"/>
     </row>
@@ -57122,7 +57122,7 @@
         <v>181</v>
       </c>
       <c r="Y685" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z685" s="3"/>
     </row>
@@ -57189,7 +57189,7 @@
         <v>181</v>
       </c>
       <c r="Y686" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z686" s="3"/>
     </row>
@@ -57256,7 +57256,7 @@
         <v>181</v>
       </c>
       <c r="Y687" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z687" s="3"/>
     </row>
@@ -57315,7 +57315,7 @@
         <v>181</v>
       </c>
       <c r="Y688" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z688" s="3"/>
     </row>
@@ -57382,7 +57382,7 @@
         <v>181</v>
       </c>
       <c r="Y689" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z689" s="3"/>
     </row>
@@ -57449,7 +57449,7 @@
         <v>181</v>
       </c>
       <c r="Y690" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z690" s="3"/>
     </row>
@@ -57516,7 +57516,7 @@
         <v>181</v>
       </c>
       <c r="Y691" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z691" s="3"/>
     </row>
@@ -57583,7 +57583,7 @@
         <v>181</v>
       </c>
       <c r="Y692" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z692" s="3"/>
     </row>
@@ -57642,7 +57642,7 @@
         <v>181</v>
       </c>
       <c r="Y693" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z693" s="3"/>
     </row>
@@ -57709,7 +57709,7 @@
         <v>181</v>
       </c>
       <c r="Y694" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z694" s="3"/>
     </row>
@@ -57776,7 +57776,7 @@
         <v>181</v>
       </c>
       <c r="Y695" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z695" s="3"/>
     </row>
@@ -57843,7 +57843,7 @@
         <v>181</v>
       </c>
       <c r="Y696" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z696" s="3"/>
     </row>
@@ -57910,7 +57910,7 @@
         <v>181</v>
       </c>
       <c r="Y697" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z697" s="3"/>
     </row>
@@ -57969,7 +57969,7 @@
         <v>181</v>
       </c>
       <c r="Y698" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z698" s="3"/>
     </row>
@@ -58036,7 +58036,7 @@
         <v>181</v>
       </c>
       <c r="Y699" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z699" s="3"/>
     </row>
@@ -58103,7 +58103,7 @@
         <v>181</v>
       </c>
       <c r="Y700" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z700" s="3"/>
     </row>
@@ -58170,7 +58170,7 @@
         <v>181</v>
       </c>
       <c r="Y701" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z701" s="3"/>
     </row>
@@ -58237,7 +58237,7 @@
         <v>181</v>
       </c>
       <c r="Y702" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z702" s="3"/>
     </row>
@@ -58296,7 +58296,7 @@
         <v>181</v>
       </c>
       <c r="Y703" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z703" s="3"/>
     </row>
@@ -58363,7 +58363,7 @@
         <v>181</v>
       </c>
       <c r="Y704" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z704" s="3"/>
     </row>
@@ -58430,7 +58430,7 @@
         <v>181</v>
       </c>
       <c r="Y705" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z705" s="3"/>
     </row>
@@ -58497,7 +58497,7 @@
         <v>181</v>
       </c>
       <c r="Y706" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z706" s="3"/>
     </row>
@@ -58564,7 +58564,7 @@
         <v>181</v>
       </c>
       <c r="Y707" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z707" s="3"/>
     </row>
@@ -58623,7 +58623,7 @@
         <v>181</v>
       </c>
       <c r="Y708" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z708" s="3"/>
     </row>
@@ -58690,7 +58690,7 @@
         <v>181</v>
       </c>
       <c r="Y709" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z709" s="3"/>
     </row>
@@ -58757,7 +58757,7 @@
         <v>181</v>
       </c>
       <c r="Y710" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z710" s="3"/>
     </row>
@@ -58824,7 +58824,7 @@
         <v>181</v>
       </c>
       <c r="Y711" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z711" s="3"/>
     </row>
@@ -58891,7 +58891,7 @@
         <v>181</v>
       </c>
       <c r="Y712" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z712" s="3"/>
     </row>
@@ -58950,7 +58950,7 @@
         <v>181</v>
       </c>
       <c r="Y713" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z713" s="3"/>
     </row>
@@ -59017,7 +59017,7 @@
         <v>181</v>
       </c>
       <c r="Y714" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z714" s="3"/>
     </row>
@@ -59084,7 +59084,7 @@
         <v>181</v>
       </c>
       <c r="Y715" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z715" s="3"/>
     </row>
@@ -59151,7 +59151,7 @@
         <v>181</v>
       </c>
       <c r="Y716" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z716" s="3"/>
     </row>
@@ -59218,7 +59218,7 @@
         <v>181</v>
       </c>
       <c r="Y717" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z717" s="3"/>
     </row>
@@ -59277,7 +59277,7 @@
         <v>181</v>
       </c>
       <c r="Y718" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z718" s="3"/>
     </row>
@@ -59344,7 +59344,7 @@
         <v>181</v>
       </c>
       <c r="Y719" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z719" s="3"/>
     </row>
@@ -59411,7 +59411,7 @@
         <v>181</v>
       </c>
       <c r="Y720" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z720" s="3"/>
     </row>
@@ -59478,7 +59478,7 @@
         <v>181</v>
       </c>
       <c r="Y721" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z721" s="3"/>
     </row>
@@ -59545,7 +59545,7 @@
         <v>181</v>
       </c>
       <c r="Y722" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z722" s="3"/>
     </row>
@@ -59604,7 +59604,7 @@
         <v>181</v>
       </c>
       <c r="Y723" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z723" s="3"/>
     </row>
@@ -59671,7 +59671,7 @@
         <v>181</v>
       </c>
       <c r="Y724" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z724" s="3"/>
     </row>
@@ -59738,7 +59738,7 @@
         <v>181</v>
       </c>
       <c r="Y725" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z725" s="3"/>
     </row>
@@ -59805,7 +59805,7 @@
         <v>181</v>
       </c>
       <c r="Y726" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z726" s="3"/>
     </row>
@@ -59872,7 +59872,7 @@
         <v>181</v>
       </c>
       <c r="Y727" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z727" s="3"/>
     </row>
@@ -59931,7 +59931,7 @@
         <v>181</v>
       </c>
       <c r="Y728" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z728" s="3"/>
     </row>
@@ -59998,7 +59998,7 @@
         <v>181</v>
       </c>
       <c r="Y729" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z729" s="3"/>
     </row>
@@ -60065,7 +60065,7 @@
         <v>181</v>
       </c>
       <c r="Y730" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z730" s="3"/>
     </row>
@@ -60132,7 +60132,7 @@
         <v>181</v>
       </c>
       <c r="Y731" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z731" s="3"/>
     </row>
@@ -60199,7 +60199,7 @@
         <v>181</v>
       </c>
       <c r="Y732" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z732" s="3"/>
     </row>
@@ -60258,7 +60258,7 @@
         <v>181</v>
       </c>
       <c r="Y733" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z733" s="3"/>
     </row>
@@ -60325,7 +60325,7 @@
         <v>181</v>
       </c>
       <c r="Y734" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z734" s="3"/>
     </row>
@@ -60392,7 +60392,7 @@
         <v>181</v>
       </c>
       <c r="Y735" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z735" s="3"/>
     </row>
@@ -60459,7 +60459,7 @@
         <v>181</v>
       </c>
       <c r="Y736" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z736" s="3"/>
     </row>
@@ -60526,7 +60526,7 @@
         <v>181</v>
       </c>
       <c r="Y737" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z737" s="3"/>
     </row>
@@ -60585,7 +60585,7 @@
         <v>181</v>
       </c>
       <c r="Y738" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z738" s="3"/>
     </row>
@@ -60652,7 +60652,7 @@
         <v>181</v>
       </c>
       <c r="Y739" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z739" s="3"/>
     </row>
@@ -60719,7 +60719,7 @@
         <v>181</v>
       </c>
       <c r="Y740" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z740" s="3"/>
     </row>
@@ -60786,7 +60786,7 @@
         <v>181</v>
       </c>
       <c r="Y741" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z741" s="3"/>
     </row>
@@ -60853,7 +60853,7 @@
         <v>181</v>
       </c>
       <c r="Y742" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z742" s="3"/>
     </row>
@@ -60912,7 +60912,7 @@
         <v>181</v>
       </c>
       <c r="Y743" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z743" s="3"/>
     </row>
@@ -60979,7 +60979,7 @@
         <v>181</v>
       </c>
       <c r="Y744" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z744" s="3"/>
     </row>
@@ -61046,7 +61046,7 @@
         <v>181</v>
       </c>
       <c r="Y745" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z745" s="3"/>
     </row>
@@ -61113,7 +61113,7 @@
         <v>181</v>
       </c>
       <c r="Y746" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z746" s="3"/>
     </row>
@@ -61180,7 +61180,7 @@
         <v>181</v>
       </c>
       <c r="Y747" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z747" s="3"/>
     </row>
@@ -61239,7 +61239,7 @@
         <v>181</v>
       </c>
       <c r="Y748" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z748" s="3"/>
     </row>
@@ -61306,7 +61306,7 @@
         <v>181</v>
       </c>
       <c r="Y749" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z749" s="3"/>
     </row>
@@ -61373,7 +61373,7 @@
         <v>181</v>
       </c>
       <c r="Y750" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z750" s="3"/>
     </row>
@@ -61440,7 +61440,7 @@
         <v>181</v>
       </c>
       <c r="Y751" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z751" s="3"/>
     </row>
@@ -61507,7 +61507,7 @@
         <v>181</v>
       </c>
       <c r="Y752" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z752" s="3"/>
     </row>
@@ -61566,7 +61566,7 @@
         <v>181</v>
       </c>
       <c r="Y753" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z753" s="3"/>
     </row>
@@ -61633,7 +61633,7 @@
         <v>181</v>
       </c>
       <c r="Y754" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z754" s="3"/>
     </row>
@@ -61700,7 +61700,7 @@
         <v>181</v>
       </c>
       <c r="Y755" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z755" s="3"/>
     </row>
@@ -61767,7 +61767,7 @@
         <v>181</v>
       </c>
       <c r="Y756" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z756" s="3"/>
     </row>
@@ -61834,7 +61834,7 @@
         <v>181</v>
       </c>
       <c r="Y757" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z757" s="3"/>
     </row>
@@ -61893,7 +61893,7 @@
         <v>181</v>
       </c>
       <c r="Y758" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z758" s="3"/>
     </row>
@@ -61960,7 +61960,7 @@
         <v>181</v>
       </c>
       <c r="Y759" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z759" s="3"/>
     </row>
@@ -62027,7 +62027,7 @@
         <v>181</v>
       </c>
       <c r="Y760" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z760" s="3"/>
     </row>
@@ -62094,7 +62094,7 @@
         <v>181</v>
       </c>
       <c r="Y761" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z761" s="3"/>
     </row>
@@ -62161,7 +62161,7 @@
         <v>181</v>
       </c>
       <c r="Y762" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z762" s="3"/>
     </row>
@@ -62220,7 +62220,7 @@
         <v>181</v>
       </c>
       <c r="Y763" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z763" s="3"/>
     </row>
@@ -62287,7 +62287,7 @@
         <v>181</v>
       </c>
       <c r="Y764" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z764" s="3"/>
     </row>
@@ -62354,7 +62354,7 @@
         <v>181</v>
       </c>
       <c r="Y765" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z765" s="3"/>
     </row>
@@ -62421,7 +62421,7 @@
         <v>181</v>
       </c>
       <c r="Y766" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z766" s="3"/>
     </row>
@@ -62488,7 +62488,7 @@
         <v>181</v>
       </c>
       <c r="Y767" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z767" s="3"/>
     </row>
@@ -62547,7 +62547,7 @@
         <v>181</v>
       </c>
       <c r="Y768" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z768" s="3"/>
     </row>
@@ -62614,7 +62614,7 @@
         <v>181</v>
       </c>
       <c r="Y769" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z769" s="3"/>
     </row>
@@ -62681,7 +62681,7 @@
         <v>181</v>
       </c>
       <c r="Y770" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z770" s="3"/>
     </row>
@@ -62748,7 +62748,7 @@
         <v>181</v>
       </c>
       <c r="Y771" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z771" s="3"/>
     </row>
@@ -62815,7 +62815,7 @@
         <v>181</v>
       </c>
       <c r="Y772" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z772" s="3"/>
     </row>
@@ -62874,7 +62874,7 @@
         <v>181</v>
       </c>
       <c r="Y773" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z773" s="3"/>
     </row>
@@ -62941,7 +62941,7 @@
         <v>181</v>
       </c>
       <c r="Y774" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z774" s="3"/>
     </row>
@@ -63008,7 +63008,7 @@
         <v>181</v>
       </c>
       <c r="Y775" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z775" s="3"/>
     </row>
@@ -63075,7 +63075,7 @@
         <v>181</v>
       </c>
       <c r="Y776" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z776" s="3"/>
     </row>
@@ -63142,7 +63142,7 @@
         <v>181</v>
       </c>
       <c r="Y777" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z777" s="3"/>
     </row>
@@ -63201,7 +63201,7 @@
         <v>181</v>
       </c>
       <c r="Y778" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z778" s="3"/>
     </row>
@@ -63268,7 +63268,7 @@
         <v>181</v>
       </c>
       <c r="Y779" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z779" s="3"/>
     </row>
@@ -63335,7 +63335,7 @@
         <v>181</v>
       </c>
       <c r="Y780" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z780" s="3"/>
     </row>
@@ -63402,7 +63402,7 @@
         <v>181</v>
       </c>
       <c r="Y781" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z781" s="3"/>
     </row>
@@ -63469,7 +63469,7 @@
         <v>181</v>
       </c>
       <c r="Y782" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z782" s="3"/>
     </row>
@@ -63528,7 +63528,7 @@
         <v>181</v>
       </c>
       <c r="Y783" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z783" s="3"/>
     </row>
@@ -63595,7 +63595,7 @@
         <v>181</v>
       </c>
       <c r="Y784" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z784" s="3"/>
     </row>
@@ -63662,7 +63662,7 @@
         <v>181</v>
       </c>
       <c r="Y785" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z785" s="3"/>
     </row>
@@ -63729,7 +63729,7 @@
         <v>181</v>
       </c>
       <c r="Y786" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z786" s="3"/>
     </row>
@@ -63796,7 +63796,7 @@
         <v>181</v>
       </c>
       <c r="Y787" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z787" s="3"/>
     </row>
@@ -63855,7 +63855,7 @@
         <v>181</v>
       </c>
       <c r="Y788" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z788" s="3"/>
     </row>
@@ -63922,7 +63922,7 @@
         <v>181</v>
       </c>
       <c r="Y789" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z789" s="3"/>
     </row>
@@ -63989,7 +63989,7 @@
         <v>181</v>
       </c>
       <c r="Y790" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z790" s="3"/>
     </row>
@@ -64056,7 +64056,7 @@
         <v>181</v>
       </c>
       <c r="Y791" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z791" s="3"/>
     </row>
@@ -64123,7 +64123,7 @@
         <v>181</v>
       </c>
       <c r="Y792" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z792" s="3"/>
     </row>
@@ -64182,7 +64182,7 @@
         <v>181</v>
       </c>
       <c r="Y793" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z793" s="3"/>
     </row>
@@ -64249,7 +64249,7 @@
         <v>181</v>
       </c>
       <c r="Y794" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z794" s="3"/>
     </row>
@@ -64316,7 +64316,7 @@
         <v>181</v>
       </c>
       <c r="Y795" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z795" s="3"/>
     </row>
@@ -64383,7 +64383,7 @@
         <v>181</v>
       </c>
       <c r="Y796" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z796" s="3"/>
     </row>
@@ -64450,7 +64450,7 @@
         <v>181</v>
       </c>
       <c r="Y797" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z797" s="3"/>
     </row>
@@ -64509,7 +64509,7 @@
         <v>181</v>
       </c>
       <c r="Y798" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z798" s="3"/>
     </row>
@@ -64576,7 +64576,7 @@
         <v>181</v>
       </c>
       <c r="Y799" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z799" s="3"/>
     </row>
@@ -64643,7 +64643,7 @@
         <v>181</v>
       </c>
       <c r="Y800" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z800" s="3"/>
     </row>
@@ -64710,7 +64710,7 @@
         <v>181</v>
       </c>
       <c r="Y801" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z801" s="3"/>
     </row>
@@ -64777,7 +64777,7 @@
         <v>181</v>
       </c>
       <c r="Y802" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z802" s="3"/>
     </row>
@@ -64836,7 +64836,7 @@
         <v>181</v>
       </c>
       <c r="Y803" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z803" s="3"/>
     </row>
@@ -64903,7 +64903,7 @@
         <v>182</v>
       </c>
       <c r="Y804" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z804" s="3"/>
     </row>
@@ -64970,7 +64970,7 @@
         <v>182</v>
       </c>
       <c r="Y805" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z805" s="3"/>
     </row>
@@ -65037,7 +65037,7 @@
         <v>182</v>
       </c>
       <c r="Y806" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z806" s="3"/>
     </row>
@@ -65104,7 +65104,7 @@
         <v>182</v>
       </c>
       <c r="Y807" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z807" s="3"/>
     </row>
@@ -65163,7 +65163,7 @@
         <v>182</v>
       </c>
       <c r="Y808" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z808" s="3"/>
     </row>
@@ -65230,7 +65230,7 @@
         <v>182</v>
       </c>
       <c r="Y809" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z809" s="3"/>
     </row>
@@ -65297,7 +65297,7 @@
         <v>182</v>
       </c>
       <c r="Y810" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z810" s="3"/>
     </row>
@@ -65364,7 +65364,7 @@
         <v>182</v>
       </c>
       <c r="Y811" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z811" s="3"/>
     </row>
@@ -65431,7 +65431,7 @@
         <v>182</v>
       </c>
       <c r="Y812" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z812" s="3"/>
     </row>
@@ -65490,7 +65490,7 @@
         <v>182</v>
       </c>
       <c r="Y813" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z813" s="3"/>
     </row>
@@ -65557,7 +65557,7 @@
         <v>182</v>
       </c>
       <c r="Y814" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z814" s="3"/>
     </row>
@@ -65624,7 +65624,7 @@
         <v>182</v>
       </c>
       <c r="Y815" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z815" s="3"/>
     </row>
@@ -65691,7 +65691,7 @@
         <v>182</v>
       </c>
       <c r="Y816" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z816" s="3"/>
     </row>
@@ -65758,7 +65758,7 @@
         <v>182</v>
       </c>
       <c r="Y817" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z817" s="3"/>
     </row>
@@ -65817,7 +65817,7 @@
         <v>182</v>
       </c>
       <c r="Y818" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z818" s="3"/>
     </row>
@@ -65884,7 +65884,7 @@
         <v>182</v>
       </c>
       <c r="Y819" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z819" s="3"/>
     </row>
@@ -65951,7 +65951,7 @@
         <v>182</v>
       </c>
       <c r="Y820" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z820" s="3"/>
     </row>
@@ -66018,7 +66018,7 @@
         <v>182</v>
       </c>
       <c r="Y821" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z821" s="3"/>
     </row>
@@ -66085,7 +66085,7 @@
         <v>182</v>
       </c>
       <c r="Y822" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z822" s="3"/>
     </row>
@@ -66144,7 +66144,7 @@
         <v>182</v>
       </c>
       <c r="Y823" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z823" s="3"/>
     </row>
@@ -66211,7 +66211,7 @@
         <v>182</v>
       </c>
       <c r="Y824" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z824" s="3"/>
     </row>
@@ -66278,7 +66278,7 @@
         <v>182</v>
       </c>
       <c r="Y825" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z825" s="3"/>
     </row>
@@ -66345,7 +66345,7 @@
         <v>182</v>
       </c>
       <c r="Y826" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z826" s="3"/>
     </row>
@@ -66412,7 +66412,7 @@
         <v>182</v>
       </c>
       <c r="Y827" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z827" s="3"/>
     </row>
@@ -66471,7 +66471,7 @@
         <v>182</v>
       </c>
       <c r="Y828" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z828" s="3"/>
     </row>
@@ -66538,7 +66538,7 @@
         <v>182</v>
       </c>
       <c r="Y829" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z829" s="3"/>
     </row>
@@ -66605,7 +66605,7 @@
         <v>182</v>
       </c>
       <c r="Y830" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z830" s="3"/>
     </row>
@@ -66672,7 +66672,7 @@
         <v>182</v>
       </c>
       <c r="Y831" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z831" s="3"/>
     </row>
@@ -66739,7 +66739,7 @@
         <v>182</v>
       </c>
       <c r="Y832" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z832" s="3"/>
     </row>
@@ -66798,7 +66798,7 @@
         <v>182</v>
       </c>
       <c r="Y833" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z833" s="3"/>
     </row>
@@ -66865,7 +66865,7 @@
         <v>182</v>
       </c>
       <c r="Y834" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z834" s="3"/>
     </row>
@@ -66932,7 +66932,7 @@
         <v>182</v>
       </c>
       <c r="Y835" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z835" s="3"/>
     </row>
@@ -66999,7 +66999,7 @@
         <v>182</v>
       </c>
       <c r="Y836" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z836" s="3"/>
     </row>
@@ -67066,7 +67066,7 @@
         <v>182</v>
       </c>
       <c r="Y837" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z837" s="3"/>
     </row>
@@ -67125,7 +67125,7 @@
         <v>182</v>
       </c>
       <c r="Y838" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z838" s="3"/>
     </row>
@@ -67192,7 +67192,7 @@
         <v>182</v>
       </c>
       <c r="Y839" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z839" s="3"/>
     </row>
@@ -67259,7 +67259,7 @@
         <v>182</v>
       </c>
       <c r="Y840" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z840" s="3"/>
     </row>
@@ -67326,7 +67326,7 @@
         <v>182</v>
       </c>
       <c r="Y841" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z841" s="3"/>
     </row>
@@ -67393,7 +67393,7 @@
         <v>182</v>
       </c>
       <c r="Y842" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z842" s="3"/>
     </row>
@@ -67452,7 +67452,7 @@
         <v>182</v>
       </c>
       <c r="Y843" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z843" s="3"/>
     </row>
@@ -67519,7 +67519,7 @@
         <v>182</v>
       </c>
       <c r="Y844" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z844" s="3"/>
     </row>
@@ -67586,7 +67586,7 @@
         <v>182</v>
       </c>
       <c r="Y845" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z845" s="3"/>
     </row>
@@ -67653,7 +67653,7 @@
         <v>182</v>
       </c>
       <c r="Y846" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z846" s="3"/>
     </row>
@@ -67720,7 +67720,7 @@
         <v>182</v>
       </c>
       <c r="Y847" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z847" s="3"/>
     </row>
@@ -67779,7 +67779,7 @@
         <v>182</v>
       </c>
       <c r="Y848" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z848" s="3"/>
     </row>
@@ -67846,7 +67846,7 @@
         <v>182</v>
       </c>
       <c r="Y849" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z849" s="3"/>
     </row>
@@ -67913,7 +67913,7 @@
         <v>182</v>
       </c>
       <c r="Y850" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z850" s="3"/>
     </row>
@@ -67980,7 +67980,7 @@
         <v>182</v>
       </c>
       <c r="Y851" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z851" s="3"/>
     </row>
@@ -68047,7 +68047,7 @@
         <v>182</v>
       </c>
       <c r="Y852" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z852" s="3"/>
     </row>
@@ -68106,7 +68106,7 @@
         <v>182</v>
       </c>
       <c r="Y853" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z853" s="3"/>
     </row>
@@ -68173,7 +68173,7 @@
         <v>182</v>
       </c>
       <c r="Y854" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z854" s="3"/>
     </row>
@@ -68240,7 +68240,7 @@
         <v>182</v>
       </c>
       <c r="Y855" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z855" s="3"/>
     </row>
@@ -68307,7 +68307,7 @@
         <v>182</v>
       </c>
       <c r="Y856" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z856" s="3"/>
     </row>
@@ -68374,7 +68374,7 @@
         <v>182</v>
       </c>
       <c r="Y857" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z857" s="3"/>
     </row>
@@ -68433,7 +68433,7 @@
         <v>182</v>
       </c>
       <c r="Y858" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z858" s="3"/>
     </row>
@@ -68500,7 +68500,7 @@
         <v>182</v>
       </c>
       <c r="Y859" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z859" s="3"/>
     </row>
@@ -68567,7 +68567,7 @@
         <v>182</v>
       </c>
       <c r="Y860" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z860" s="3"/>
     </row>
@@ -68634,7 +68634,7 @@
         <v>182</v>
       </c>
       <c r="Y861" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z861" s="3"/>
     </row>
@@ -68701,7 +68701,7 @@
         <v>182</v>
       </c>
       <c r="Y862" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z862" s="3"/>
     </row>
@@ -68760,7 +68760,7 @@
         <v>182</v>
       </c>
       <c r="Y863" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z863" s="3"/>
     </row>
@@ -68827,7 +68827,7 @@
         <v>182</v>
       </c>
       <c r="Y864" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z864" s="3"/>
     </row>
@@ -68894,7 +68894,7 @@
         <v>182</v>
       </c>
       <c r="Y865" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z865" s="3"/>
     </row>
@@ -68961,7 +68961,7 @@
         <v>182</v>
       </c>
       <c r="Y866" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z866" s="3"/>
     </row>
@@ -69028,7 +69028,7 @@
         <v>182</v>
       </c>
       <c r="Y867" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z867" s="3"/>
     </row>
@@ -69087,7 +69087,7 @@
         <v>182</v>
       </c>
       <c r="Y868" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z868" s="3"/>
     </row>
@@ -69154,7 +69154,7 @@
         <v>182</v>
       </c>
       <c r="Y869" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z869" s="3"/>
     </row>
@@ -69221,7 +69221,7 @@
         <v>182</v>
       </c>
       <c r="Y870" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z870" s="3"/>
     </row>
@@ -69288,7 +69288,7 @@
         <v>182</v>
       </c>
       <c r="Y871" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z871" s="3"/>
     </row>
@@ -69355,7 +69355,7 @@
         <v>182</v>
       </c>
       <c r="Y872" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z872" s="3"/>
     </row>
@@ -69414,7 +69414,7 @@
         <v>182</v>
       </c>
       <c r="Y873" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z873" s="3"/>
     </row>
@@ -69481,7 +69481,7 @@
         <v>182</v>
       </c>
       <c r="Y874" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z874" s="3"/>
     </row>
@@ -69548,7 +69548,7 @@
         <v>182</v>
       </c>
       <c r="Y875" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z875" s="3"/>
     </row>
@@ -69615,7 +69615,7 @@
         <v>182</v>
       </c>
       <c r="Y876" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z876" s="3"/>
     </row>
@@ -69682,7 +69682,7 @@
         <v>182</v>
       </c>
       <c r="Y877" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z877" s="3"/>
     </row>
@@ -69741,7 +69741,7 @@
         <v>182</v>
       </c>
       <c r="Y878" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z878" s="3"/>
     </row>
@@ -69808,7 +69808,7 @@
         <v>182</v>
       </c>
       <c r="Y879" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z879" s="3"/>
     </row>
@@ -69875,7 +69875,7 @@
         <v>182</v>
       </c>
       <c r="Y880" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z880" s="3"/>
     </row>
@@ -69942,7 +69942,7 @@
         <v>182</v>
       </c>
       <c r="Y881" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z881" s="3"/>
     </row>
@@ -70009,7 +70009,7 @@
         <v>182</v>
       </c>
       <c r="Y882" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z882" s="3"/>
     </row>
@@ -70068,7 +70068,7 @@
         <v>182</v>
       </c>
       <c r="Y883" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z883" s="3"/>
     </row>
@@ -70135,7 +70135,7 @@
         <v>182</v>
       </c>
       <c r="Y884" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z884" s="3"/>
     </row>
@@ -70202,7 +70202,7 @@
         <v>182</v>
       </c>
       <c r="Y885" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z885" s="3"/>
     </row>
@@ -70269,7 +70269,7 @@
         <v>182</v>
       </c>
       <c r="Y886" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z886" s="3"/>
     </row>
@@ -70336,7 +70336,7 @@
         <v>182</v>
       </c>
       <c r="Y887" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z887" s="3"/>
     </row>
@@ -70395,7 +70395,7 @@
         <v>182</v>
       </c>
       <c r="Y888" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z888" s="3"/>
     </row>
@@ -70462,7 +70462,7 @@
         <v>182</v>
       </c>
       <c r="Y889" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z889" s="3"/>
     </row>
@@ -70529,7 +70529,7 @@
         <v>182</v>
       </c>
       <c r="Y890" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z890" s="3"/>
     </row>
@@ -70596,7 +70596,7 @@
         <v>182</v>
       </c>
       <c r="Y891" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z891" s="3"/>
     </row>
@@ -70663,7 +70663,7 @@
         <v>182</v>
       </c>
       <c r="Y892" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z892" s="3"/>
     </row>
@@ -70722,7 +70722,7 @@
         <v>182</v>
       </c>
       <c r="Y893" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z893" s="3"/>
     </row>
@@ -70789,7 +70789,7 @@
         <v>182</v>
       </c>
       <c r="Y894" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z894" s="3"/>
     </row>
@@ -70856,7 +70856,7 @@
         <v>182</v>
       </c>
       <c r="Y895" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z895" s="3"/>
     </row>
@@ -70923,7 +70923,7 @@
         <v>182</v>
       </c>
       <c r="Y896" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z896" s="3"/>
     </row>
@@ -70990,7 +70990,7 @@
         <v>182</v>
       </c>
       <c r="Y897" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z897" s="3"/>
     </row>
@@ -71049,7 +71049,7 @@
         <v>182</v>
       </c>
       <c r="Y898" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z898" s="3"/>
     </row>
@@ -71116,7 +71116,7 @@
         <v>182</v>
       </c>
       <c r="Y899" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z899" s="3"/>
     </row>
@@ -71183,7 +71183,7 @@
         <v>182</v>
       </c>
       <c r="Y900" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z900" s="3"/>
     </row>
@@ -71250,7 +71250,7 @@
         <v>182</v>
       </c>
       <c r="Y901" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z901" s="3"/>
     </row>
@@ -71317,7 +71317,7 @@
         <v>182</v>
       </c>
       <c r="Y902" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z902" s="3"/>
     </row>
@@ -71376,7 +71376,7 @@
         <v>182</v>
       </c>
       <c r="Y903" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z903" s="3"/>
     </row>
@@ -71443,7 +71443,7 @@
         <v>182</v>
       </c>
       <c r="Y904" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z904" s="3"/>
     </row>
@@ -71510,7 +71510,7 @@
         <v>182</v>
       </c>
       <c r="Y905" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z905" s="3"/>
     </row>
@@ -71577,7 +71577,7 @@
         <v>182</v>
       </c>
       <c r="Y906" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z906" s="3"/>
     </row>
@@ -71644,7 +71644,7 @@
         <v>182</v>
       </c>
       <c r="Y907" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z907" s="3"/>
     </row>
@@ -71703,7 +71703,7 @@
         <v>182</v>
       </c>
       <c r="Y908" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z908" s="3"/>
     </row>
@@ -71770,7 +71770,7 @@
         <v>182</v>
       </c>
       <c r="Y909" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z909" s="3"/>
     </row>
@@ -71837,7 +71837,7 @@
         <v>182</v>
       </c>
       <c r="Y910" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z910" s="3"/>
     </row>
@@ -71904,7 +71904,7 @@
         <v>182</v>
       </c>
       <c r="Y911" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z911" s="3"/>
     </row>
@@ -71971,7 +71971,7 @@
         <v>182</v>
       </c>
       <c r="Y912" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z912" s="3"/>
     </row>
@@ -72030,7 +72030,7 @@
         <v>182</v>
       </c>
       <c r="Y913" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z913" s="3"/>
     </row>
@@ -72097,7 +72097,7 @@
         <v>182</v>
       </c>
       <c r="Y914" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z914" s="3"/>
     </row>
@@ -72164,7 +72164,7 @@
         <v>182</v>
       </c>
       <c r="Y915" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z915" s="3"/>
     </row>
@@ -72231,7 +72231,7 @@
         <v>182</v>
       </c>
       <c r="Y916" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z916" s="3"/>
     </row>
@@ -72298,7 +72298,7 @@
         <v>182</v>
       </c>
       <c r="Y917" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z917" s="3"/>
     </row>
@@ -72357,7 +72357,7 @@
         <v>182</v>
       </c>
       <c r="Y918" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z918" s="3"/>
     </row>
@@ -72424,7 +72424,7 @@
         <v>182</v>
       </c>
       <c r="Y919" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z919" s="3"/>
     </row>
@@ -72491,7 +72491,7 @@
         <v>182</v>
       </c>
       <c r="Y920" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z920" s="3"/>
     </row>
@@ -72558,7 +72558,7 @@
         <v>182</v>
       </c>
       <c r="Y921" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z921" s="3"/>
     </row>
@@ -72625,7 +72625,7 @@
         <v>182</v>
       </c>
       <c r="Y922" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z922" s="3"/>
     </row>
@@ -72684,7 +72684,7 @@
         <v>182</v>
       </c>
       <c r="Y923" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z923" s="3"/>
     </row>
@@ -72751,7 +72751,7 @@
         <v>182</v>
       </c>
       <c r="Y924" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z924" s="3"/>
     </row>
@@ -72818,7 +72818,7 @@
         <v>182</v>
       </c>
       <c r="Y925" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z925" s="3"/>
     </row>
@@ -72885,7 +72885,7 @@
         <v>182</v>
       </c>
       <c r="Y926" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z926" s="3"/>
     </row>
@@ -72952,7 +72952,7 @@
         <v>182</v>
       </c>
       <c r="Y927" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z927" s="3"/>
     </row>
@@ -73011,7 +73011,7 @@
         <v>182</v>
       </c>
       <c r="Y928" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z928" s="3"/>
     </row>
@@ -73078,7 +73078,7 @@
         <v>182</v>
       </c>
       <c r="Y929" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z929" s="3"/>
     </row>
@@ -73145,7 +73145,7 @@
         <v>182</v>
       </c>
       <c r="Y930" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z930" s="3"/>
     </row>
@@ -73212,7 +73212,7 @@
         <v>182</v>
       </c>
       <c r="Y931" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z931" s="3"/>
     </row>
@@ -73279,7 +73279,7 @@
         <v>182</v>
       </c>
       <c r="Y932" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z932" s="3"/>
     </row>
@@ -73338,7 +73338,7 @@
         <v>182</v>
       </c>
       <c r="Y933" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z933" s="3"/>
     </row>
@@ -73405,7 +73405,7 @@
         <v>182</v>
       </c>
       <c r="Y934" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z934" s="3"/>
     </row>
@@ -73472,7 +73472,7 @@
         <v>182</v>
       </c>
       <c r="Y935" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z935" s="3"/>
     </row>
@@ -73539,7 +73539,7 @@
         <v>182</v>
       </c>
       <c r="Y936" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z936" s="3"/>
     </row>
@@ -73606,7 +73606,7 @@
         <v>182</v>
       </c>
       <c r="Y937" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z937" s="3"/>
     </row>
@@ -73665,7 +73665,7 @@
         <v>182</v>
       </c>
       <c r="Y938" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z938" s="3"/>
     </row>
@@ -73732,7 +73732,7 @@
         <v>182</v>
       </c>
       <c r="Y939" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z939" s="3"/>
     </row>
@@ -73799,7 +73799,7 @@
         <v>182</v>
       </c>
       <c r="Y940" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z940" s="3"/>
     </row>
@@ -73866,7 +73866,7 @@
         <v>182</v>
       </c>
       <c r="Y941" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z941" s="3"/>
     </row>
@@ -73933,7 +73933,7 @@
         <v>182</v>
       </c>
       <c r="Y942" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z942" s="3"/>
     </row>
@@ -73992,7 +73992,7 @@
         <v>182</v>
       </c>
       <c r="Y943" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z943" s="3"/>
     </row>
@@ -74059,7 +74059,7 @@
         <v>182</v>
       </c>
       <c r="Y944" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z944" s="3"/>
     </row>
@@ -74126,7 +74126,7 @@
         <v>182</v>
       </c>
       <c r="Y945" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z945" s="3"/>
     </row>
@@ -74193,7 +74193,7 @@
         <v>182</v>
       </c>
       <c r="Y946" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z946" s="3"/>
     </row>
@@ -74260,7 +74260,7 @@
         <v>182</v>
       </c>
       <c r="Y947" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z947" s="3"/>
     </row>
@@ -74319,7 +74319,7 @@
         <v>182</v>
       </c>
       <c r="Y948" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z948" s="3"/>
     </row>
@@ -74386,7 +74386,7 @@
         <v>182</v>
       </c>
       <c r="Y949" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z949" s="3"/>
     </row>
@@ -74453,7 +74453,7 @@
         <v>182</v>
       </c>
       <c r="Y950" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z950" s="3"/>
     </row>
@@ -74520,7 +74520,7 @@
         <v>182</v>
       </c>
       <c r="Y951" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z951" s="3"/>
     </row>
@@ -74587,7 +74587,7 @@
         <v>182</v>
       </c>
       <c r="Y952" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z952" s="3"/>
     </row>
@@ -74646,7 +74646,7 @@
         <v>182</v>
       </c>
       <c r="Y953" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z953" s="3"/>
     </row>
@@ -74713,7 +74713,7 @@
         <v>182</v>
       </c>
       <c r="Y954" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z954" s="3"/>
     </row>
@@ -74780,7 +74780,7 @@
         <v>182</v>
       </c>
       <c r="Y955" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z955" s="3"/>
     </row>
@@ -74847,7 +74847,7 @@
         <v>182</v>
       </c>
       <c r="Y956" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z956" s="3"/>
     </row>
@@ -74914,7 +74914,7 @@
         <v>182</v>
       </c>
       <c r="Y957" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z957" s="3"/>
     </row>
@@ -74973,7 +74973,7 @@
         <v>182</v>
       </c>
       <c r="Y958" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z958" s="3"/>
     </row>
@@ -75040,7 +75040,7 @@
         <v>182</v>
       </c>
       <c r="Y959" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z959" s="3"/>
     </row>
@@ -75107,7 +75107,7 @@
         <v>182</v>
       </c>
       <c r="Y960" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z960" s="3"/>
     </row>
@@ -75174,7 +75174,7 @@
         <v>182</v>
       </c>
       <c r="Y961" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z961" s="3"/>
     </row>
@@ -75241,7 +75241,7 @@
         <v>182</v>
       </c>
       <c r="Y962" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z962" s="3"/>
     </row>
@@ -75300,7 +75300,7 @@
         <v>182</v>
       </c>
       <c r="Y963" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z963" s="3"/>
     </row>
@@ -75367,7 +75367,7 @@
         <v>182</v>
       </c>
       <c r="Y964" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z964" s="3"/>
     </row>
@@ -75434,7 +75434,7 @@
         <v>182</v>
       </c>
       <c r="Y965" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z965" s="3"/>
     </row>
@@ -75501,7 +75501,7 @@
         <v>182</v>
       </c>
       <c r="Y966" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z966" s="3"/>
     </row>
@@ -75568,7 +75568,7 @@
         <v>182</v>
       </c>
       <c r="Y967" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z967" s="3"/>
     </row>
@@ -75627,7 +75627,7 @@
         <v>182</v>
       </c>
       <c r="Y968" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z968" s="3"/>
     </row>
@@ -75694,7 +75694,7 @@
         <v>182</v>
       </c>
       <c r="Y969" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z969" s="3"/>
     </row>
@@ -75761,7 +75761,7 @@
         <v>182</v>
       </c>
       <c r="Y970" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z970" s="3"/>
     </row>
@@ -75828,7 +75828,7 @@
         <v>182</v>
       </c>
       <c r="Y971" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z971" s="3"/>
     </row>
@@ -75895,7 +75895,7 @@
         <v>182</v>
       </c>
       <c r="Y972" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z972" s="3"/>
     </row>
@@ -75954,7 +75954,7 @@
         <v>182</v>
       </c>
       <c r="Y973" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z973" s="3"/>
     </row>
@@ -76021,7 +76021,7 @@
         <v>182</v>
       </c>
       <c r="Y974" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z974" s="3"/>
     </row>
@@ -76088,7 +76088,7 @@
         <v>182</v>
       </c>
       <c r="Y975" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z975" s="3"/>
     </row>
@@ -76155,7 +76155,7 @@
         <v>182</v>
       </c>
       <c r="Y976" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z976" s="3"/>
     </row>
@@ -76222,7 +76222,7 @@
         <v>182</v>
       </c>
       <c r="Y977" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z977" s="3"/>
     </row>
@@ -76281,7 +76281,7 @@
         <v>182</v>
       </c>
       <c r="Y978" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z978" s="3"/>
     </row>
@@ -76348,7 +76348,7 @@
         <v>182</v>
       </c>
       <c r="Y979" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z979" s="3"/>
     </row>
@@ -76415,7 +76415,7 @@
         <v>182</v>
       </c>
       <c r="Y980" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z980" s="3"/>
     </row>
@@ -76482,7 +76482,7 @@
         <v>182</v>
       </c>
       <c r="Y981" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z981" s="3"/>
     </row>
@@ -76549,7 +76549,7 @@
         <v>182</v>
       </c>
       <c r="Y982" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z982" s="3"/>
     </row>
@@ -76608,7 +76608,7 @@
         <v>182</v>
       </c>
       <c r="Y983" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z983" s="3"/>
     </row>
@@ -76675,7 +76675,7 @@
         <v>182</v>
       </c>
       <c r="Y984" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z984" s="3"/>
     </row>
@@ -76742,7 +76742,7 @@
         <v>182</v>
       </c>
       <c r="Y985" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z985" s="3"/>
     </row>
@@ -76809,7 +76809,7 @@
         <v>182</v>
       </c>
       <c r="Y986" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z986" s="3"/>
     </row>
@@ -76876,7 +76876,7 @@
         <v>182</v>
       </c>
       <c r="Y987" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z987" s="3"/>
     </row>
@@ -76935,7 +76935,7 @@
         <v>182</v>
       </c>
       <c r="Y988" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z988" s="3"/>
     </row>
@@ -77002,7 +77002,7 @@
         <v>182</v>
       </c>
       <c r="Y989" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z989" s="3"/>
     </row>
@@ -77069,7 +77069,7 @@
         <v>182</v>
       </c>
       <c r="Y990" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z990" s="3"/>
     </row>
@@ -77136,7 +77136,7 @@
         <v>182</v>
       </c>
       <c r="Y991" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z991" s="3"/>
     </row>
@@ -77203,7 +77203,7 @@
         <v>182</v>
       </c>
       <c r="Y992" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z992" s="3"/>
     </row>
@@ -77262,7 +77262,7 @@
         <v>182</v>
       </c>
       <c r="Y993" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z993" s="3"/>
     </row>
@@ -77329,7 +77329,7 @@
         <v>182</v>
       </c>
       <c r="Y994" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z994" s="3"/>
     </row>
@@ -77396,7 +77396,7 @@
         <v>182</v>
       </c>
       <c r="Y995" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z995" s="3"/>
     </row>
@@ -77463,7 +77463,7 @@
         <v>182</v>
       </c>
       <c r="Y996" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z996" s="3"/>
     </row>
@@ -77530,7 +77530,7 @@
         <v>182</v>
       </c>
       <c r="Y997" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z997" s="3"/>
     </row>
@@ -77589,7 +77589,7 @@
         <v>182</v>
       </c>
       <c r="Y998" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z998" s="3"/>
     </row>
@@ -77656,7 +77656,7 @@
         <v>182</v>
       </c>
       <c r="Y999" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z999" s="3"/>
     </row>
@@ -77723,7 +77723,7 @@
         <v>182</v>
       </c>
       <c r="Y1000" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z1000" s="3"/>
     </row>
@@ -77790,7 +77790,7 @@
         <v>182</v>
       </c>
       <c r="Y1001" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z1001" s="3"/>
     </row>
@@ -77857,7 +77857,7 @@
         <v>182</v>
       </c>
       <c r="Y1002" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z1002" s="3"/>
     </row>
@@ -77916,7 +77916,7 @@
         <v>182</v>
       </c>
       <c r="Y1003" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z1003" s="3"/>
     </row>
@@ -77932,7 +77932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1FD3C-06A5-4296-81E0-4F51D9509C2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23A77E-E999-4E3A-A20A-79A36341DCE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12292,7 +12292,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1954586-D0C5-4948-9BC6-F527D6EB9F0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78141135-947D-4DD4-AFAA-ED5D2F5B1D77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12766,7 +12766,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339641A-9D86-41F7-83CA-FA99043A7372}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2357055-8017-4CD2-A0B1-3CCF0920E4F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2776,11 +2776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13154,11 +13154,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:AC1127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I983" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F995" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1004" sqref="B1004"/>
+      <selection pane="bottomRight" activeCell="H1010" sqref="H1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027BF52-0C92-4DB7-9986-3B1DE7E1D96A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C181F33-DD96-421E-A276-A8B7CFB7B6A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13215,10 +13215,10 @@
   <dimension ref="A1:AC1158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F1076" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F1113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D1151" sqref="D1151:E1158"/>
+      <selection pane="bottomRight" activeCell="K1118" sqref="K1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C181F33-DD96-421E-A276-A8B7CFB7B6A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4365447-927D-416D-8ED6-8AE80EBFB040}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2840,7 +2840,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomRight" activeCell="D105" sqref="D105:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13215,10 +13215,10 @@
   <dimension ref="A1:AC1158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F1113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F1105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K1118" sqref="K1118"/>
+      <selection pane="bottomRight" activeCell="H1119" sqref="H1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13226,7 +13226,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
     <col min="9" max="9" width="23.625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="21.625" customWidth="1"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4365447-927D-416D-8ED6-8AE80EBFB040}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52924DF-4B48-4E2F-91DD-60A8EDBDC13B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2836,11 +2836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D105" sqref="D105:D109"/>
+      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13214,11 +13214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:AC1158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F1105" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F1136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H1119" sqref="H1119"/>
+      <selection pane="bottomRight" activeCell="W1014" sqref="W1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52924DF-4B48-4E2F-91DD-60A8EDBDC13B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807F29EC-BCDD-4F34-8F96-4D3867D0A2C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2836,11 +2836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13214,11 +13214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
   <dimension ref="A1:AC1158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F1136" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F1099" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W1014" sqref="W1014"/>
+      <selection pane="bottomRight" activeCell="K1114" sqref="K1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775BF300-D8D0-45AD-BD68-67DF37D288F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4AEB00-0F94-4306-92DA-344EA057FD4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1736,10 +1736,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[nil]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>levelAttr.json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1848,6 +1844,10 @@
   </si>
   <si>
     <t>星际战场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[empty]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2581,7 +2581,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -2817,10 +2817,10 @@
   <dimension ref="A1:AE109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomRight" activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12621,7 +12621,7 @@
         <v>322</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D104" s="4">
         <v>100</v>
@@ -12630,10 +12630,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>323</v>
@@ -12725,10 +12725,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>323</v>
@@ -12820,10 +12820,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>323</v>
@@ -12915,10 +12915,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>323</v>
@@ -13010,10 +13010,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>323</v>
@@ -13105,10 +13105,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>323</v>
@@ -84006,7 +84006,7 @@
       </c>
       <c r="H1004" s="3"/>
       <c r="I1004" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J1004" s="3">
         <v>1.5</v>
@@ -84055,7 +84055,7 @@
       </c>
       <c r="H1005" s="3"/>
       <c r="I1005" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1005" s="3">
         <v>1.5</v>
@@ -84104,7 +84104,7 @@
       </c>
       <c r="H1006" s="3"/>
       <c r="I1006" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1006" s="3">
         <v>1.5</v>
@@ -84153,7 +84153,7 @@
       </c>
       <c r="H1007" s="3"/>
       <c r="I1007" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1007" s="3">
         <v>1.5</v>
@@ -84202,7 +84202,7 @@
       </c>
       <c r="H1008" s="3"/>
       <c r="I1008" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J1008" s="3">
         <v>1.5</v>
@@ -84251,7 +84251,7 @@
       </c>
       <c r="H1009" s="3"/>
       <c r="I1009" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1009" s="3">
         <v>1.5</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1010" s="3"/>
       <c r="I1010" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1010" s="3">
         <v>1.5</v>
@@ -84349,7 +84349,7 @@
       </c>
       <c r="H1011" s="3"/>
       <c r="I1011" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1011" s="3">
         <v>1.5</v>
@@ -84398,7 +84398,7 @@
       </c>
       <c r="H1012" s="3"/>
       <c r="I1012" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1012" s="3">
         <v>1.5</v>
@@ -84447,7 +84447,7 @@
       </c>
       <c r="H1013" s="3"/>
       <c r="I1013" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J1013" s="3">
         <v>1.5</v>
@@ -84496,7 +84496,7 @@
       </c>
       <c r="H1014" s="3"/>
       <c r="I1014" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1014" s="3">
         <v>1.5</v>
@@ -84545,7 +84545,7 @@
       </c>
       <c r="H1015" s="3"/>
       <c r="I1015" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1015" s="3">
         <v>1.5</v>
@@ -84594,7 +84594,7 @@
       </c>
       <c r="H1016" s="3"/>
       <c r="I1016" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1016" s="3">
         <v>1.5</v>
@@ -84643,7 +84643,7 @@
       </c>
       <c r="H1017" s="3"/>
       <c r="I1017" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1017" s="3">
         <v>1.5</v>
@@ -84692,7 +84692,7 @@
       </c>
       <c r="H1018" s="3"/>
       <c r="I1018" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J1018" s="3">
         <v>1.5</v>
@@ -84741,7 +84741,7 @@
       </c>
       <c r="H1019" s="3"/>
       <c r="I1019" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1019" s="3">
         <v>1.5</v>
@@ -84790,7 +84790,7 @@
       </c>
       <c r="H1020" s="3"/>
       <c r="I1020" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1020" s="3">
         <v>1.5</v>
@@ -84839,7 +84839,7 @@
       </c>
       <c r="H1021" s="3"/>
       <c r="I1021" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1021" s="3">
         <v>1.5</v>
@@ -84888,7 +84888,7 @@
       </c>
       <c r="H1022" s="3"/>
       <c r="I1022" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1022" s="3">
         <v>1.5</v>
@@ -84937,7 +84937,7 @@
       </c>
       <c r="H1023" s="3"/>
       <c r="I1023" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J1023" s="3">
         <v>1.5</v>
@@ -84986,7 +84986,7 @@
       </c>
       <c r="H1024" s="3"/>
       <c r="I1024" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1024" s="3">
         <v>1.5</v>
@@ -85035,7 +85035,7 @@
       </c>
       <c r="H1025" s="3"/>
       <c r="I1025" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1025" s="3">
         <v>1.5</v>
@@ -85084,7 +85084,7 @@
       </c>
       <c r="H1026" s="3"/>
       <c r="I1026" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1026" s="3">
         <v>1.5</v>
@@ -85133,7 +85133,7 @@
       </c>
       <c r="H1027" s="3"/>
       <c r="I1027" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1027" s="3">
         <v>1.5</v>
@@ -85182,7 +85182,7 @@
       </c>
       <c r="H1028" s="3"/>
       <c r="I1028" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J1028" s="3">
         <v>1.5</v>
@@ -85231,7 +85231,7 @@
       </c>
       <c r="H1029" s="3"/>
       <c r="I1029" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1029" s="3">
         <v>1.5</v>
@@ -85280,7 +85280,7 @@
       </c>
       <c r="H1030" s="3"/>
       <c r="I1030" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1030" s="3">
         <v>1.5</v>
@@ -85329,7 +85329,7 @@
       </c>
       <c r="H1031" s="3"/>
       <c r="I1031" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1031" s="3">
         <v>1.5</v>
@@ -85378,7 +85378,7 @@
       </c>
       <c r="H1032" s="3"/>
       <c r="I1032" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1032" s="3">
         <v>1.5</v>
@@ -85427,7 +85427,7 @@
       </c>
       <c r="H1033" s="3"/>
       <c r="I1033" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J1033" s="3">
         <v>1.5</v>
@@ -85476,7 +85476,7 @@
       </c>
       <c r="H1034" s="3"/>
       <c r="I1034" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1034" s="3">
         <v>1.5</v>
@@ -85525,7 +85525,7 @@
       </c>
       <c r="H1035" s="3"/>
       <c r="I1035" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1035" s="3">
         <v>1.5</v>
@@ -85574,7 +85574,7 @@
       </c>
       <c r="H1036" s="3"/>
       <c r="I1036" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1036" s="3">
         <v>1.5</v>
@@ -85623,7 +85623,7 @@
       </c>
       <c r="H1037" s="3"/>
       <c r="I1037" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1037" s="3">
         <v>1.5</v>
@@ -85672,7 +85672,7 @@
       </c>
       <c r="H1038" s="3"/>
       <c r="I1038" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J1038" s="3">
         <v>1.5</v>
@@ -85721,7 +85721,7 @@
       </c>
       <c r="H1039" s="3"/>
       <c r="I1039" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1039" s="3">
         <v>1.5</v>
@@ -85770,7 +85770,7 @@
       </c>
       <c r="H1040" s="3"/>
       <c r="I1040" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1040" s="3">
         <v>1.5</v>
@@ -85819,7 +85819,7 @@
       </c>
       <c r="H1041" s="3"/>
       <c r="I1041" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1041" s="3">
         <v>1.5</v>
@@ -85868,7 +85868,7 @@
       </c>
       <c r="H1042" s="3"/>
       <c r="I1042" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1042" s="3">
         <v>1.5</v>
@@ -85917,7 +85917,7 @@
       </c>
       <c r="H1043" s="3"/>
       <c r="I1043" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J1043" s="3">
         <v>1.5</v>
@@ -85966,7 +85966,7 @@
       </c>
       <c r="H1044" s="3"/>
       <c r="I1044" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1044" s="3">
         <v>1.5</v>
@@ -86015,7 +86015,7 @@
       </c>
       <c r="H1045" s="3"/>
       <c r="I1045" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1045" s="3">
         <v>1.5</v>
@@ -86064,7 +86064,7 @@
       </c>
       <c r="H1046" s="3"/>
       <c r="I1046" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1046" s="3">
         <v>1.5</v>
@@ -86113,7 +86113,7 @@
       </c>
       <c r="H1047" s="3"/>
       <c r="I1047" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1047" s="3">
         <v>1.5</v>
@@ -86162,7 +86162,7 @@
       </c>
       <c r="H1048" s="3"/>
       <c r="I1048" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J1048" s="3">
         <v>1.5</v>
@@ -86211,7 +86211,7 @@
       </c>
       <c r="H1049" s="3"/>
       <c r="I1049" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1049" s="3">
         <v>1.5</v>
@@ -86260,7 +86260,7 @@
       </c>
       <c r="H1050" s="3"/>
       <c r="I1050" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1050" s="3">
         <v>1.5</v>
@@ -86309,7 +86309,7 @@
       </c>
       <c r="H1051" s="3"/>
       <c r="I1051" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1051" s="3">
         <v>1.5</v>
@@ -86358,7 +86358,7 @@
       </c>
       <c r="H1052" s="3"/>
       <c r="I1052" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1052" s="3">
         <v>1.5</v>
@@ -86407,7 +86407,7 @@
       </c>
       <c r="H1053" s="3"/>
       <c r="I1053" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J1053" s="3">
         <v>1.5</v>
@@ -86456,7 +86456,7 @@
       </c>
       <c r="H1054" s="3"/>
       <c r="I1054" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1054" s="3">
         <v>1.5</v>
@@ -86505,7 +86505,7 @@
       </c>
       <c r="H1055" s="3"/>
       <c r="I1055" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1055" s="3">
         <v>1.5</v>
@@ -86554,7 +86554,7 @@
       </c>
       <c r="H1056" s="3"/>
       <c r="I1056" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1056" s="3">
         <v>1.5</v>
@@ -86603,7 +86603,7 @@
       </c>
       <c r="H1057" s="3"/>
       <c r="I1057" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1057" s="3">
         <v>1.5</v>
@@ -86652,7 +86652,7 @@
       </c>
       <c r="H1058" s="3"/>
       <c r="I1058" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J1058" s="3">
         <v>1.5</v>
@@ -86701,7 +86701,7 @@
       </c>
       <c r="H1059" s="3"/>
       <c r="I1059" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1059" s="3">
         <v>1.5</v>
@@ -86750,7 +86750,7 @@
       </c>
       <c r="H1060" s="3"/>
       <c r="I1060" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1060" s="3">
         <v>1.5</v>
@@ -86799,7 +86799,7 @@
       </c>
       <c r="H1061" s="3"/>
       <c r="I1061" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1061" s="3">
         <v>1.5</v>
@@ -86848,7 +86848,7 @@
       </c>
       <c r="H1062" s="3"/>
       <c r="I1062" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1062" s="3">
         <v>1.5</v>
@@ -86897,7 +86897,7 @@
       </c>
       <c r="H1063" s="3"/>
       <c r="I1063" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J1063" s="3">
         <v>1.5</v>
@@ -86946,7 +86946,7 @@
       </c>
       <c r="H1064" s="3"/>
       <c r="I1064" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1064" s="3">
         <v>1.5</v>
@@ -86995,7 +86995,7 @@
       </c>
       <c r="H1065" s="3"/>
       <c r="I1065" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1065" s="3">
         <v>1.5</v>
@@ -87044,7 +87044,7 @@
       </c>
       <c r="H1066" s="3"/>
       <c r="I1066" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1066" s="3">
         <v>1.5</v>
@@ -87093,7 +87093,7 @@
       </c>
       <c r="H1067" s="3"/>
       <c r="I1067" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1067" s="3">
         <v>1.5</v>
@@ -87142,7 +87142,7 @@
       </c>
       <c r="H1068" s="3"/>
       <c r="I1068" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J1068" s="3">
         <v>1.5</v>
@@ -87191,7 +87191,7 @@
       </c>
       <c r="H1069" s="3"/>
       <c r="I1069" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1069" s="3">
         <v>1.5</v>
@@ -87240,7 +87240,7 @@
       </c>
       <c r="H1070" s="3"/>
       <c r="I1070" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1070" s="3">
         <v>1.5</v>
@@ -87289,7 +87289,7 @@
       </c>
       <c r="H1071" s="3"/>
       <c r="I1071" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1071" s="3">
         <v>1.5</v>
@@ -87338,7 +87338,7 @@
       </c>
       <c r="H1072" s="3"/>
       <c r="I1072" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1072" s="3">
         <v>1.5</v>
@@ -87387,7 +87387,7 @@
       </c>
       <c r="H1073" s="3"/>
       <c r="I1073" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J1073" s="3">
         <v>1.5</v>
@@ -87436,7 +87436,7 @@
       </c>
       <c r="H1074" s="3"/>
       <c r="I1074" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1074" s="3">
         <v>1.5</v>
@@ -87485,7 +87485,7 @@
       </c>
       <c r="H1075" s="3"/>
       <c r="I1075" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1075" s="3">
         <v>1.5</v>
@@ -87534,7 +87534,7 @@
       </c>
       <c r="H1076" s="3"/>
       <c r="I1076" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1076" s="3">
         <v>1.5</v>
@@ -87583,7 +87583,7 @@
       </c>
       <c r="H1077" s="3"/>
       <c r="I1077" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1077" s="3">
         <v>1.5</v>
@@ -87632,7 +87632,7 @@
       </c>
       <c r="H1078" s="3"/>
       <c r="I1078" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J1078" s="3">
         <v>1.5</v>
@@ -87681,7 +87681,7 @@
       </c>
       <c r="H1079" s="3"/>
       <c r="I1079" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1079" s="3">
         <v>1.5</v>
@@ -87730,7 +87730,7 @@
       </c>
       <c r="H1080" s="3"/>
       <c r="I1080" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1080" s="3">
         <v>1.5</v>
@@ -87779,7 +87779,7 @@
       </c>
       <c r="H1081" s="3"/>
       <c r="I1081" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1081" s="3">
         <v>1.5</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1082" s="3"/>
       <c r="I1082" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1082" s="3">
         <v>1.5</v>
@@ -87877,7 +87877,7 @@
       </c>
       <c r="H1083" s="3"/>
       <c r="I1083" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J1083" s="3">
         <v>1.5</v>
@@ -87926,7 +87926,7 @@
       </c>
       <c r="H1084" s="3"/>
       <c r="I1084" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1084" s="3">
         <v>1.5</v>
@@ -87975,7 +87975,7 @@
       </c>
       <c r="H1085" s="3"/>
       <c r="I1085" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1085" s="3">
         <v>1.5</v>
@@ -88024,7 +88024,7 @@
       </c>
       <c r="H1086" s="3"/>
       <c r="I1086" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1086" s="3">
         <v>1.5</v>
@@ -88073,7 +88073,7 @@
       </c>
       <c r="H1087" s="3"/>
       <c r="I1087" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1087" s="3">
         <v>1.5</v>
@@ -88122,7 +88122,7 @@
       </c>
       <c r="H1088" s="3"/>
       <c r="I1088" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J1088" s="3">
         <v>1.5</v>
@@ -88171,7 +88171,7 @@
       </c>
       <c r="H1089" s="3"/>
       <c r="I1089" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1089" s="3">
         <v>1.5</v>
@@ -88220,7 +88220,7 @@
       </c>
       <c r="H1090" s="3"/>
       <c r="I1090" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1090" s="3">
         <v>1.5</v>
@@ -88269,7 +88269,7 @@
       </c>
       <c r="H1091" s="3"/>
       <c r="I1091" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1091" s="3">
         <v>1.5</v>
@@ -88318,7 +88318,7 @@
       </c>
       <c r="H1092" s="3"/>
       <c r="I1092" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1092" s="3">
         <v>1.5</v>
@@ -88367,7 +88367,7 @@
       </c>
       <c r="H1093" s="3"/>
       <c r="I1093" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J1093" s="3">
         <v>1.5</v>
@@ -88416,7 +88416,7 @@
       </c>
       <c r="H1094" s="3"/>
       <c r="I1094" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1094" s="3">
         <v>1.5</v>
@@ -88465,7 +88465,7 @@
       </c>
       <c r="H1095" s="3"/>
       <c r="I1095" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1095" s="3">
         <v>1.5</v>
@@ -88514,7 +88514,7 @@
       </c>
       <c r="H1096" s="3"/>
       <c r="I1096" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1096" s="3">
         <v>1.5</v>
@@ -88563,7 +88563,7 @@
       </c>
       <c r="H1097" s="3"/>
       <c r="I1097" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1097" s="3">
         <v>1.5</v>
@@ -88612,7 +88612,7 @@
       </c>
       <c r="H1098" s="3"/>
       <c r="I1098" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J1098" s="3">
         <v>1.5</v>
@@ -88661,7 +88661,7 @@
       </c>
       <c r="H1099" s="3"/>
       <c r="I1099" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1099" s="3">
         <v>1.5</v>
@@ -88710,7 +88710,7 @@
       </c>
       <c r="H1100" s="3"/>
       <c r="I1100" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1100" s="3">
         <v>1.5</v>
@@ -88759,7 +88759,7 @@
       </c>
       <c r="H1101" s="3"/>
       <c r="I1101" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1101" s="3">
         <v>1.5</v>
@@ -88808,7 +88808,7 @@
       </c>
       <c r="H1102" s="3"/>
       <c r="I1102" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1102" s="3">
         <v>1.5</v>
@@ -88857,7 +88857,7 @@
       </c>
       <c r="H1103" s="3"/>
       <c r="I1103" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J1103" s="3">
         <v>1.5</v>
@@ -88906,7 +88906,7 @@
       </c>
       <c r="H1104" s="3"/>
       <c r="I1104" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1104" s="3">
         <v>1.5</v>
@@ -88955,7 +88955,7 @@
       </c>
       <c r="H1105" s="3"/>
       <c r="I1105" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1105" s="3">
         <v>1.5</v>
@@ -89004,7 +89004,7 @@
       </c>
       <c r="H1106" s="3"/>
       <c r="I1106" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1106" s="3">
         <v>1.5</v>
@@ -89053,7 +89053,7 @@
       </c>
       <c r="H1107" s="3"/>
       <c r="I1107" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1107" s="3">
         <v>1.5</v>
@@ -89102,7 +89102,7 @@
       </c>
       <c r="H1108" s="3"/>
       <c r="I1108" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J1108" s="3">
         <v>1.5</v>
@@ -89151,7 +89151,7 @@
       </c>
       <c r="H1109" s="3"/>
       <c r="I1109" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1109" s="3">
         <v>1.5</v>
@@ -89200,7 +89200,7 @@
       </c>
       <c r="H1110" s="3"/>
       <c r="I1110" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1110" s="3">
         <v>1.5</v>
@@ -89249,7 +89249,7 @@
       </c>
       <c r="H1111" s="3"/>
       <c r="I1111" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1111" s="3">
         <v>1.5</v>
@@ -89298,7 +89298,7 @@
       </c>
       <c r="H1112" s="3"/>
       <c r="I1112" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1112" s="3">
         <v>1.5</v>
@@ -89347,7 +89347,7 @@
       </c>
       <c r="H1113" s="3"/>
       <c r="I1113" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J1113" s="3">
         <v>1.5</v>
@@ -89396,7 +89396,7 @@
       </c>
       <c r="H1114" s="3"/>
       <c r="I1114" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J1114" s="3">
         <v>1.5</v>
@@ -89445,7 +89445,7 @@
       </c>
       <c r="H1115" s="3"/>
       <c r="I1115" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J1115" s="3">
         <v>1.5</v>
@@ -89494,7 +89494,7 @@
       </c>
       <c r="H1116" s="3"/>
       <c r="I1116" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J1116" s="3">
         <v>1.5</v>
@@ -89543,7 +89543,7 @@
       </c>
       <c r="H1117" s="3"/>
       <c r="I1117" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1117" s="3">
         <v>1.5</v>
@@ -89592,7 +89592,7 @@
       </c>
       <c r="H1118" s="3"/>
       <c r="I1118" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J1118" s="3">
         <v>1.5</v>

--- a/Excel/chapter.章节关卡.xlsx
+++ b/Excel/chapter.章节关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4AEB00-0F94-4306-92DA-344EA057FD4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7EF53E-1610-4BC9-8AA2-B5655F2D0829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7693" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7918" uniqueCount="386">
   <si>
     <t>sheet名</t>
   </si>
@@ -2816,11 +2816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G109" sqref="G109"/>
+      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13192,13 +13192,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C715384-82AE-4464-8E42-9CC70002C1E4}">
-  <dimension ref="A1:AC1158"/>
+  <dimension ref="A1:AC1233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F994" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L1113" sqref="L1113"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:A1233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -84241,6 +84241,7 @@
         <v>6</v>
       </c>
       <c r="E1009" s="3">
+        <f>E1004+6</f>
         <v>7</v>
       </c>
       <c r="F1009" s="3">
@@ -84290,6 +84291,7 @@
         <v>7</v>
       </c>
       <c r="E1010" s="3">
+        <f t="shared" ref="E1010:E1073" si="17">E1005+6</f>
         <v>8</v>
       </c>
       <c r="F1010" s="3">
@@ -84339,6 +84341,7 @@
         <v>8</v>
       </c>
       <c r="E1011" s="3">
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="F1011" s="3">
@@ -84388,6 +84391,7 @@
         <v>9</v>
       </c>
       <c r="E1012" s="3">
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="F1012" s="3">
@@ -84437,6 +84441,7 @@
         <v>10</v>
       </c>
       <c r="E1013" s="3">
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="F1013" s="3">
@@ -84486,6 +84491,7 @@
         <v>11</v>
       </c>
       <c r="E1014" s="3">
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="F1014" s="3">
@@ -84535,6 +84541,7 @@
         <v>12</v>
       </c>
       <c r="E1015" s="3">
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="F1015" s="3">
@@ -84584,6 +84591,7 @@
         <v>13</v>
       </c>
       <c r="E1016" s="3">
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="F1016" s="3">
@@ -84633,6 +84641,7 @@
         <v>14</v>
       </c>
       <c r="E1017" s="3">
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="F1017" s="3">
@@ -84682,6 +84691,7 @@
         <v>15</v>
       </c>
       <c r="E1018" s="3">
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="F1018" s="3">
@@ -84731,6 +84741,7 @@
         <v>16</v>
       </c>
       <c r="E1019" s="3">
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="F1019" s="3">
@@ -84780,6 +84791,7 @@
         <v>17</v>
       </c>
       <c r="E1020" s="3">
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="F1020" s="3">
@@ -84829,6 +84841,7 @@
         <v>18</v>
       </c>
       <c r="E1021" s="3">
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="F1021" s="3">
@@ -84878,6 +84891,7 @@
         <v>19</v>
       </c>
       <c r="E1022" s="3">
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="F1022" s="3">
@@ -84927,6 +84941,7 @@
         <v>20</v>
       </c>
       <c r="E1023" s="3">
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="F1023" s="3">
@@ -84976,6 +84991,7 @@
         <v>21</v>
       </c>
       <c r="E1024" s="3">
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="F1024" s="3">
@@ -85025,6 +85041,7 @@
         <v>22</v>
       </c>
       <c r="E1025" s="3">
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="F1025" s="3">
@@ -85074,6 +85091,7 @@
         <v>23</v>
       </c>
       <c r="E1026" s="3">
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="F1026" s="3">
@@ -85123,6 +85141,7 @@
         <v>24</v>
       </c>
       <c r="E1027" s="3">
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="F1027" s="3">
@@ -85172,6 +85191,7 @@
         <v>25</v>
       </c>
       <c r="E1028" s="3">
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="F1028" s="3">
@@ -85221,6 +85241,7 @@
         <v>26</v>
       </c>
       <c r="E1029" s="3">
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="F1029" s="3">
@@ -85270,6 +85291,7 @@
         <v>27</v>
       </c>
       <c r="E1030" s="3">
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="F1030" s="3">
@@ -85319,6 +85341,7 @@
         <v>28</v>
       </c>
       <c r="E1031" s="3">
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="F1031" s="3">
@@ -85368,6 +85391,7 @@
         <v>29</v>
       </c>
       <c r="E1032" s="3">
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="F1032" s="3">
@@ -85417,6 +85441,7 @@
         <v>30</v>
       </c>
       <c r="E1033" s="3">
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="F1033" s="3">
@@ -85466,6 +85491,7 @@
         <v>31</v>
       </c>
       <c r="E1034" s="3">
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="F1034" s="3">
@@ -85515,6 +85541,7 @@
         <v>32</v>
       </c>
       <c r="E1035" s="3">
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="F1035" s="3">
@@ -85564,6 +85591,7 @@
         <v>33</v>
       </c>
       <c r="E1036" s="3">
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="F1036" s="3">
@@ -85613,6 +85641,7 @@
         <v>34</v>
       </c>
       <c r="E1037" s="3">
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="F1037" s="3">
@@ -85662,6 +85691,7 @@
         <v>35</v>
       </c>
       <c r="E1038" s="3">
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="F1038" s="3">
@@ -85711,6 +85741,7 @@
         <v>36</v>
       </c>
       <c r="E1039" s="3">
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="F1039" s="3">
@@ -85760,6 +85791,7 @@
         <v>37</v>
       </c>
       <c r="E1040" s="3">
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="F1040" s="3">
@@ -85809,6 +85841,7 @@
         <v>38</v>
       </c>
       <c r="E1041" s="3">
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="F1041" s="3">
@@ -85858,6 +85891,7 @@
         <v>39</v>
       </c>
       <c r="E1042" s="3">
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="F1042" s="3">
@@ -85907,6 +85941,7 @@
         <v>40</v>
       </c>
       <c r="E1043" s="3">
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="F1043" s="3">
@@ -85956,6 +85991,7 @@
         <v>41</v>
       </c>
       <c r="E1044" s="3">
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="F1044" s="3">
@@ -86005,6 +86041,7 @@
         <v>42</v>
       </c>
       <c r="E1045" s="3">
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="F1045" s="3">
@@ -86054,6 +86091,7 @@
         <v>43</v>
       </c>
       <c r="E1046" s="3">
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="F1046" s="3">
@@ -86103,6 +86141,7 @@
         <v>44</v>
       </c>
       <c r="E1047" s="3">
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
       <c r="F1047" s="3">
@@ -86152,6 +86191,7 @@
         <v>45</v>
       </c>
       <c r="E1048" s="3">
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="F1048" s="3">
@@ -86201,6 +86241,7 @@
         <v>46</v>
       </c>
       <c r="E1049" s="3">
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="F1049" s="3">
@@ -86250,6 +86291,7 @@
         <v>47</v>
       </c>
       <c r="E1050" s="3">
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="F1050" s="3">
@@ -86299,6 +86341,7 @@
         <v>48</v>
       </c>
       <c r="E1051" s="3">
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="F1051" s="3">
@@ -86348,6 +86391,7 @@
         <v>49</v>
       </c>
       <c r="E1052" s="3">
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="F1052" s="3">
@@ -86397,6 +86441,7 @@
         <v>50</v>
       </c>
       <c r="E1053" s="3">
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="F1053" s="3">
@@ -86446,6 +86491,7 @@
         <v>51</v>
       </c>
       <c r="E1054" s="3">
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="F1054" s="3">
@@ -86495,6 +86541,7 @@
         <v>52</v>
       </c>
       <c r="E1055" s="3">
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
       <c r="F1055" s="3">
@@ -86544,6 +86591,7 @@
         <v>53</v>
       </c>
       <c r="E1056" s="3">
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="F1056" s="3">
@@ -86593,6 +86641,7 @@
         <v>54</v>
       </c>
       <c r="E1057" s="3">
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F1057" s="3">
@@ -86642,6 +86691,7 @@
         <v>55</v>
       </c>
       <c r="E1058" s="3">
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="F1058" s="3">
@@ -86691,6 +86741,7 @@
         <v>56</v>
       </c>
       <c r="E1059" s="3">
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="F1059" s="3">
@@ -86740,6 +86791,7 @@
         <v>57</v>
       </c>
       <c r="E1060" s="3">
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="F1060" s="3">
@@ -86789,6 +86841,7 @@
         <v>58</v>
       </c>
       <c r="E1061" s="3">
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="F1061" s="3">
@@ -86838,6 +86891,7 @@
         <v>59</v>
       </c>
       <c r="E1062" s="3">
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="F1062" s="3">
@@ -86887,6 +86941,7 @@
         <v>60</v>
       </c>
       <c r="E1063" s="3">
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="F1063" s="3">
@@ -86936,6 +86991,7 @@
         <v>61</v>
       </c>
       <c r="E1064" s="3">
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="F1064" s="3">
@@ -86985,6 +87041,7 @@
         <v>62</v>
       </c>
       <c r="E1065" s="3">
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="F1065" s="3">
@@ -87034,6 +87091,7 @@
         <v>63</v>
       </c>
       <c r="E1066" s="3">
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="F1066" s="3">
@@ -87083,6 +87141,7 @@
         <v>64</v>
       </c>
       <c r="E1067" s="3">
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="F1067" s="3">
@@ -87132,6 +87191,7 @@
         <v>65</v>
       </c>
       <c r="E1068" s="3">
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
       <c r="F1068" s="3">
@@ -87181,6 +87241,7 @@
         <v>66</v>
       </c>
       <c r="E1069" s="3">
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
       <c r="F1069" s="3">
@@ -87230,6 +87291,7 @@
         <v>67</v>
       </c>
       <c r="E1070" s="3">
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
       <c r="F1070" s="3">
@@ -87279,6 +87341,7 @@
         <v>68</v>
       </c>
       <c r="E1071" s="3">
+        <f t="shared" si="17"/>
         <v>82</v>
       </c>
       <c r="F1071" s="3">
@@ -87328,6 +87391,7 @@
         <v>69</v>
       </c>
       <c r="E1072" s="3">
+        <f t="shared" si="17"/>
         <v>83</v>
       </c>
       <c r="F1072" s="3">
@@ -87377,6 +87441,7 @@
         <v>70</v>
       </c>
       <c r="E1073" s="3">
+        <f t="shared" si="17"/>
         <v>84</v>
       </c>
       <c r="F1073" s="3">
@@ -87426,6 +87491,7 @@
         <v>71</v>
       </c>
       <c r="E1074" s="3">
+        <f t="shared" ref="E1074:E1137" si="18">E1069+6</f>
         <v>85</v>
       </c>
       <c r="F1074" s="3">
@@ -87475,6 +87541,7 @@
         <v>72</v>
       </c>
       <c r="E1075" s="3">
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="F1075" s="3">
@@ -87524,6 +87591,7 @@
         <v>73</v>
       </c>
       <c r="E1076" s="3">
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="F1076" s="3">
@@ -87573,6 +87641,7 @@
         <v>74</v>
       </c>
       <c r="E1077" s="3">
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="F1077" s="3">
@@ -87622,6 +87691,7 @@
         <v>75</v>
       </c>
       <c r="E1078" s="3">
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="F1078" s="3">
@@ -87671,6 +87741,7 @@
         <v>76</v>
       </c>
       <c r="E1079" s="3">
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="F1079" s="3">
@@ -87720,6 +87791,7 @@
         <v>77</v>
       </c>
       <c r="E1080" s="3">
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="F1080" s="3">
@@ -87769,6 +87841,7 @@
         <v>78</v>
       </c>
       <c r="E1081" s="3">
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="F1081" s="3">
@@ -87818,6 +87891,7 @@
         <v>79</v>
       </c>
       <c r="E1082" s="3">
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="F1082" s="3">
@@ -87867,6 +87941,7 @@
         <v>80</v>
       </c>
       <c r="E1083" s="3">
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="F1083" s="3">
@@ -87916,6 +87991,7 @@
         <v>81</v>
       </c>
       <c r="E1084" s="3">
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="F1084" s="3">
@@ -87965,6 +88041,7 @@
         <v>82</v>
       </c>
       <c r="E1085" s="3">
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="F1085" s="3">
@@ -88014,6 +88091,7 @@
         <v>83</v>
       </c>
       <c r="E1086" s="3">
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F1086" s="3">
@@ -88063,6 +88141,7 @@
         <v>84</v>
       </c>
       <c r="E1087" s="3">
+        <f t="shared" si="18"/>
         <v>101</v>
       </c>
       <c r="F1087" s="3">
@@ -88112,6 +88191,7 @@
         <v>85</v>
       </c>
       <c r="E1088" s="3">
+        <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="F1088" s="3">
@@ -88161,6 +88241,7 @@
         <v>86</v>
       </c>
       <c r="E1089" s="3">
+        <f t="shared" si="18"/>
         <v>103</v>
       </c>
       <c r="F1089" s="3">
@@ -88210,6 +88291,7 @@
         <v>87</v>
       </c>
       <c r="E1090" s="3">
+        <f t="shared" si="18"/>
         <v>104</v>
       </c>
       <c r="F1090" s="3">
@@ -88259,6 +88341,7 @@
         <v>88</v>
       </c>
       <c r="E1091" s="3">
+        <f t="shared" si="18"/>
         <v>106</v>
       </c>
       <c r="F1091" s="3">
@@ -88308,6 +88391,7 @@
         <v>89</v>
       </c>
       <c r="E1092" s="3">
+        <f t="shared" si="18"/>
         <v>107</v>
       </c>
       <c r="F1092" s="3">
@@ -88357,6 +88441,7 @@
         <v>90</v>
       </c>
       <c r="E1093" s="3">
+        <f t="shared" si="18"/>
         <v>108</v>
       </c>
       <c r="F1093" s="3">
@@ -88406,6 +88491,7 @@
         <v>91</v>
       </c>
       <c r="E1094" s="3">
+        <f t="shared" si="18"/>
         <v>109</v>
       </c>
       <c r="F1094" s="3">
@@ -88455,6 +88541,7 @@
         <v>92</v>
       </c>
       <c r="E1095" s="3">
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="F1095" s="3">
@@ -88504,6 +88591,7 @@
         <v>93</v>
       </c>
       <c r="E1096" s="3">
+        <f t="shared" si="18"/>
         <v>112</v>
       </c>
       <c r="F1096" s="3">
@@ -88553,6 +88641,7 @@
         <v>94</v>
       </c>
       <c r="E1097" s="3">
+        <f t="shared" si="18"/>
         <v>113</v>
       </c>
       <c r="F1097" s="3">
@@ -88602,6 +88691,7 @@
         <v>95</v>
       </c>
       <c r="E1098" s="3">
+        <f t="shared" si="18"/>
         <v>114</v>
       </c>
       <c r="F1098" s="3">
@@ -88651,6 +88741,7 @@
         <v>96</v>
       </c>
       <c r="E1099" s="3">
+        <f t="shared" si="18"/>
         <v>115</v>
       </c>
       <c r="F1099" s="3">
@@ -88700,6 +88791,7 @@
         <v>97</v>
       </c>
       <c r="E1100" s="3">
+        <f t="shared" si="18"/>
         <v>116</v>
       </c>
       <c r="F1100" s="3">
@@ -88749,6 +88841,7 @@
         <v>98</v>
       </c>
       <c r="E1101" s="3">
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
       <c r="F1101" s="3">
@@ -88798,6 +88891,7 @@
         <v>99</v>
       </c>
       <c r="E1102" s="3">
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
       <c r="F1102" s="3">
@@ -88847,6 +88941,7 @@
         <v>100</v>
       </c>
       <c r="E1103" s="3">
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="F1103" s="3">
@@ -88896,6 +88991,7 @@
         <v>101</v>
       </c>
       <c r="E1104" s="3">
+        <f t="shared" si="18"/>
         <v>121</v>
       </c>
       <c r="F1104" s="3">
@@ -88945,6 +89041,7 @@
         <v>102</v>
       </c>
       <c r="E1105" s="3">
+        <f t="shared" si="18"/>
         <v>122</v>
       </c>
       <c r="F1105" s="3">
@@ -88994,6 +89091,7 @@
         <v>103</v>
       </c>
       <c r="E1106" s="3">
+        <f t="shared" si="18"/>
         <v>124</v>
       </c>
       <c r="F1106" s="3">
@@ -89043,6 +89141,7 @@
         <v>104</v>
       </c>
       <c r="E1107" s="3">
+        <f t="shared" si="18"/>
         <v>125</v>
       </c>
       <c r="F1107" s="3">
@@ -89092,6 +89191,7 @@
         <v>105</v>
       </c>
       <c r="E1108" s="3">
+        <f t="shared" si="18"/>
         <v>126</v>
       </c>
       <c r="F1108" s="3">
@@ -89141,6 +89241,7 @@
         <v>106</v>
       </c>
       <c r="E1109" s="3">
+        <f t="shared" si="18"/>
         <v>127</v>
       </c>
       <c r="F1109" s="3">
@@ -89190,6 +89291,7 @@
         <v>107</v>
       </c>
       <c r="E1110" s="3">
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
       <c r="F1110" s="3">
@@ -89239,6 +89341,7 @@
         <v>108</v>
       </c>
       <c r="E1111" s="3">
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="F1111" s="3">
@@ -89288,6 +89391,7 @@
         <v>109</v>
       </c>
       <c r="E1112" s="3">
+        <f t="shared" si="18"/>
         <v>131</v>
       </c>
       <c r="F1112" s="3">
@@ -89337,6 +89441,7 @@
         <v>110</v>
       </c>
       <c r="E1113" s="3">
+        <f t="shared" si="18"/>
         <v>132</v>
       </c>
       <c r="F1113" s="3">
@@ -89386,6 +89491,7 @@
         <v>111</v>
       </c>
       <c r="E1114" s="3">
+        <f t="shared" si="18"/>
         <v>133</v>
       </c>
       <c r="F1114" s="3">
@@ -89435,6 +89541,7 @@
         <v>112</v>
       </c>
       <c r="E1115" s="3">
+        <f t="shared" si="18"/>
         <v>134</v>
       </c>
       <c r="F1115" s="3">
@@ -89484,6 +89591,7 @@
         <v>113</v>
       </c>
       <c r="E1116" s="3">
+        <f t="shared" si="18"/>
         <v>136</v>
       </c>
       <c r="F1116" s="3">
@@ -89533,6 +89641,7 @@
         <v>114</v>
       </c>
       <c r="E1117" s="3">
+        <f t="shared" si="18"/>
         <v>137</v>
       </c>
       <c r="F1117" s="3">
@@ -89582,6 +89691,7 @@
         <v>115</v>
       </c>
       <c r="E1118" s="3">
+        <f t="shared" si="18"/>
         <v>138</v>
       </c>
       <c r="F1118" s="3">
@@ -89621,17 +89731,18 @@
       <c r="A1119" s="3">
         <v>1116</v>
       </c>
-      <c r="B1119" s="4" t="s">
-        <v>331</v>
+      <c r="B1119" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1119" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1119" s="3">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E1119" s="3">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>139</v>
       </c>
       <c r="F1119" s="3">
         <v>1</v>
@@ -89641,29 +89752,17 @@
       </c>
       <c r="H1119" s="3"/>
       <c r="I1119" s="4" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="J1119" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1119" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1119" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1119" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1119" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1119" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1119" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1119" s="3"/>
+      <c r="L1119" s="3"/>
+      <c r="M1119" s="3"/>
+      <c r="N1119" s="3"/>
+      <c r="O1119" s="3"/>
+      <c r="P1119" s="3"/>
       <c r="Q1119" s="3"/>
       <c r="R1119" s="3"/>
       <c r="S1119" s="3"/>
@@ -89683,16 +89782,17 @@
         <v>1117</v>
       </c>
       <c r="B1120" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1120" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1120" s="3">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="E1120" s="3">
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>140</v>
       </c>
       <c r="F1120" s="3">
         <v>1</v>
@@ -89702,29 +89802,17 @@
       </c>
       <c r="H1120" s="3"/>
       <c r="I1120" s="4" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="J1120" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1120" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1120" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1120" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1120" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1120" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1120" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1120" s="3"/>
+      <c r="L1120" s="3"/>
+      <c r="M1120" s="3"/>
+      <c r="N1120" s="3"/>
+      <c r="O1120" s="3"/>
+      <c r="P1120" s="3"/>
       <c r="Q1120" s="3"/>
       <c r="R1120" s="3"/>
       <c r="S1120" s="3"/>
@@ -89744,16 +89832,17 @@
         <v>1118</v>
       </c>
       <c r="B1121" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1121" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1121" s="3">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E1121" s="3">
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>142</v>
       </c>
       <c r="F1121" s="3">
         <v>1</v>
@@ -89763,29 +89852,17 @@
       </c>
       <c r="H1121" s="3"/>
       <c r="I1121" s="4" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="J1121" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1121" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1121" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1121" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1121" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1121" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1121" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1121" s="3"/>
+      <c r="L1121" s="3"/>
+      <c r="M1121" s="3"/>
+      <c r="N1121" s="3"/>
+      <c r="O1121" s="3"/>
+      <c r="P1121" s="3"/>
       <c r="Q1121" s="3"/>
       <c r="R1121" s="3"/>
       <c r="S1121" s="3"/>
@@ -89805,16 +89882,17 @@
         <v>1119</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1122" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1122" s="3">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="E1122" s="3">
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>143</v>
       </c>
       <c r="F1122" s="3">
         <v>1</v>
@@ -89824,29 +89902,17 @@
       </c>
       <c r="H1122" s="3"/>
       <c r="I1122" s="4" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="J1122" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1122" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1122" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1122" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1122" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1122" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1122" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1122" s="3"/>
+      <c r="L1122" s="3"/>
+      <c r="M1122" s="3"/>
+      <c r="N1122" s="3"/>
+      <c r="O1122" s="3"/>
+      <c r="P1122" s="3"/>
       <c r="Q1122" s="3"/>
       <c r="R1122" s="3"/>
       <c r="S1122" s="3"/>
@@ -89866,16 +89932,17 @@
         <v>1120</v>
       </c>
       <c r="B1123" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1123" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1123" s="3">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E1123" s="3">
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
       <c r="F1123" s="3">
         <v>1</v>
@@ -89884,30 +89951,18 @@
         <v>1</v>
       </c>
       <c r="H1123" s="3"/>
-      <c r="I1123" s="4" t="s">
-        <v>340</v>
+      <c r="I1123" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="J1123" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1123" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1123" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1123" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1123" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1123" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1123" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1123" s="3"/>
+      <c r="L1123" s="3"/>
+      <c r="M1123" s="3"/>
+      <c r="N1123" s="3"/>
+      <c r="O1123" s="3"/>
+      <c r="P1123" s="3"/>
       <c r="Q1123" s="3"/>
       <c r="R1123" s="3"/>
       <c r="S1123" s="3"/>
@@ -89927,16 +89982,17 @@
         <v>1121</v>
       </c>
       <c r="B1124" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1124" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1124" s="3">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E1124" s="3">
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>145</v>
       </c>
       <c r="F1124" s="3">
         <v>1</v>
@@ -89945,30 +90001,18 @@
         <v>1</v>
       </c>
       <c r="H1124" s="3"/>
-      <c r="I1124" s="4" t="s">
-        <v>340</v>
+      <c r="I1124" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="J1124" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1124" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1124" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1124" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1124" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1124" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1124" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1124" s="3"/>
+      <c r="L1124" s="3"/>
+      <c r="M1124" s="3"/>
+      <c r="N1124" s="3"/>
+      <c r="O1124" s="3"/>
+      <c r="P1124" s="3"/>
       <c r="Q1124" s="3"/>
       <c r="R1124" s="3"/>
       <c r="S1124" s="3"/>
@@ -89988,16 +90032,17 @@
         <v>1122</v>
       </c>
       <c r="B1125" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1125" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1125" s="3">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="E1125" s="3">
-        <v>7</v>
+        <f t="shared" si="18"/>
+        <v>146</v>
       </c>
       <c r="F1125" s="3">
         <v>1</v>
@@ -90006,30 +90051,18 @@
         <v>1</v>
       </c>
       <c r="H1125" s="3"/>
-      <c r="I1125" s="4" t="s">
-        <v>340</v>
+      <c r="I1125" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="J1125" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1125" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1125" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1125" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1125" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1125" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1125" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1125" s="3"/>
+      <c r="L1125" s="3"/>
+      <c r="M1125" s="3"/>
+      <c r="N1125" s="3"/>
+      <c r="O1125" s="3"/>
+      <c r="P1125" s="3"/>
       <c r="Q1125" s="3"/>
       <c r="R1125" s="3"/>
       <c r="S1125" s="3"/>
@@ -90049,16 +90082,17 @@
         <v>1123</v>
       </c>
       <c r="B1126" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C1126" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1126" s="3">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E1126" s="3">
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>148</v>
       </c>
       <c r="F1126" s="3">
         <v>1</v>
@@ -90067,30 +90101,18 @@
         <v>1</v>
       </c>
       <c r="H1126" s="3"/>
-      <c r="I1126" s="4" t="s">
-        <v>340</v>
+      <c r="I1126" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="J1126" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1126" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L1126" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1126" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1126" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1126" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1126" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1126" s="3"/>
+      <c r="L1126" s="3"/>
+      <c r="M1126" s="3"/>
+      <c r="N1126" s="3"/>
+      <c r="O1126" s="3"/>
+      <c r="P1126" s="3"/>
       <c r="Q1126" s="3"/>
       <c r="R1126" s="3"/>
       <c r="S1126" s="3"/>
@@ -90109,17 +90131,18 @@
       <c r="A1127" s="3">
         <v>1124</v>
       </c>
-      <c r="B1127" s="4" t="s">
-        <v>333</v>
+      <c r="B1127" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1127" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1127" s="3">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E1127" s="3">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>149</v>
       </c>
       <c r="F1127" s="3">
         <v>1</v>
@@ -90129,29 +90152,17 @@
       </c>
       <c r="H1127" s="3"/>
       <c r="I1127" s="3" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J1127" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1127" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1127" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1127" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1127" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1127" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1127" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1127" s="3"/>
+      <c r="L1127" s="3"/>
+      <c r="M1127" s="3"/>
+      <c r="N1127" s="3"/>
+      <c r="O1127" s="3"/>
+      <c r="P1127" s="3"/>
       <c r="Q1127" s="3"/>
       <c r="R1127" s="3"/>
       <c r="S1127" s="3"/>
@@ -90170,17 +90181,18 @@
       <c r="A1128" s="3">
         <v>1125</v>
       </c>
-      <c r="B1128" s="4" t="s">
-        <v>333</v>
+      <c r="B1128" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1128" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1128" s="3">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="E1128" s="3">
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>150</v>
       </c>
       <c r="F1128" s="3">
         <v>1</v>
@@ -90189,30 +90201,18 @@
         <v>1</v>
       </c>
       <c r="H1128" s="3"/>
-      <c r="I1128" s="3" t="s">
-        <v>346</v>
+      <c r="I1128" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="J1128" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1128" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1128" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1128" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1128" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1128" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1128" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1128" s="3"/>
+      <c r="L1128" s="3"/>
+      <c r="M1128" s="3"/>
+      <c r="N1128" s="3"/>
+      <c r="O1128" s="3"/>
+      <c r="P1128" s="3"/>
       <c r="Q1128" s="3"/>
       <c r="R1128" s="3"/>
       <c r="S1128" s="3"/>
@@ -90231,17 +90231,18 @@
       <c r="A1129" s="3">
         <v>1126</v>
       </c>
-      <c r="B1129" s="4" t="s">
-        <v>333</v>
+      <c r="B1129" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1129" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1129" s="3">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E1129" s="3">
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>151</v>
       </c>
       <c r="F1129" s="3">
         <v>1</v>
@@ -90251,29 +90252,17 @@
       </c>
       <c r="H1129" s="3"/>
       <c r="I1129" s="3" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="J1129" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1129" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1129" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1129" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1129" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1129" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1129" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1129" s="3"/>
+      <c r="L1129" s="3"/>
+      <c r="M1129" s="3"/>
+      <c r="N1129" s="3"/>
+      <c r="O1129" s="3"/>
+      <c r="P1129" s="3"/>
       <c r="Q1129" s="3"/>
       <c r="R1129" s="3"/>
       <c r="S1129" s="3"/>
@@ -90292,17 +90281,18 @@
       <c r="A1130" s="3">
         <v>1127</v>
       </c>
-      <c r="B1130" s="4" t="s">
-        <v>333</v>
+      <c r="B1130" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1130" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1130" s="3">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="E1130" s="3">
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>152</v>
       </c>
       <c r="F1130" s="3">
         <v>1</v>
@@ -90312,29 +90302,17 @@
       </c>
       <c r="H1130" s="3"/>
       <c r="I1130" s="3" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="J1130" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1130" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1130" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1130" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1130" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1130" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1130" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1130" s="3"/>
+      <c r="L1130" s="3"/>
+      <c r="M1130" s="3"/>
+      <c r="N1130" s="3"/>
+      <c r="O1130" s="3"/>
+      <c r="P1130" s="3"/>
       <c r="Q1130" s="3"/>
       <c r="R1130" s="3"/>
       <c r="S1130" s="3"/>
@@ -90353,17 +90331,18 @@
       <c r="A1131" s="3">
         <v>1128</v>
       </c>
-      <c r="B1131" s="4" t="s">
-        <v>333</v>
+      <c r="B1131" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1131" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1131" s="3">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E1131" s="3">
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>154</v>
       </c>
       <c r="F1131" s="3">
         <v>1</v>
@@ -90373,29 +90352,17 @@
       </c>
       <c r="H1131" s="3"/>
       <c r="I1131" s="3" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="J1131" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1131" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1131" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1131" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1131" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1131" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1131" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1131" s="3"/>
+      <c r="L1131" s="3"/>
+      <c r="M1131" s="3"/>
+      <c r="N1131" s="3"/>
+      <c r="O1131" s="3"/>
+      <c r="P1131" s="3"/>
       <c r="Q1131" s="3"/>
       <c r="R1131" s="3"/>
       <c r="S1131" s="3"/>
@@ -90414,17 +90381,18 @@
       <c r="A1132" s="3">
         <v>1129</v>
       </c>
-      <c r="B1132" s="4" t="s">
-        <v>333</v>
+      <c r="B1132" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1132" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1132" s="3">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="E1132" s="3">
-        <v>6</v>
+        <f t="shared" si="18"/>
+        <v>155</v>
       </c>
       <c r="F1132" s="3">
         <v>1</v>
@@ -90434,29 +90402,17 @@
       </c>
       <c r="H1132" s="3"/>
       <c r="I1132" s="3" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J1132" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1132" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1132" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1132" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1132" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1132" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1132" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1132" s="3"/>
+      <c r="L1132" s="3"/>
+      <c r="M1132" s="3"/>
+      <c r="N1132" s="3"/>
+      <c r="O1132" s="3"/>
+      <c r="P1132" s="3"/>
       <c r="Q1132" s="3"/>
       <c r="R1132" s="3"/>
       <c r="S1132" s="3"/>
@@ -90475,17 +90431,18 @@
       <c r="A1133" s="3">
         <v>1130</v>
       </c>
-      <c r="B1133" s="4" t="s">
-        <v>333</v>
+      <c r="B1133" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1133" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1133" s="3">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E1133" s="3">
-        <v>7</v>
+        <f t="shared" si="18"/>
+        <v>156</v>
       </c>
       <c r="F1133" s="3">
         <v>1</v>
@@ -90494,30 +90451,18 @@
         <v>1</v>
       </c>
       <c r="H1133" s="3"/>
-      <c r="I1133" s="3" t="s">
-        <v>346</v>
+      <c r="I1133" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="J1133" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1133" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1133" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1133" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1133" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1133" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1133" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1133" s="3"/>
+      <c r="L1133" s="3"/>
+      <c r="M1133" s="3"/>
+      <c r="N1133" s="3"/>
+      <c r="O1133" s="3"/>
+      <c r="P1133" s="3"/>
       <c r="Q1133" s="3"/>
       <c r="R1133" s="3"/>
       <c r="S1133" s="3"/>
@@ -90536,17 +90481,18 @@
       <c r="A1134" s="3">
         <v>1131</v>
       </c>
-      <c r="B1134" s="4" t="s">
-        <v>333</v>
+      <c r="B1134" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1134" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1134" s="3">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E1134" s="3">
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>157</v>
       </c>
       <c r="F1134" s="3">
         <v>1</v>
@@ -90556,29 +90502,17 @@
       </c>
       <c r="H1134" s="3"/>
       <c r="I1134" s="3" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="J1134" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1134" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1134" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1134" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1134" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1134" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1134" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1134" s="3"/>
+      <c r="L1134" s="3"/>
+      <c r="M1134" s="3"/>
+      <c r="N1134" s="3"/>
+      <c r="O1134" s="3"/>
+      <c r="P1134" s="3"/>
       <c r="Q1134" s="3"/>
       <c r="R1134" s="3"/>
       <c r="S1134" s="3"/>
@@ -90597,17 +90531,18 @@
       <c r="A1135" s="3">
         <v>1132</v>
       </c>
-      <c r="B1135" s="4" t="s">
-        <v>335</v>
+      <c r="B1135" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1135" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1135" s="3">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E1135" s="3">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>158</v>
       </c>
       <c r="F1135" s="3">
         <v>1</v>
@@ -90617,29 +90552,17 @@
       </c>
       <c r="H1135" s="3"/>
       <c r="I1135" s="3" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="J1135" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1135" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1135" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1135" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1135" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1135" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1135" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1135" s="3"/>
+      <c r="L1135" s="3"/>
+      <c r="M1135" s="3"/>
+      <c r="N1135" s="3"/>
+      <c r="O1135" s="3"/>
+      <c r="P1135" s="3"/>
       <c r="Q1135" s="3"/>
       <c r="R1135" s="3"/>
       <c r="S1135" s="3"/>
@@ -90658,17 +90581,18 @@
       <c r="A1136" s="3">
         <v>1133</v>
       </c>
-      <c r="B1136" s="4" t="s">
-        <v>335</v>
+      <c r="B1136" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1136" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1136" s="3">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="E1136" s="3">
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>160</v>
       </c>
       <c r="F1136" s="3">
         <v>1</v>
@@ -90678,29 +90602,17 @@
       </c>
       <c r="H1136" s="3"/>
       <c r="I1136" s="3" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="J1136" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1136" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1136" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1136" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1136" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1136" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1136" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1136" s="3"/>
+      <c r="L1136" s="3"/>
+      <c r="M1136" s="3"/>
+      <c r="N1136" s="3"/>
+      <c r="O1136" s="3"/>
+      <c r="P1136" s="3"/>
       <c r="Q1136" s="3"/>
       <c r="R1136" s="3"/>
       <c r="S1136" s="3"/>
@@ -90719,17 +90631,18 @@
       <c r="A1137" s="3">
         <v>1134</v>
       </c>
-      <c r="B1137" s="4" t="s">
-        <v>335</v>
+      <c r="B1137" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1137" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1137" s="3">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="E1137" s="3">
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>161</v>
       </c>
       <c r="F1137" s="3">
         <v>1</v>
@@ -90739,29 +90652,17 @@
       </c>
       <c r="H1137" s="3"/>
       <c r="I1137" s="3" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="J1137" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1137" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1137" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1137" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1137" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1137" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1137" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1137" s="3"/>
+      <c r="L1137" s="3"/>
+      <c r="M1137" s="3"/>
+      <c r="N1137" s="3"/>
+      <c r="O1137" s="3"/>
+      <c r="P1137" s="3"/>
       <c r="Q1137" s="3"/>
       <c r="R1137" s="3"/>
       <c r="S1137" s="3"/>
@@ -90780,17 +90681,18 @@
       <c r="A1138" s="3">
         <v>1135</v>
       </c>
-      <c r="B1138" s="4" t="s">
-        <v>335</v>
+      <c r="B1138" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1138" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1138" s="3">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="E1138" s="3">
-        <v>4</v>
+        <f t="shared" ref="E1138:E1193" si="19">E1133+6</f>
+        <v>162</v>
       </c>
       <c r="F1138" s="3">
         <v>1</v>
@@ -90799,30 +90701,18 @@
         <v>1</v>
       </c>
       <c r="H1138" s="3"/>
-      <c r="I1138" s="3" t="s">
-        <v>350</v>
+      <c r="I1138" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="J1138" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1138" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1138" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1138" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1138" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1138" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1138" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1138" s="3"/>
+      <c r="L1138" s="3"/>
+      <c r="M1138" s="3"/>
+      <c r="N1138" s="3"/>
+      <c r="O1138" s="3"/>
+      <c r="P1138" s="3"/>
       <c r="Q1138" s="3"/>
       <c r="R1138" s="3"/>
       <c r="S1138" s="3"/>
@@ -90841,17 +90731,18 @@
       <c r="A1139" s="3">
         <v>1136</v>
       </c>
-      <c r="B1139" s="4" t="s">
-        <v>335</v>
+      <c r="B1139" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1139" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1139" s="3">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="E1139" s="3">
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>163</v>
       </c>
       <c r="F1139" s="3">
         <v>1</v>
@@ -90861,29 +90752,17 @@
       </c>
       <c r="H1139" s="3"/>
       <c r="I1139" s="3" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="J1139" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1139" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1139" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1139" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1139" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1139" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1139" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1139" s="3"/>
+      <c r="L1139" s="3"/>
+      <c r="M1139" s="3"/>
+      <c r="N1139" s="3"/>
+      <c r="O1139" s="3"/>
+      <c r="P1139" s="3"/>
       <c r="Q1139" s="3"/>
       <c r="R1139" s="3"/>
       <c r="S1139" s="3"/>
@@ -90902,17 +90781,18 @@
       <c r="A1140" s="3">
         <v>1137</v>
       </c>
-      <c r="B1140" s="4" t="s">
-        <v>335</v>
+      <c r="B1140" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1140" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1140" s="3">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="E1140" s="3">
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>164</v>
       </c>
       <c r="F1140" s="3">
         <v>1</v>
@@ -90922,29 +90802,17 @@
       </c>
       <c r="H1140" s="3"/>
       <c r="I1140" s="3" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="J1140" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1140" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1140" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1140" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1140" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1140" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1140" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1140" s="3"/>
+      <c r="L1140" s="3"/>
+      <c r="M1140" s="3"/>
+      <c r="N1140" s="3"/>
+      <c r="O1140" s="3"/>
+      <c r="P1140" s="3"/>
       <c r="Q1140" s="3"/>
       <c r="R1140" s="3"/>
       <c r="S1140" s="3"/>
@@ -90963,17 +90831,18 @@
       <c r="A1141" s="3">
         <v>1138</v>
       </c>
-      <c r="B1141" s="4" t="s">
-        <v>335</v>
+      <c r="B1141" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1141" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1141" s="3">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="E1141" s="3">
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>166</v>
       </c>
       <c r="F1141" s="3">
         <v>1</v>
@@ -90983,29 +90852,17 @@
       </c>
       <c r="H1141" s="3"/>
       <c r="I1141" s="3" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="J1141" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1141" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1141" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1141" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1141" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1141" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1141" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1141" s="3"/>
+      <c r="L1141" s="3"/>
+      <c r="M1141" s="3"/>
+      <c r="N1141" s="3"/>
+      <c r="O1141" s="3"/>
+      <c r="P1141" s="3"/>
       <c r="Q1141" s="3"/>
       <c r="R1141" s="3"/>
       <c r="S1141" s="3"/>
@@ -91024,17 +90881,18 @@
       <c r="A1142" s="3">
         <v>1139</v>
       </c>
-      <c r="B1142" s="4" t="s">
-        <v>335</v>
+      <c r="B1142" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1142" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1142" s="3">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="E1142" s="3">
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>167</v>
       </c>
       <c r="F1142" s="3">
         <v>1</v>
@@ -91044,29 +90902,17 @@
       </c>
       <c r="H1142" s="3"/>
       <c r="I1142" s="3" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="J1142" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1142" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1142" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1142" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1142" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1142" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1142" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1142" s="3"/>
+      <c r="L1142" s="3"/>
+      <c r="M1142" s="3"/>
+      <c r="N1142" s="3"/>
+      <c r="O1142" s="3"/>
+      <c r="P1142" s="3"/>
       <c r="Q1142" s="3"/>
       <c r="R1142" s="3"/>
       <c r="S1142" s="3"/>
@@ -91085,17 +90931,18 @@
       <c r="A1143" s="3">
         <v>1140</v>
       </c>
-      <c r="B1143" s="4" t="s">
-        <v>337</v>
+      <c r="B1143" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1143" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1143" s="3">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E1143" s="3">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>168</v>
       </c>
       <c r="F1143" s="3">
         <v>1</v>
@@ -91104,30 +90951,18 @@
         <v>1</v>
       </c>
       <c r="H1143" s="3"/>
-      <c r="I1143" s="3" t="s">
-        <v>354</v>
+      <c r="I1143" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="J1143" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1143" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1143" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1143" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1143" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1143" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1143" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1143" s="3"/>
+      <c r="L1143" s="3"/>
+      <c r="M1143" s="3"/>
+      <c r="N1143" s="3"/>
+      <c r="O1143" s="3"/>
+      <c r="P1143" s="3"/>
       <c r="Q1143" s="3"/>
       <c r="R1143" s="3"/>
       <c r="S1143" s="3"/>
@@ -91146,17 +90981,18 @@
       <c r="A1144" s="3">
         <v>1141</v>
       </c>
-      <c r="B1144" s="4" t="s">
-        <v>337</v>
+      <c r="B1144" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1144" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1144" s="3">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="E1144" s="3">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>169</v>
       </c>
       <c r="F1144" s="3">
         <v>1</v>
@@ -91166,29 +91002,17 @@
       </c>
       <c r="H1144" s="3"/>
       <c r="I1144" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="J1144" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1144" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1144" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1144" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1144" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1144" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1144" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1144" s="3"/>
+      <c r="L1144" s="3"/>
+      <c r="M1144" s="3"/>
+      <c r="N1144" s="3"/>
+      <c r="O1144" s="3"/>
+      <c r="P1144" s="3"/>
       <c r="Q1144" s="3"/>
       <c r="R1144" s="3"/>
       <c r="S1144" s="3"/>
@@ -91207,17 +91031,18 @@
       <c r="A1145" s="3">
         <v>1142</v>
       </c>
-      <c r="B1145" s="4" t="s">
-        <v>337</v>
+      <c r="B1145" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1145" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1145" s="3">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E1145" s="3">
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>170</v>
       </c>
       <c r="F1145" s="3">
         <v>1</v>
@@ -91227,29 +91052,17 @@
       </c>
       <c r="H1145" s="3"/>
       <c r="I1145" s="3" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="J1145" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1145" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1145" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1145" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1145" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1145" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1145" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1145" s="3"/>
+      <c r="L1145" s="3"/>
+      <c r="M1145" s="3"/>
+      <c r="N1145" s="3"/>
+      <c r="O1145" s="3"/>
+      <c r="P1145" s="3"/>
       <c r="Q1145" s="3"/>
       <c r="R1145" s="3"/>
       <c r="S1145" s="3"/>
@@ -91268,17 +91081,18 @@
       <c r="A1146" s="3">
         <v>1143</v>
       </c>
-      <c r="B1146" s="4" t="s">
-        <v>337</v>
+      <c r="B1146" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1146" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1146" s="3">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="E1146" s="3">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>172</v>
       </c>
       <c r="F1146" s="3">
         <v>1</v>
@@ -91288,29 +91102,17 @@
       </c>
       <c r="H1146" s="3"/>
       <c r="I1146" s="3" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="J1146" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1146" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1146" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1146" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1146" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1146" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1146" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1146" s="3"/>
+      <c r="L1146" s="3"/>
+      <c r="M1146" s="3"/>
+      <c r="N1146" s="3"/>
+      <c r="O1146" s="3"/>
+      <c r="P1146" s="3"/>
       <c r="Q1146" s="3"/>
       <c r="R1146" s="3"/>
       <c r="S1146" s="3"/>
@@ -91329,17 +91131,18 @@
       <c r="A1147" s="3">
         <v>1144</v>
       </c>
-      <c r="B1147" s="4" t="s">
-        <v>337</v>
+      <c r="B1147" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1147" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1147" s="3">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="E1147" s="3">
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>173</v>
       </c>
       <c r="F1147" s="3">
         <v>1</v>
@@ -91349,29 +91152,17 @@
       </c>
       <c r="H1147" s="3"/>
       <c r="I1147" s="3" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="J1147" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1147" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1147" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1147" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1147" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1147" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1147" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1147" s="3"/>
+      <c r="L1147" s="3"/>
+      <c r="M1147" s="3"/>
+      <c r="N1147" s="3"/>
+      <c r="O1147" s="3"/>
+      <c r="P1147" s="3"/>
       <c r="Q1147" s="3"/>
       <c r="R1147" s="3"/>
       <c r="S1147" s="3"/>
@@ -91390,17 +91181,18 @@
       <c r="A1148" s="3">
         <v>1145</v>
       </c>
-      <c r="B1148" s="4" t="s">
-        <v>337</v>
+      <c r="B1148" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1148" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1148" s="3">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="E1148" s="3">
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>174</v>
       </c>
       <c r="F1148" s="3">
         <v>1</v>
@@ -91409,30 +91201,18 @@
         <v>1</v>
       </c>
       <c r="H1148" s="3"/>
-      <c r="I1148" s="3" t="s">
-        <v>354</v>
+      <c r="I1148" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="J1148" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1148" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1148" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1148" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1148" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1148" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1148" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1148" s="3"/>
+      <c r="L1148" s="3"/>
+      <c r="M1148" s="3"/>
+      <c r="N1148" s="3"/>
+      <c r="O1148" s="3"/>
+      <c r="P1148" s="3"/>
       <c r="Q1148" s="3"/>
       <c r="R1148" s="3"/>
       <c r="S1148" s="3"/>
@@ -91451,17 +91231,18 @@
       <c r="A1149" s="3">
         <v>1146</v>
       </c>
-      <c r="B1149" s="4" t="s">
-        <v>337</v>
+      <c r="B1149" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1149" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1149" s="3">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="E1149" s="3">
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>175</v>
       </c>
       <c r="F1149" s="3">
         <v>1</v>
@@ -91471,29 +91252,17 @@
       </c>
       <c r="H1149" s="3"/>
       <c r="I1149" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="J1149" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1149" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1149" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1149" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1149" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1149" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1149" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1149" s="3"/>
+      <c r="L1149" s="3"/>
+      <c r="M1149" s="3"/>
+      <c r="N1149" s="3"/>
+      <c r="O1149" s="3"/>
+      <c r="P1149" s="3"/>
       <c r="Q1149" s="3"/>
       <c r="R1149" s="3"/>
       <c r="S1149" s="3"/>
@@ -91512,17 +91281,18 @@
       <c r="A1150" s="3">
         <v>1147</v>
       </c>
-      <c r="B1150" s="4" t="s">
-        <v>337</v>
+      <c r="B1150" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1150" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1150" s="3">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="E1150" s="3">
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>176</v>
       </c>
       <c r="F1150" s="3">
         <v>1</v>
@@ -91532,29 +91302,17 @@
       </c>
       <c r="H1150" s="3"/>
       <c r="I1150" s="3" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="J1150" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1150" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1150" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1150" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N1150" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1150" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P1150" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1150" s="3"/>
+      <c r="L1150" s="3"/>
+      <c r="M1150" s="3"/>
+      <c r="N1150" s="3"/>
+      <c r="O1150" s="3"/>
+      <c r="P1150" s="3"/>
       <c r="Q1150" s="3"/>
       <c r="R1150" s="3"/>
       <c r="S1150" s="3"/>
@@ -91573,17 +91331,18 @@
       <c r="A1151" s="3">
         <v>1148</v>
       </c>
-      <c r="B1151" s="4" t="s">
-        <v>339</v>
+      <c r="B1151" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1151" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1151" s="3">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="E1151" s="3">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>178</v>
       </c>
       <c r="F1151" s="3">
         <v>1</v>
@@ -91593,29 +91352,17 @@
       </c>
       <c r="H1151" s="3"/>
       <c r="I1151" s="3" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="J1151" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1151" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1151" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1151" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1151" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1151" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1151" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1151" s="3"/>
+      <c r="L1151" s="3"/>
+      <c r="M1151" s="3"/>
+      <c r="N1151" s="3"/>
+      <c r="O1151" s="3"/>
+      <c r="P1151" s="3"/>
       <c r="Q1151" s="3"/>
       <c r="R1151" s="3"/>
       <c r="S1151" s="3"/>
@@ -91634,17 +91381,18 @@
       <c r="A1152" s="3">
         <v>1149</v>
       </c>
-      <c r="B1152" s="4" t="s">
-        <v>339</v>
+      <c r="B1152" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1152" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1152" s="3">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="E1152" s="3">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>179</v>
       </c>
       <c r="F1152" s="3">
         <v>1</v>
@@ -91654,29 +91402,17 @@
       </c>
       <c r="H1152" s="3"/>
       <c r="I1152" s="3" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="J1152" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1152" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1152" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1152" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1152" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1152" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1152" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1152" s="3"/>
+      <c r="L1152" s="3"/>
+      <c r="M1152" s="3"/>
+      <c r="N1152" s="3"/>
+      <c r="O1152" s="3"/>
+      <c r="P1152" s="3"/>
       <c r="Q1152" s="3"/>
       <c r="R1152" s="3"/>
       <c r="S1152" s="3"/>
@@ -91695,17 +91431,18 @@
       <c r="A1153" s="3">
         <v>1150</v>
       </c>
-      <c r="B1153" s="4" t="s">
-        <v>339</v>
+      <c r="B1153" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1153" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1153" s="3">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E1153" s="3">
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>180</v>
       </c>
       <c r="F1153" s="3">
         <v>1</v>
@@ -91714,30 +91451,18 @@
         <v>1</v>
       </c>
       <c r="H1153" s="3"/>
-      <c r="I1153" s="3" t="s">
-        <v>358</v>
+      <c r="I1153" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="J1153" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1153" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1153" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1153" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1153" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1153" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1153" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1153" s="3"/>
+      <c r="L1153" s="3"/>
+      <c r="M1153" s="3"/>
+      <c r="N1153" s="3"/>
+      <c r="O1153" s="3"/>
+      <c r="P1153" s="3"/>
       <c r="Q1153" s="3"/>
       <c r="R1153" s="3"/>
       <c r="S1153" s="3"/>
@@ -91756,17 +91481,18 @@
       <c r="A1154" s="3">
         <v>1151</v>
       </c>
-      <c r="B1154" s="4" t="s">
-        <v>339</v>
+      <c r="B1154" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1154" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1154" s="3">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="E1154" s="3">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>181</v>
       </c>
       <c r="F1154" s="3">
         <v>1</v>
@@ -91776,29 +91502,17 @@
       </c>
       <c r="H1154" s="3"/>
       <c r="I1154" s="3" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="J1154" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1154" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1154" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1154" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1154" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1154" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1154" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1154" s="3"/>
+      <c r="L1154" s="3"/>
+      <c r="M1154" s="3"/>
+      <c r="N1154" s="3"/>
+      <c r="O1154" s="3"/>
+      <c r="P1154" s="3"/>
       <c r="Q1154" s="3"/>
       <c r="R1154" s="3"/>
       <c r="S1154" s="3"/>
@@ -91817,17 +91531,18 @@
       <c r="A1155" s="3">
         <v>1152</v>
       </c>
-      <c r="B1155" s="4" t="s">
-        <v>339</v>
+      <c r="B1155" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1155" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1155" s="3">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="E1155" s="3">
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>182</v>
       </c>
       <c r="F1155" s="3">
         <v>1</v>
@@ -91837,29 +91552,17 @@
       </c>
       <c r="H1155" s="3"/>
       <c r="I1155" s="3" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="J1155" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1155" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1155" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1155" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1155" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1155" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1155" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1155" s="3"/>
+      <c r="L1155" s="3"/>
+      <c r="M1155" s="3"/>
+      <c r="N1155" s="3"/>
+      <c r="O1155" s="3"/>
+      <c r="P1155" s="3"/>
       <c r="Q1155" s="3"/>
       <c r="R1155" s="3"/>
       <c r="S1155" s="3"/>
@@ -91878,17 +91581,18 @@
       <c r="A1156" s="3">
         <v>1153</v>
       </c>
-      <c r="B1156" s="4" t="s">
-        <v>339</v>
+      <c r="B1156" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1156" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1156" s="3">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="E1156" s="3">
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>184</v>
       </c>
       <c r="F1156" s="3">
         <v>1</v>
@@ -91898,29 +91602,17 @@
       </c>
       <c r="H1156" s="3"/>
       <c r="I1156" s="3" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="J1156" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1156" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1156" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1156" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1156" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1156" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1156" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1156" s="3"/>
+      <c r="L1156" s="3"/>
+      <c r="M1156" s="3"/>
+      <c r="N1156" s="3"/>
+      <c r="O1156" s="3"/>
+      <c r="P1156" s="3"/>
       <c r="Q1156" s="3"/>
       <c r="R1156" s="3"/>
       <c r="S1156" s="3"/>
@@ -91939,17 +91631,18 @@
       <c r="A1157" s="3">
         <v>1154</v>
       </c>
-      <c r="B1157" s="4" t="s">
-        <v>339</v>
+      <c r="B1157" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1157" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1157" s="3">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="E1157" s="3">
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>185</v>
       </c>
       <c r="F1157" s="3">
         <v>1</v>
@@ -91959,29 +91652,17 @@
       </c>
       <c r="H1157" s="3"/>
       <c r="I1157" s="3" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="J1157" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1157" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1157" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1157" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1157" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1157" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1157" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1157" s="3"/>
+      <c r="L1157" s="3"/>
+      <c r="M1157" s="3"/>
+      <c r="N1157" s="3"/>
+      <c r="O1157" s="3"/>
+      <c r="P1157" s="3"/>
       <c r="Q1157" s="3"/>
       <c r="R1157" s="3"/>
       <c r="S1157" s="3"/>
@@ -92000,17 +91681,18 @@
       <c r="A1158" s="3">
         <v>1155</v>
       </c>
-      <c r="B1158" s="4" t="s">
-        <v>339</v>
+      <c r="B1158" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C1158" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D1158" s="3">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="E1158" s="3">
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>186</v>
       </c>
       <c r="F1158" s="3">
         <v>1</v>
@@ -92019,30 +91701,18 @@
         <v>1</v>
       </c>
       <c r="H1158" s="3"/>
-      <c r="I1158" s="3" t="s">
-        <v>358</v>
+      <c r="I1158" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="J1158" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1158" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1158" s="3">
-        <v>2</v>
-      </c>
-      <c r="M1158" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1158" s="3">
-        <v>2</v>
-      </c>
-      <c r="O1158" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1158" s="3">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K1158" s="3"/>
+      <c r="L1158" s="3"/>
+      <c r="M1158" s="3"/>
+      <c r="N1158" s="3"/>
+      <c r="O1158" s="3"/>
+      <c r="P1158" s="3"/>
       <c r="Q1158" s="3"/>
       <c r="R1158" s="3"/>
       <c r="S1158" s="3"/>
@@ -92056,6 +91726,4196 @@
       <c r="AA1158" s="3"/>
       <c r="AB1158" s="3"/>
       <c r="AC1158" s="3"/>
+    </row>
+    <row r="1159" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1159" s="3">
+        <v>1156</v>
+      </c>
+      <c r="B1159" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1159" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1159" s="3">
+        <v>156</v>
+      </c>
+      <c r="E1159" s="3">
+        <f t="shared" si="19"/>
+        <v>187</v>
+      </c>
+      <c r="F1159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1159" s="3"/>
+      <c r="I1159" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1159" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1159" s="3"/>
+      <c r="L1159" s="3"/>
+      <c r="M1159" s="3"/>
+      <c r="N1159" s="3"/>
+      <c r="O1159" s="3"/>
+      <c r="P1159" s="3"/>
+      <c r="Q1159" s="3"/>
+      <c r="R1159" s="3"/>
+      <c r="S1159" s="3"/>
+      <c r="T1159" s="3"/>
+      <c r="U1159" s="3"/>
+      <c r="V1159" s="3"/>
+      <c r="W1159" s="3"/>
+      <c r="X1159" s="3"/>
+      <c r="Y1159" s="3"/>
+      <c r="Z1159" s="3"/>
+      <c r="AA1159" s="3"/>
+      <c r="AB1159" s="3"/>
+      <c r="AC1159" s="3"/>
+    </row>
+    <row r="1160" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1160" s="3">
+        <v>1157</v>
+      </c>
+      <c r="B1160" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1160" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1160" s="3">
+        <v>157</v>
+      </c>
+      <c r="E1160" s="3">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="F1160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1160" s="3"/>
+      <c r="I1160" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1160" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1160" s="3"/>
+      <c r="L1160" s="3"/>
+      <c r="M1160" s="3"/>
+      <c r="N1160" s="3"/>
+      <c r="O1160" s="3"/>
+      <c r="P1160" s="3"/>
+      <c r="Q1160" s="3"/>
+      <c r="R1160" s="3"/>
+      <c r="S1160" s="3"/>
+      <c r="T1160" s="3"/>
+      <c r="U1160" s="3"/>
+      <c r="V1160" s="3"/>
+      <c r="W1160" s="3"/>
+      <c r="X1160" s="3"/>
+      <c r="Y1160" s="3"/>
+      <c r="Z1160" s="3"/>
+      <c r="AA1160" s="3"/>
+      <c r="AB1160" s="3"/>
+      <c r="AC1160" s="3"/>
+    </row>
+    <row r="1161" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1161" s="3">
+        <v>1158</v>
+      </c>
+      <c r="B1161" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1161" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1161" s="3">
+        <v>158</v>
+      </c>
+      <c r="E1161" s="3">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="F1161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1161" s="3"/>
+      <c r="I1161" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1161" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1161" s="3"/>
+      <c r="L1161" s="3"/>
+      <c r="M1161" s="3"/>
+      <c r="N1161" s="3"/>
+      <c r="O1161" s="3"/>
+      <c r="P1161" s="3"/>
+      <c r="Q1161" s="3"/>
+      <c r="R1161" s="3"/>
+      <c r="S1161" s="3"/>
+      <c r="T1161" s="3"/>
+      <c r="U1161" s="3"/>
+      <c r="V1161" s="3"/>
+      <c r="W1161" s="3"/>
+      <c r="X1161" s="3"/>
+      <c r="Y1161" s="3"/>
+      <c r="Z1161" s="3"/>
+      <c r="AA1161" s="3"/>
+      <c r="AB1161" s="3"/>
+      <c r="AC1161" s="3"/>
+    </row>
+    <row r="1162" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1162" s="3">
+        <v>1159</v>
+      </c>
+      <c r="B1162" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1162" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1162" s="3">
+        <v>159</v>
+      </c>
+      <c r="E1162" s="3">
+        <f t="shared" si="19"/>
+        <v>191</v>
+      </c>
+      <c r="F1162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1162" s="3"/>
+      <c r="I1162" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1162" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1162" s="3"/>
+      <c r="L1162" s="3"/>
+      <c r="M1162" s="3"/>
+      <c r="N1162" s="3"/>
+      <c r="O1162" s="3"/>
+      <c r="P1162" s="3"/>
+      <c r="Q1162" s="3"/>
+      <c r="R1162" s="3"/>
+      <c r="S1162" s="3"/>
+      <c r="T1162" s="3"/>
+      <c r="U1162" s="3"/>
+      <c r="V1162" s="3"/>
+      <c r="W1162" s="3"/>
+      <c r="X1162" s="3"/>
+      <c r="Y1162" s="3"/>
+      <c r="Z1162" s="3"/>
+      <c r="AA1162" s="3"/>
+      <c r="AB1162" s="3"/>
+      <c r="AC1162" s="3"/>
+    </row>
+    <row r="1163" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1163" s="3">
+        <v>1160</v>
+      </c>
+      <c r="B1163" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1163" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1163" s="3">
+        <v>160</v>
+      </c>
+      <c r="E1163" s="3">
+        <f t="shared" si="19"/>
+        <v>192</v>
+      </c>
+      <c r="F1163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1163" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1163" s="3"/>
+      <c r="I1163" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1163" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1163" s="3"/>
+      <c r="L1163" s="3"/>
+      <c r="M1163" s="3"/>
+      <c r="N1163" s="3"/>
+      <c r="O1163" s="3"/>
+      <c r="P1163" s="3"/>
+      <c r="Q1163" s="3"/>
+      <c r="R1163" s="3"/>
+      <c r="S1163" s="3"/>
+      <c r="T1163" s="3"/>
+      <c r="U1163" s="3"/>
+      <c r="V1163" s="3"/>
+      <c r="W1163" s="3"/>
+      <c r="X1163" s="3"/>
+      <c r="Y1163" s="3"/>
+      <c r="Z1163" s="3"/>
+      <c r="AA1163" s="3"/>
+      <c r="AB1163" s="3"/>
+      <c r="AC1163" s="3"/>
+    </row>
+    <row r="1164" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1164" s="3">
+        <v>1161</v>
+      </c>
+      <c r="B1164" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1164" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1164" s="3">
+        <v>161</v>
+      </c>
+      <c r="E1164" s="3">
+        <f t="shared" si="19"/>
+        <v>193</v>
+      </c>
+      <c r="F1164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1164" s="3"/>
+      <c r="I1164" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1164" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1164" s="3"/>
+      <c r="L1164" s="3"/>
+      <c r="M1164" s="3"/>
+      <c r="N1164" s="3"/>
+      <c r="O1164" s="3"/>
+      <c r="P1164" s="3"/>
+      <c r="Q1164" s="3"/>
+      <c r="R1164" s="3"/>
+      <c r="S1164" s="3"/>
+      <c r="T1164" s="3"/>
+      <c r="U1164" s="3"/>
+      <c r="V1164" s="3"/>
+      <c r="W1164" s="3"/>
+      <c r="X1164" s="3"/>
+      <c r="Y1164" s="3"/>
+      <c r="Z1164" s="3"/>
+      <c r="AA1164" s="3"/>
+      <c r="AB1164" s="3"/>
+      <c r="AC1164" s="3"/>
+    </row>
+    <row r="1165" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1165" s="3">
+        <v>1162</v>
+      </c>
+      <c r="B1165" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1165" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1165" s="3">
+        <v>162</v>
+      </c>
+      <c r="E1165" s="3">
+        <f t="shared" si="19"/>
+        <v>194</v>
+      </c>
+      <c r="F1165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1165" s="3"/>
+      <c r="I1165" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1165" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1165" s="3"/>
+      <c r="L1165" s="3"/>
+      <c r="M1165" s="3"/>
+      <c r="N1165" s="3"/>
+      <c r="O1165" s="3"/>
+      <c r="P1165" s="3"/>
+      <c r="Q1165" s="3"/>
+      <c r="R1165" s="3"/>
+      <c r="S1165" s="3"/>
+      <c r="T1165" s="3"/>
+      <c r="U1165" s="3"/>
+      <c r="V1165" s="3"/>
+      <c r="W1165" s="3"/>
+      <c r="X1165" s="3"/>
+      <c r="Y1165" s="3"/>
+      <c r="Z1165" s="3"/>
+      <c r="AA1165" s="3"/>
+      <c r="AB1165" s="3"/>
+      <c r="AC1165" s="3"/>
+    </row>
+    <row r="1166" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1166" s="3">
+        <v>1163</v>
+      </c>
+      <c r="B1166" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1166" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1166" s="3">
+        <v>163</v>
+      </c>
+      <c r="E1166" s="3">
+        <f t="shared" si="19"/>
+        <v>196</v>
+      </c>
+      <c r="F1166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1166" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1166" s="3"/>
+      <c r="I1166" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1166" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1166" s="3"/>
+      <c r="L1166" s="3"/>
+      <c r="M1166" s="3"/>
+      <c r="N1166" s="3"/>
+      <c r="O1166" s="3"/>
+      <c r="P1166" s="3"/>
+      <c r="Q1166" s="3"/>
+      <c r="R1166" s="3"/>
+      <c r="S1166" s="3"/>
+      <c r="T1166" s="3"/>
+      <c r="U1166" s="3"/>
+      <c r="V1166" s="3"/>
+      <c r="W1166" s="3"/>
+      <c r="X1166" s="3"/>
+      <c r="Y1166" s="3"/>
+      <c r="Z1166" s="3"/>
+      <c r="AA1166" s="3"/>
+      <c r="AB1166" s="3"/>
+      <c r="AC1166" s="3"/>
+    </row>
+    <row r="1167" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1167" s="3">
+        <v>1164</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1167" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1167" s="3">
+        <v>164</v>
+      </c>
+      <c r="E1167" s="3">
+        <f t="shared" si="19"/>
+        <v>197</v>
+      </c>
+      <c r="F1167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1167" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1167" s="3"/>
+      <c r="I1167" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1167" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1167" s="3"/>
+      <c r="L1167" s="3"/>
+      <c r="M1167" s="3"/>
+      <c r="N1167" s="3"/>
+      <c r="O1167" s="3"/>
+      <c r="P1167" s="3"/>
+      <c r="Q1167" s="3"/>
+      <c r="R1167" s="3"/>
+      <c r="S1167" s="3"/>
+      <c r="T1167" s="3"/>
+      <c r="U1167" s="3"/>
+      <c r="V1167" s="3"/>
+      <c r="W1167" s="3"/>
+      <c r="X1167" s="3"/>
+      <c r="Y1167" s="3"/>
+      <c r="Z1167" s="3"/>
+      <c r="AA1167" s="3"/>
+      <c r="AB1167" s="3"/>
+      <c r="AC1167" s="3"/>
+    </row>
+    <row r="1168" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1168" s="3">
+        <v>1165</v>
+      </c>
+      <c r="B1168" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1168" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1168" s="3">
+        <v>165</v>
+      </c>
+      <c r="E1168" s="3">
+        <f t="shared" si="19"/>
+        <v>198</v>
+      </c>
+      <c r="F1168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1168" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1168" s="3"/>
+      <c r="I1168" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1168" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1168" s="3"/>
+      <c r="L1168" s="3"/>
+      <c r="M1168" s="3"/>
+      <c r="N1168" s="3"/>
+      <c r="O1168" s="3"/>
+      <c r="P1168" s="3"/>
+      <c r="Q1168" s="3"/>
+      <c r="R1168" s="3"/>
+      <c r="S1168" s="3"/>
+      <c r="T1168" s="3"/>
+      <c r="U1168" s="3"/>
+      <c r="V1168" s="3"/>
+      <c r="W1168" s="3"/>
+      <c r="X1168" s="3"/>
+      <c r="Y1168" s="3"/>
+      <c r="Z1168" s="3"/>
+      <c r="AA1168" s="3"/>
+      <c r="AB1168" s="3"/>
+      <c r="AC1168" s="3"/>
+    </row>
+    <row r="1169" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1169" s="3">
+        <v>1166</v>
+      </c>
+      <c r="B1169" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1169" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1169" s="3">
+        <v>166</v>
+      </c>
+      <c r="E1169" s="3">
+        <f t="shared" si="19"/>
+        <v>199</v>
+      </c>
+      <c r="F1169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1169" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1169" s="3"/>
+      <c r="I1169" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1169" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1169" s="3"/>
+      <c r="L1169" s="3"/>
+      <c r="M1169" s="3"/>
+      <c r="N1169" s="3"/>
+      <c r="O1169" s="3"/>
+      <c r="P1169" s="3"/>
+      <c r="Q1169" s="3"/>
+      <c r="R1169" s="3"/>
+      <c r="S1169" s="3"/>
+      <c r="T1169" s="3"/>
+      <c r="U1169" s="3"/>
+      <c r="V1169" s="3"/>
+      <c r="W1169" s="3"/>
+      <c r="X1169" s="3"/>
+      <c r="Y1169" s="3"/>
+      <c r="Z1169" s="3"/>
+      <c r="AA1169" s="3"/>
+      <c r="AB1169" s="3"/>
+      <c r="AC1169" s="3"/>
+    </row>
+    <row r="1170" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1170" s="3">
+        <v>1167</v>
+      </c>
+      <c r="B1170" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1170" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1170" s="3">
+        <v>167</v>
+      </c>
+      <c r="E1170" s="3">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="F1170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1170" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1170" s="3"/>
+      <c r="I1170" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1170" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1170" s="3"/>
+      <c r="L1170" s="3"/>
+      <c r="M1170" s="3"/>
+      <c r="N1170" s="3"/>
+      <c r="O1170" s="3"/>
+      <c r="P1170" s="3"/>
+      <c r="Q1170" s="3"/>
+      <c r="R1170" s="3"/>
+      <c r="S1170" s="3"/>
+      <c r="T1170" s="3"/>
+      <c r="U1170" s="3"/>
+      <c r="V1170" s="3"/>
+      <c r="W1170" s="3"/>
+      <c r="X1170" s="3"/>
+      <c r="Y1170" s="3"/>
+      <c r="Z1170" s="3"/>
+      <c r="AA1170" s="3"/>
+      <c r="AB1170" s="3"/>
+      <c r="AC1170" s="3"/>
+    </row>
+    <row r="1171" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1171" s="3">
+        <v>1168</v>
+      </c>
+      <c r="B1171" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1171" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1171" s="3">
+        <v>168</v>
+      </c>
+      <c r="E1171" s="3">
+        <f t="shared" si="19"/>
+        <v>202</v>
+      </c>
+      <c r="F1171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1171" s="3"/>
+      <c r="I1171" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1171" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1171" s="3"/>
+      <c r="L1171" s="3"/>
+      <c r="M1171" s="3"/>
+      <c r="N1171" s="3"/>
+      <c r="O1171" s="3"/>
+      <c r="P1171" s="3"/>
+      <c r="Q1171" s="3"/>
+      <c r="R1171" s="3"/>
+      <c r="S1171" s="3"/>
+      <c r="T1171" s="3"/>
+      <c r="U1171" s="3"/>
+      <c r="V1171" s="3"/>
+      <c r="W1171" s="3"/>
+      <c r="X1171" s="3"/>
+      <c r="Y1171" s="3"/>
+      <c r="Z1171" s="3"/>
+      <c r="AA1171" s="3"/>
+      <c r="AB1171" s="3"/>
+      <c r="AC1171" s="3"/>
+    </row>
+    <row r="1172" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1172" s="3">
+        <v>1169</v>
+      </c>
+      <c r="B1172" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1172" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1172" s="3">
+        <v>169</v>
+      </c>
+      <c r="E1172" s="3">
+        <f t="shared" si="19"/>
+        <v>203</v>
+      </c>
+      <c r="F1172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1172" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1172" s="3"/>
+      <c r="I1172" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1172" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1172" s="3"/>
+      <c r="L1172" s="3"/>
+      <c r="M1172" s="3"/>
+      <c r="N1172" s="3"/>
+      <c r="O1172" s="3"/>
+      <c r="P1172" s="3"/>
+      <c r="Q1172" s="3"/>
+      <c r="R1172" s="3"/>
+      <c r="S1172" s="3"/>
+      <c r="T1172" s="3"/>
+      <c r="U1172" s="3"/>
+      <c r="V1172" s="3"/>
+      <c r="W1172" s="3"/>
+      <c r="X1172" s="3"/>
+      <c r="Y1172" s="3"/>
+      <c r="Z1172" s="3"/>
+      <c r="AA1172" s="3"/>
+      <c r="AB1172" s="3"/>
+      <c r="AC1172" s="3"/>
+    </row>
+    <row r="1173" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1173" s="3">
+        <v>1170</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1173" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1173" s="3">
+        <v>170</v>
+      </c>
+      <c r="E1173" s="3">
+        <f t="shared" si="19"/>
+        <v>204</v>
+      </c>
+      <c r="F1173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1173" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1173" s="3"/>
+      <c r="I1173" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1173" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1173" s="3"/>
+      <c r="L1173" s="3"/>
+      <c r="M1173" s="3"/>
+      <c r="N1173" s="3"/>
+      <c r="O1173" s="3"/>
+      <c r="P1173" s="3"/>
+      <c r="Q1173" s="3"/>
+      <c r="R1173" s="3"/>
+      <c r="S1173" s="3"/>
+      <c r="T1173" s="3"/>
+      <c r="U1173" s="3"/>
+      <c r="V1173" s="3"/>
+      <c r="W1173" s="3"/>
+      <c r="X1173" s="3"/>
+      <c r="Y1173" s="3"/>
+      <c r="Z1173" s="3"/>
+      <c r="AA1173" s="3"/>
+      <c r="AB1173" s="3"/>
+      <c r="AC1173" s="3"/>
+    </row>
+    <row r="1174" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1174" s="3">
+        <v>1171</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1174" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1174" s="3">
+        <v>171</v>
+      </c>
+      <c r="E1174" s="3">
+        <f t="shared" si="19"/>
+        <v>205</v>
+      </c>
+      <c r="F1174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1174" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1174" s="3"/>
+      <c r="I1174" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1174" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1174" s="3"/>
+      <c r="L1174" s="3"/>
+      <c r="M1174" s="3"/>
+      <c r="N1174" s="3"/>
+      <c r="O1174" s="3"/>
+      <c r="P1174" s="3"/>
+      <c r="Q1174" s="3"/>
+      <c r="R1174" s="3"/>
+      <c r="S1174" s="3"/>
+      <c r="T1174" s="3"/>
+      <c r="U1174" s="3"/>
+      <c r="V1174" s="3"/>
+      <c r="W1174" s="3"/>
+      <c r="X1174" s="3"/>
+      <c r="Y1174" s="3"/>
+      <c r="Z1174" s="3"/>
+      <c r="AA1174" s="3"/>
+      <c r="AB1174" s="3"/>
+      <c r="AC1174" s="3"/>
+    </row>
+    <row r="1175" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1175" s="3">
+        <v>1172</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1175" s="3">
+        <v>172</v>
+      </c>
+      <c r="E1175" s="3">
+        <f t="shared" si="19"/>
+        <v>206</v>
+      </c>
+      <c r="F1175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1175" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1175" s="3"/>
+      <c r="I1175" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1175" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1175" s="3"/>
+      <c r="L1175" s="3"/>
+      <c r="M1175" s="3"/>
+      <c r="N1175" s="3"/>
+      <c r="O1175" s="3"/>
+      <c r="P1175" s="3"/>
+      <c r="Q1175" s="3"/>
+      <c r="R1175" s="3"/>
+      <c r="S1175" s="3"/>
+      <c r="T1175" s="3"/>
+      <c r="U1175" s="3"/>
+      <c r="V1175" s="3"/>
+      <c r="W1175" s="3"/>
+      <c r="X1175" s="3"/>
+      <c r="Y1175" s="3"/>
+      <c r="Z1175" s="3"/>
+      <c r="AA1175" s="3"/>
+      <c r="AB1175" s="3"/>
+      <c r="AC1175" s="3"/>
+    </row>
+    <row r="1176" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1176" s="3">
+        <v>1173</v>
+      </c>
+      <c r="B1176" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1176" s="3">
+        <v>173</v>
+      </c>
+      <c r="E1176" s="3">
+        <f t="shared" si="19"/>
+        <v>208</v>
+      </c>
+      <c r="F1176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1176" s="3"/>
+      <c r="I1176" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1176" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1176" s="3"/>
+      <c r="L1176" s="3"/>
+      <c r="M1176" s="3"/>
+      <c r="N1176" s="3"/>
+      <c r="O1176" s="3"/>
+      <c r="P1176" s="3"/>
+      <c r="Q1176" s="3"/>
+      <c r="R1176" s="3"/>
+      <c r="S1176" s="3"/>
+      <c r="T1176" s="3"/>
+      <c r="U1176" s="3"/>
+      <c r="V1176" s="3"/>
+      <c r="W1176" s="3"/>
+      <c r="X1176" s="3"/>
+      <c r="Y1176" s="3"/>
+      <c r="Z1176" s="3"/>
+      <c r="AA1176" s="3"/>
+      <c r="AB1176" s="3"/>
+      <c r="AC1176" s="3"/>
+    </row>
+    <row r="1177" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1177" s="3">
+        <v>1174</v>
+      </c>
+      <c r="B1177" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1177" s="3">
+        <v>174</v>
+      </c>
+      <c r="E1177" s="3">
+        <f t="shared" si="19"/>
+        <v>209</v>
+      </c>
+      <c r="F1177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1177" s="3"/>
+      <c r="I1177" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1177" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1177" s="3"/>
+      <c r="L1177" s="3"/>
+      <c r="M1177" s="3"/>
+      <c r="N1177" s="3"/>
+      <c r="O1177" s="3"/>
+      <c r="P1177" s="3"/>
+      <c r="Q1177" s="3"/>
+      <c r="R1177" s="3"/>
+      <c r="S1177" s="3"/>
+      <c r="T1177" s="3"/>
+      <c r="U1177" s="3"/>
+      <c r="V1177" s="3"/>
+      <c r="W1177" s="3"/>
+      <c r="X1177" s="3"/>
+      <c r="Y1177" s="3"/>
+      <c r="Z1177" s="3"/>
+      <c r="AA1177" s="3"/>
+      <c r="AB1177" s="3"/>
+      <c r="AC1177" s="3"/>
+    </row>
+    <row r="1178" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1178" s="3">
+        <v>1175</v>
+      </c>
+      <c r="B1178" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1178" s="3">
+        <v>175</v>
+      </c>
+      <c r="E1178" s="3">
+        <f t="shared" si="19"/>
+        <v>210</v>
+      </c>
+      <c r="F1178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1178" s="3"/>
+      <c r="I1178" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1178" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1178" s="3"/>
+      <c r="L1178" s="3"/>
+      <c r="M1178" s="3"/>
+      <c r="N1178" s="3"/>
+      <c r="O1178" s="3"/>
+      <c r="P1178" s="3"/>
+      <c r="Q1178" s="3"/>
+      <c r="R1178" s="3"/>
+      <c r="S1178" s="3"/>
+      <c r="T1178" s="3"/>
+      <c r="U1178" s="3"/>
+      <c r="V1178" s="3"/>
+      <c r="W1178" s="3"/>
+      <c r="X1178" s="3"/>
+      <c r="Y1178" s="3"/>
+      <c r="Z1178" s="3"/>
+      <c r="AA1178" s="3"/>
+      <c r="AB1178" s="3"/>
+      <c r="AC1178" s="3"/>
+    </row>
+    <row r="1179" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1179" s="3">
+        <v>1176</v>
+      </c>
+      <c r="B1179" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1179" s="3">
+        <v>176</v>
+      </c>
+      <c r="E1179" s="3">
+        <f t="shared" si="19"/>
+        <v>211</v>
+      </c>
+      <c r="F1179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1179" s="3"/>
+      <c r="I1179" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1179" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1179" s="3"/>
+      <c r="L1179" s="3"/>
+      <c r="M1179" s="3"/>
+      <c r="N1179" s="3"/>
+      <c r="O1179" s="3"/>
+      <c r="P1179" s="3"/>
+      <c r="Q1179" s="3"/>
+      <c r="R1179" s="3"/>
+      <c r="S1179" s="3"/>
+      <c r="T1179" s="3"/>
+      <c r="U1179" s="3"/>
+      <c r="V1179" s="3"/>
+      <c r="W1179" s="3"/>
+      <c r="X1179" s="3"/>
+      <c r="Y1179" s="3"/>
+      <c r="Z1179" s="3"/>
+      <c r="AA1179" s="3"/>
+      <c r="AB1179" s="3"/>
+      <c r="AC1179" s="3"/>
+    </row>
+    <row r="1180" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1180" s="3">
+        <v>1177</v>
+      </c>
+      <c r="B1180" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1180" s="3">
+        <v>177</v>
+      </c>
+      <c r="E1180" s="3">
+        <f t="shared" si="19"/>
+        <v>212</v>
+      </c>
+      <c r="F1180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1180" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1180" s="3"/>
+      <c r="I1180" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1180" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1180" s="3"/>
+      <c r="L1180" s="3"/>
+      <c r="M1180" s="3"/>
+      <c r="N1180" s="3"/>
+      <c r="O1180" s="3"/>
+      <c r="P1180" s="3"/>
+      <c r="Q1180" s="3"/>
+      <c r="R1180" s="3"/>
+      <c r="S1180" s="3"/>
+      <c r="T1180" s="3"/>
+      <c r="U1180" s="3"/>
+      <c r="V1180" s="3"/>
+      <c r="W1180" s="3"/>
+      <c r="X1180" s="3"/>
+      <c r="Y1180" s="3"/>
+      <c r="Z1180" s="3"/>
+      <c r="AA1180" s="3"/>
+      <c r="AB1180" s="3"/>
+      <c r="AC1180" s="3"/>
+    </row>
+    <row r="1181" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1181" s="3">
+        <v>1178</v>
+      </c>
+      <c r="B1181" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1181" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1181" s="3">
+        <v>178</v>
+      </c>
+      <c r="E1181" s="3">
+        <f t="shared" si="19"/>
+        <v>214</v>
+      </c>
+      <c r="F1181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1181" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1181" s="3"/>
+      <c r="I1181" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1181" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1181" s="3"/>
+      <c r="L1181" s="3"/>
+      <c r="M1181" s="3"/>
+      <c r="N1181" s="3"/>
+      <c r="O1181" s="3"/>
+      <c r="P1181" s="3"/>
+      <c r="Q1181" s="3"/>
+      <c r="R1181" s="3"/>
+      <c r="S1181" s="3"/>
+      <c r="T1181" s="3"/>
+      <c r="U1181" s="3"/>
+      <c r="V1181" s="3"/>
+      <c r="W1181" s="3"/>
+      <c r="X1181" s="3"/>
+      <c r="Y1181" s="3"/>
+      <c r="Z1181" s="3"/>
+      <c r="AA1181" s="3"/>
+      <c r="AB1181" s="3"/>
+      <c r="AC1181" s="3"/>
+    </row>
+    <row r="1182" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1182" s="3">
+        <v>1179</v>
+      </c>
+      <c r="B1182" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1182" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1182" s="3">
+        <v>179</v>
+      </c>
+      <c r="E1182" s="3">
+        <f t="shared" si="19"/>
+        <v>215</v>
+      </c>
+      <c r="F1182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1182" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1182" s="3"/>
+      <c r="I1182" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1182" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1182" s="3"/>
+      <c r="L1182" s="3"/>
+      <c r="M1182" s="3"/>
+      <c r="N1182" s="3"/>
+      <c r="O1182" s="3"/>
+      <c r="P1182" s="3"/>
+      <c r="Q1182" s="3"/>
+      <c r="R1182" s="3"/>
+      <c r="S1182" s="3"/>
+      <c r="T1182" s="3"/>
+      <c r="U1182" s="3"/>
+      <c r="V1182" s="3"/>
+      <c r="W1182" s="3"/>
+      <c r="X1182" s="3"/>
+      <c r="Y1182" s="3"/>
+      <c r="Z1182" s="3"/>
+      <c r="AA1182" s="3"/>
+      <c r="AB1182" s="3"/>
+      <c r="AC1182" s="3"/>
+    </row>
+    <row r="1183" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1183" s="3">
+        <v>1180</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1183" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1183" s="3">
+        <v>180</v>
+      </c>
+      <c r="E1183" s="3">
+        <f t="shared" si="19"/>
+        <v>216</v>
+      </c>
+      <c r="F1183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1183" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1183" s="3"/>
+      <c r="I1183" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1183" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1183" s="3"/>
+      <c r="L1183" s="3"/>
+      <c r="M1183" s="3"/>
+      <c r="N1183" s="3"/>
+      <c r="O1183" s="3"/>
+      <c r="P1183" s="3"/>
+      <c r="Q1183" s="3"/>
+      <c r="R1183" s="3"/>
+      <c r="S1183" s="3"/>
+      <c r="T1183" s="3"/>
+      <c r="U1183" s="3"/>
+      <c r="V1183" s="3"/>
+      <c r="W1183" s="3"/>
+      <c r="X1183" s="3"/>
+      <c r="Y1183" s="3"/>
+      <c r="Z1183" s="3"/>
+      <c r="AA1183" s="3"/>
+      <c r="AB1183" s="3"/>
+      <c r="AC1183" s="3"/>
+    </row>
+    <row r="1184" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1184" s="3">
+        <v>1181</v>
+      </c>
+      <c r="B1184" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1184" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1184" s="3">
+        <v>181</v>
+      </c>
+      <c r="E1184" s="3">
+        <f t="shared" si="19"/>
+        <v>217</v>
+      </c>
+      <c r="F1184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1184" s="3"/>
+      <c r="I1184" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1184" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1184" s="3"/>
+      <c r="L1184" s="3"/>
+      <c r="M1184" s="3"/>
+      <c r="N1184" s="3"/>
+      <c r="O1184" s="3"/>
+      <c r="P1184" s="3"/>
+      <c r="Q1184" s="3"/>
+      <c r="R1184" s="3"/>
+      <c r="S1184" s="3"/>
+      <c r="T1184" s="3"/>
+      <c r="U1184" s="3"/>
+      <c r="V1184" s="3"/>
+      <c r="W1184" s="3"/>
+      <c r="X1184" s="3"/>
+      <c r="Y1184" s="3"/>
+      <c r="Z1184" s="3"/>
+      <c r="AA1184" s="3"/>
+      <c r="AB1184" s="3"/>
+      <c r="AC1184" s="3"/>
+    </row>
+    <row r="1185" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1185" s="3">
+        <v>1182</v>
+      </c>
+      <c r="B1185" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1185" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1185" s="3">
+        <v>182</v>
+      </c>
+      <c r="E1185" s="3">
+        <f t="shared" si="19"/>
+        <v>218</v>
+      </c>
+      <c r="F1185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1185" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1185" s="3"/>
+      <c r="I1185" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1185" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1185" s="3"/>
+      <c r="L1185" s="3"/>
+      <c r="M1185" s="3"/>
+      <c r="N1185" s="3"/>
+      <c r="O1185" s="3"/>
+      <c r="P1185" s="3"/>
+      <c r="Q1185" s="3"/>
+      <c r="R1185" s="3"/>
+      <c r="S1185" s="3"/>
+      <c r="T1185" s="3"/>
+      <c r="U1185" s="3"/>
+      <c r="V1185" s="3"/>
+      <c r="W1185" s="3"/>
+      <c r="X1185" s="3"/>
+      <c r="Y1185" s="3"/>
+      <c r="Z1185" s="3"/>
+      <c r="AA1185" s="3"/>
+      <c r="AB1185" s="3"/>
+      <c r="AC1185" s="3"/>
+    </row>
+    <row r="1186" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1186" s="3">
+        <v>1183</v>
+      </c>
+      <c r="B1186" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1186" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1186" s="3">
+        <v>183</v>
+      </c>
+      <c r="E1186" s="3">
+        <f t="shared" si="19"/>
+        <v>220</v>
+      </c>
+      <c r="F1186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1186" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1186" s="3"/>
+      <c r="I1186" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1186" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1186" s="3"/>
+      <c r="L1186" s="3"/>
+      <c r="M1186" s="3"/>
+      <c r="N1186" s="3"/>
+      <c r="O1186" s="3"/>
+      <c r="P1186" s="3"/>
+      <c r="Q1186" s="3"/>
+      <c r="R1186" s="3"/>
+      <c r="S1186" s="3"/>
+      <c r="T1186" s="3"/>
+      <c r="U1186" s="3"/>
+      <c r="V1186" s="3"/>
+      <c r="W1186" s="3"/>
+      <c r="X1186" s="3"/>
+      <c r="Y1186" s="3"/>
+      <c r="Z1186" s="3"/>
+      <c r="AA1186" s="3"/>
+      <c r="AB1186" s="3"/>
+      <c r="AC1186" s="3"/>
+    </row>
+    <row r="1187" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1187" s="3">
+        <v>1184</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1187" s="3">
+        <v>184</v>
+      </c>
+      <c r="E1187" s="3">
+        <f t="shared" si="19"/>
+        <v>221</v>
+      </c>
+      <c r="F1187" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1187" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1187" s="3"/>
+      <c r="I1187" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1187" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1187" s="3"/>
+      <c r="L1187" s="3"/>
+      <c r="M1187" s="3"/>
+      <c r="N1187" s="3"/>
+      <c r="O1187" s="3"/>
+      <c r="P1187" s="3"/>
+      <c r="Q1187" s="3"/>
+      <c r="R1187" s="3"/>
+      <c r="S1187" s="3"/>
+      <c r="T1187" s="3"/>
+      <c r="U1187" s="3"/>
+      <c r="V1187" s="3"/>
+      <c r="W1187" s="3"/>
+      <c r="X1187" s="3"/>
+      <c r="Y1187" s="3"/>
+      <c r="Z1187" s="3"/>
+      <c r="AA1187" s="3"/>
+      <c r="AB1187" s="3"/>
+      <c r="AC1187" s="3"/>
+    </row>
+    <row r="1188" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1188" s="3">
+        <v>1185</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1188" s="3">
+        <v>185</v>
+      </c>
+      <c r="E1188" s="3">
+        <f t="shared" si="19"/>
+        <v>222</v>
+      </c>
+      <c r="F1188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1188" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1188" s="3"/>
+      <c r="I1188" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1188" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1188" s="3"/>
+      <c r="L1188" s="3"/>
+      <c r="M1188" s="3"/>
+      <c r="N1188" s="3"/>
+      <c r="O1188" s="3"/>
+      <c r="P1188" s="3"/>
+      <c r="Q1188" s="3"/>
+      <c r="R1188" s="3"/>
+      <c r="S1188" s="3"/>
+      <c r="T1188" s="3"/>
+      <c r="U1188" s="3"/>
+      <c r="V1188" s="3"/>
+      <c r="W1188" s="3"/>
+      <c r="X1188" s="3"/>
+      <c r="Y1188" s="3"/>
+      <c r="Z1188" s="3"/>
+      <c r="AA1188" s="3"/>
+      <c r="AB1188" s="3"/>
+      <c r="AC1188" s="3"/>
+    </row>
+    <row r="1189" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1189" s="3">
+        <v>1186</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1189" s="3">
+        <v>186</v>
+      </c>
+      <c r="E1189" s="3">
+        <f t="shared" si="19"/>
+        <v>223</v>
+      </c>
+      <c r="F1189" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1189" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1189" s="3"/>
+      <c r="I1189" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1189" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1189" s="3"/>
+      <c r="L1189" s="3"/>
+      <c r="M1189" s="3"/>
+      <c r="N1189" s="3"/>
+      <c r="O1189" s="3"/>
+      <c r="P1189" s="3"/>
+      <c r="Q1189" s="3"/>
+      <c r="R1189" s="3"/>
+      <c r="S1189" s="3"/>
+      <c r="T1189" s="3"/>
+      <c r="U1189" s="3"/>
+      <c r="V1189" s="3"/>
+      <c r="W1189" s="3"/>
+      <c r="X1189" s="3"/>
+      <c r="Y1189" s="3"/>
+      <c r="Z1189" s="3"/>
+      <c r="AA1189" s="3"/>
+      <c r="AB1189" s="3"/>
+      <c r="AC1189" s="3"/>
+    </row>
+    <row r="1190" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1190" s="3">
+        <v>1187</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1190" s="3">
+        <v>187</v>
+      </c>
+      <c r="E1190" s="3">
+        <f t="shared" si="19"/>
+        <v>224</v>
+      </c>
+      <c r="F1190" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1190" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1190" s="3"/>
+      <c r="I1190" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1190" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1190" s="3"/>
+      <c r="L1190" s="3"/>
+      <c r="M1190" s="3"/>
+      <c r="N1190" s="3"/>
+      <c r="O1190" s="3"/>
+      <c r="P1190" s="3"/>
+      <c r="Q1190" s="3"/>
+      <c r="R1190" s="3"/>
+      <c r="S1190" s="3"/>
+      <c r="T1190" s="3"/>
+      <c r="U1190" s="3"/>
+      <c r="V1190" s="3"/>
+      <c r="W1190" s="3"/>
+      <c r="X1190" s="3"/>
+      <c r="Y1190" s="3"/>
+      <c r="Z1190" s="3"/>
+      <c r="AA1190" s="3"/>
+      <c r="AB1190" s="3"/>
+      <c r="AC1190" s="3"/>
+    </row>
+    <row r="1191" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1191" s="3">
+        <v>1188</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1191" s="3">
+        <v>188</v>
+      </c>
+      <c r="E1191" s="3">
+        <f t="shared" si="19"/>
+        <v>226</v>
+      </c>
+      <c r="F1191" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1191" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1191" s="3"/>
+      <c r="I1191" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1191" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1191" s="3"/>
+      <c r="L1191" s="3"/>
+      <c r="M1191" s="3"/>
+      <c r="N1191" s="3"/>
+      <c r="O1191" s="3"/>
+      <c r="P1191" s="3"/>
+      <c r="Q1191" s="3"/>
+      <c r="R1191" s="3"/>
+      <c r="S1191" s="3"/>
+      <c r="T1191" s="3"/>
+      <c r="U1191" s="3"/>
+      <c r="V1191" s="3"/>
+      <c r="W1191" s="3"/>
+      <c r="X1191" s="3"/>
+      <c r="Y1191" s="3"/>
+      <c r="Z1191" s="3"/>
+      <c r="AA1191" s="3"/>
+      <c r="AB1191" s="3"/>
+      <c r="AC1191" s="3"/>
+    </row>
+    <row r="1192" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1192" s="3">
+        <v>1189</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1192" s="3">
+        <v>189</v>
+      </c>
+      <c r="E1192" s="3">
+        <f t="shared" si="19"/>
+        <v>227</v>
+      </c>
+      <c r="F1192" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1192" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1192" s="3"/>
+      <c r="I1192" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1192" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1192" s="3"/>
+      <c r="L1192" s="3"/>
+      <c r="M1192" s="3"/>
+      <c r="N1192" s="3"/>
+      <c r="O1192" s="3"/>
+      <c r="P1192" s="3"/>
+      <c r="Q1192" s="3"/>
+      <c r="R1192" s="3"/>
+      <c r="S1192" s="3"/>
+      <c r="T1192" s="3"/>
+      <c r="U1192" s="3"/>
+      <c r="V1192" s="3"/>
+      <c r="W1192" s="3"/>
+      <c r="X1192" s="3"/>
+      <c r="Y1192" s="3"/>
+      <c r="Z1192" s="3"/>
+      <c r="AA1192" s="3"/>
+      <c r="AB1192" s="3"/>
+      <c r="AC1192" s="3"/>
+    </row>
+    <row r="1193" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1193" s="3">
+        <v>1190</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1193" s="3">
+        <v>190</v>
+      </c>
+      <c r="E1193" s="3">
+        <f t="shared" si="19"/>
+        <v>228</v>
+      </c>
+      <c r="F1193" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1193" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1193" s="3"/>
+      <c r="I1193" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1193" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K1193" s="3"/>
+      <c r="L1193" s="3"/>
+      <c r="M1193" s="3"/>
+      <c r="N1193" s="3"/>
+      <c r="O1193" s="3"/>
+      <c r="P1193" s="3"/>
+      <c r="Q1193" s="3"/>
+      <c r="R1193" s="3"/>
+      <c r="S1193" s="3"/>
+      <c r="T1193" s="3"/>
+      <c r="U1193" s="3"/>
+      <c r="V1193" s="3"/>
+      <c r="W1193" s="3"/>
+      <c r="X1193" s="3"/>
+      <c r="Y1193" s="3"/>
+      <c r="Z1193" s="3"/>
+      <c r="AA1193" s="3"/>
+      <c r="AB1193" s="3"/>
+      <c r="AC1193" s="3"/>
+    </row>
+    <row r="1194" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1194" s="3">
+        <v>1191</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1194" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1194" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1194" s="3"/>
+      <c r="I1194" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1194" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1194" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1194" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1194" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1194" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1194" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1194" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1194" s="3"/>
+      <c r="R1194" s="3"/>
+      <c r="S1194" s="3"/>
+      <c r="T1194" s="3"/>
+      <c r="U1194" s="3"/>
+      <c r="V1194" s="3"/>
+      <c r="W1194" s="3"/>
+      <c r="X1194" s="3"/>
+      <c r="Y1194" s="3"/>
+      <c r="Z1194" s="3"/>
+      <c r="AA1194" s="3"/>
+      <c r="AB1194" s="3"/>
+      <c r="AC1194" s="3"/>
+    </row>
+    <row r="1195" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1195" s="3">
+        <v>1192</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1195" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1195" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1195" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1195" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1195" s="3"/>
+      <c r="I1195" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1195" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1195" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1195" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1195" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1195" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1195" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1195" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1195" s="3"/>
+      <c r="R1195" s="3"/>
+      <c r="S1195" s="3"/>
+      <c r="T1195" s="3"/>
+      <c r="U1195" s="3"/>
+      <c r="V1195" s="3"/>
+      <c r="W1195" s="3"/>
+      <c r="X1195" s="3"/>
+      <c r="Y1195" s="3"/>
+      <c r="Z1195" s="3"/>
+      <c r="AA1195" s="3"/>
+      <c r="AB1195" s="3"/>
+      <c r="AC1195" s="3"/>
+    </row>
+    <row r="1196" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1196" s="3">
+        <v>1193</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1196" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1196" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1196" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1196" s="3"/>
+      <c r="I1196" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1196" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1196" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1196" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1196" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1196" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1196" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1196" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1196" s="3"/>
+      <c r="R1196" s="3"/>
+      <c r="S1196" s="3"/>
+      <c r="T1196" s="3"/>
+      <c r="U1196" s="3"/>
+      <c r="V1196" s="3"/>
+      <c r="W1196" s="3"/>
+      <c r="X1196" s="3"/>
+      <c r="Y1196" s="3"/>
+      <c r="Z1196" s="3"/>
+      <c r="AA1196" s="3"/>
+      <c r="AB1196" s="3"/>
+      <c r="AC1196" s="3"/>
+    </row>
+    <row r="1197" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1197" s="3">
+        <v>1194</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1197" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1197" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1197" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1197" s="3"/>
+      <c r="I1197" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1197" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1197" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1197" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1197" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1197" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1197" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1197" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1197" s="3"/>
+      <c r="R1197" s="3"/>
+      <c r="S1197" s="3"/>
+      <c r="T1197" s="3"/>
+      <c r="U1197" s="3"/>
+      <c r="V1197" s="3"/>
+      <c r="W1197" s="3"/>
+      <c r="X1197" s="3"/>
+      <c r="Y1197" s="3"/>
+      <c r="Z1197" s="3"/>
+      <c r="AA1197" s="3"/>
+      <c r="AB1197" s="3"/>
+      <c r="AC1197" s="3"/>
+    </row>
+    <row r="1198" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1198" s="3">
+        <v>1195</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1198" s="3">
+        <v>5</v>
+      </c>
+      <c r="E1198" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1198" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1198" s="3"/>
+      <c r="I1198" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1198" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1198" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1198" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1198" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1198" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1198" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1198" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1198" s="3"/>
+      <c r="R1198" s="3"/>
+      <c r="S1198" s="3"/>
+      <c r="T1198" s="3"/>
+      <c r="U1198" s="3"/>
+      <c r="V1198" s="3"/>
+      <c r="W1198" s="3"/>
+      <c r="X1198" s="3"/>
+      <c r="Y1198" s="3"/>
+      <c r="Z1198" s="3"/>
+      <c r="AA1198" s="3"/>
+      <c r="AB1198" s="3"/>
+      <c r="AC1198" s="3"/>
+    </row>
+    <row r="1199" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1199" s="3">
+        <v>1196</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1199" s="3">
+        <v>6</v>
+      </c>
+      <c r="E1199" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1199" s="3"/>
+      <c r="I1199" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1199" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1199" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1199" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1199" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1199" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1199" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1199" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1199" s="3"/>
+      <c r="R1199" s="3"/>
+      <c r="S1199" s="3"/>
+      <c r="T1199" s="3"/>
+      <c r="U1199" s="3"/>
+      <c r="V1199" s="3"/>
+      <c r="W1199" s="3"/>
+      <c r="X1199" s="3"/>
+      <c r="Y1199" s="3"/>
+      <c r="Z1199" s="3"/>
+      <c r="AA1199" s="3"/>
+      <c r="AB1199" s="3"/>
+      <c r="AC1199" s="3"/>
+    </row>
+    <row r="1200" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1200" s="3">
+        <v>1197</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1200" s="3">
+        <v>7</v>
+      </c>
+      <c r="E1200" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1200" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1200" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1200" s="3"/>
+      <c r="I1200" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1200" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1200" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1200" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1200" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1200" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1200" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1200" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1200" s="3"/>
+      <c r="R1200" s="3"/>
+      <c r="S1200" s="3"/>
+      <c r="T1200" s="3"/>
+      <c r="U1200" s="3"/>
+      <c r="V1200" s="3"/>
+      <c r="W1200" s="3"/>
+      <c r="X1200" s="3"/>
+      <c r="Y1200" s="3"/>
+      <c r="Z1200" s="3"/>
+      <c r="AA1200" s="3"/>
+      <c r="AB1200" s="3"/>
+      <c r="AC1200" s="3"/>
+    </row>
+    <row r="1201" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1201" s="3">
+        <v>1198</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1201" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1201" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1201" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1201" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1201" s="3"/>
+      <c r="I1201" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1201" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1201" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1201" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1201" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1201" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1201" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1201" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1201" s="3"/>
+      <c r="R1201" s="3"/>
+      <c r="S1201" s="3"/>
+      <c r="T1201" s="3"/>
+      <c r="U1201" s="3"/>
+      <c r="V1201" s="3"/>
+      <c r="W1201" s="3"/>
+      <c r="X1201" s="3"/>
+      <c r="Y1201" s="3"/>
+      <c r="Z1201" s="3"/>
+      <c r="AA1201" s="3"/>
+      <c r="AB1201" s="3"/>
+      <c r="AC1201" s="3"/>
+    </row>
+    <row r="1202" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1202" s="3">
+        <v>1199</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1202" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1202" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1202" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1202" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1202" s="3"/>
+      <c r="I1202" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1202" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1202" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1202" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1202" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1202" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1202" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1202" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1202" s="3"/>
+      <c r="R1202" s="3"/>
+      <c r="S1202" s="3"/>
+      <c r="T1202" s="3"/>
+      <c r="U1202" s="3"/>
+      <c r="V1202" s="3"/>
+      <c r="W1202" s="3"/>
+      <c r="X1202" s="3"/>
+      <c r="Y1202" s="3"/>
+      <c r="Z1202" s="3"/>
+      <c r="AA1202" s="3"/>
+      <c r="AB1202" s="3"/>
+      <c r="AC1202" s="3"/>
+    </row>
+    <row r="1203" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1203" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1203" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1203" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1203" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1203" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1203" s="3"/>
+      <c r="I1203" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1203" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1203" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1203" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1203" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1203" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1203" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1203" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1203" s="3"/>
+      <c r="R1203" s="3"/>
+      <c r="S1203" s="3"/>
+      <c r="T1203" s="3"/>
+      <c r="U1203" s="3"/>
+      <c r="V1203" s="3"/>
+      <c r="W1203" s="3"/>
+      <c r="X1203" s="3"/>
+      <c r="Y1203" s="3"/>
+      <c r="Z1203" s="3"/>
+      <c r="AA1203" s="3"/>
+      <c r="AB1203" s="3"/>
+      <c r="AC1203" s="3"/>
+    </row>
+    <row r="1204" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1204" s="3">
+        <v>1201</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1204" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1204" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1204" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1204" s="3"/>
+      <c r="I1204" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1204" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1204" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1204" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1204" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1204" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1204" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1204" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1204" s="3"/>
+      <c r="R1204" s="3"/>
+      <c r="S1204" s="3"/>
+      <c r="T1204" s="3"/>
+      <c r="U1204" s="3"/>
+      <c r="V1204" s="3"/>
+      <c r="W1204" s="3"/>
+      <c r="X1204" s="3"/>
+      <c r="Y1204" s="3"/>
+      <c r="Z1204" s="3"/>
+      <c r="AA1204" s="3"/>
+      <c r="AB1204" s="3"/>
+      <c r="AC1204" s="3"/>
+    </row>
+    <row r="1205" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1205" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1205" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1205" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1205" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1205" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1205" s="3"/>
+      <c r="I1205" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1205" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1205" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1205" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1205" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1205" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1205" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1205" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1205" s="3"/>
+      <c r="R1205" s="3"/>
+      <c r="S1205" s="3"/>
+      <c r="T1205" s="3"/>
+      <c r="U1205" s="3"/>
+      <c r="V1205" s="3"/>
+      <c r="W1205" s="3"/>
+      <c r="X1205" s="3"/>
+      <c r="Y1205" s="3"/>
+      <c r="Z1205" s="3"/>
+      <c r="AA1205" s="3"/>
+      <c r="AB1205" s="3"/>
+      <c r="AC1205" s="3"/>
+    </row>
+    <row r="1206" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1206" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1206" s="3">
+        <v>5</v>
+      </c>
+      <c r="E1206" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1206" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1206" s="3"/>
+      <c r="I1206" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1206" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1206" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1206" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1206" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1206" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1206" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1206" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1206" s="3"/>
+      <c r="R1206" s="3"/>
+      <c r="S1206" s="3"/>
+      <c r="T1206" s="3"/>
+      <c r="U1206" s="3"/>
+      <c r="V1206" s="3"/>
+      <c r="W1206" s="3"/>
+      <c r="X1206" s="3"/>
+      <c r="Y1206" s="3"/>
+      <c r="Z1206" s="3"/>
+      <c r="AA1206" s="3"/>
+      <c r="AB1206" s="3"/>
+      <c r="AC1206" s="3"/>
+    </row>
+    <row r="1207" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1207" s="3">
+        <v>1204</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1207" s="3">
+        <v>6</v>
+      </c>
+      <c r="E1207" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1207" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1207" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1207" s="3"/>
+      <c r="I1207" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1207" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1207" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1207" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1207" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1207" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1207" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1207" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1207" s="3"/>
+      <c r="R1207" s="3"/>
+      <c r="S1207" s="3"/>
+      <c r="T1207" s="3"/>
+      <c r="U1207" s="3"/>
+      <c r="V1207" s="3"/>
+      <c r="W1207" s="3"/>
+      <c r="X1207" s="3"/>
+      <c r="Y1207" s="3"/>
+      <c r="Z1207" s="3"/>
+      <c r="AA1207" s="3"/>
+      <c r="AB1207" s="3"/>
+      <c r="AC1207" s="3"/>
+    </row>
+    <row r="1208" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1208" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1208" s="3">
+        <v>7</v>
+      </c>
+      <c r="E1208" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1208" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1208" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1208" s="3"/>
+      <c r="I1208" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1208" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1208" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1208" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1208" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1208" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1208" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1208" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1208" s="3"/>
+      <c r="R1208" s="3"/>
+      <c r="S1208" s="3"/>
+      <c r="T1208" s="3"/>
+      <c r="U1208" s="3"/>
+      <c r="V1208" s="3"/>
+      <c r="W1208" s="3"/>
+      <c r="X1208" s="3"/>
+      <c r="Y1208" s="3"/>
+      <c r="Z1208" s="3"/>
+      <c r="AA1208" s="3"/>
+      <c r="AB1208" s="3"/>
+      <c r="AC1208" s="3"/>
+    </row>
+    <row r="1209" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1209" s="3">
+        <v>1206</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1209" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1209" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1209" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1209" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1209" s="3"/>
+      <c r="I1209" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1209" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1209" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1209" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1209" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1209" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1209" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1209" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1209" s="3"/>
+      <c r="R1209" s="3"/>
+      <c r="S1209" s="3"/>
+      <c r="T1209" s="3"/>
+      <c r="U1209" s="3"/>
+      <c r="V1209" s="3"/>
+      <c r="W1209" s="3"/>
+      <c r="X1209" s="3"/>
+      <c r="Y1209" s="3"/>
+      <c r="Z1209" s="3"/>
+      <c r="AA1209" s="3"/>
+      <c r="AB1209" s="3"/>
+      <c r="AC1209" s="3"/>
+    </row>
+    <row r="1210" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1210" s="3">
+        <v>1207</v>
+      </c>
+      <c r="B1210" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1210" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1210" s="3"/>
+      <c r="I1210" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1210" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1210" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1210" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1210" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1210" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1210" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1210" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1210" s="3"/>
+      <c r="R1210" s="3"/>
+      <c r="S1210" s="3"/>
+      <c r="T1210" s="3"/>
+      <c r="U1210" s="3"/>
+      <c r="V1210" s="3"/>
+      <c r="W1210" s="3"/>
+      <c r="X1210" s="3"/>
+      <c r="Y1210" s="3"/>
+      <c r="Z1210" s="3"/>
+      <c r="AA1210" s="3"/>
+      <c r="AB1210" s="3"/>
+      <c r="AC1210" s="3"/>
+    </row>
+    <row r="1211" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1211" s="3">
+        <v>1208</v>
+      </c>
+      <c r="B1211" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1211" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1211" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1211" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1211" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1211" s="3"/>
+      <c r="I1211" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1211" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1211" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1211" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1211" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1211" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1211" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1211" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1211" s="3"/>
+      <c r="R1211" s="3"/>
+      <c r="S1211" s="3"/>
+      <c r="T1211" s="3"/>
+      <c r="U1211" s="3"/>
+      <c r="V1211" s="3"/>
+      <c r="W1211" s="3"/>
+      <c r="X1211" s="3"/>
+      <c r="Y1211" s="3"/>
+      <c r="Z1211" s="3"/>
+      <c r="AA1211" s="3"/>
+      <c r="AB1211" s="3"/>
+      <c r="AC1211" s="3"/>
+    </row>
+    <row r="1212" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1212" s="3">
+        <v>1209</v>
+      </c>
+      <c r="B1212" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1212" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1212" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1212" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1212" s="3"/>
+      <c r="I1212" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1212" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1212" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1212" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1212" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1212" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1212" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1212" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1212" s="3"/>
+      <c r="R1212" s="3"/>
+      <c r="S1212" s="3"/>
+      <c r="T1212" s="3"/>
+      <c r="U1212" s="3"/>
+      <c r="V1212" s="3"/>
+      <c r="W1212" s="3"/>
+      <c r="X1212" s="3"/>
+      <c r="Y1212" s="3"/>
+      <c r="Z1212" s="3"/>
+      <c r="AA1212" s="3"/>
+      <c r="AB1212" s="3"/>
+      <c r="AC1212" s="3"/>
+    </row>
+    <row r="1213" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1213" s="3">
+        <v>1210</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1213" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1213" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1213" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1213" s="3"/>
+      <c r="I1213" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1213" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1213" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1213" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1213" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1213" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1213" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1213" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1213" s="3"/>
+      <c r="R1213" s="3"/>
+      <c r="S1213" s="3"/>
+      <c r="T1213" s="3"/>
+      <c r="U1213" s="3"/>
+      <c r="V1213" s="3"/>
+      <c r="W1213" s="3"/>
+      <c r="X1213" s="3"/>
+      <c r="Y1213" s="3"/>
+      <c r="Z1213" s="3"/>
+      <c r="AA1213" s="3"/>
+      <c r="AB1213" s="3"/>
+      <c r="AC1213" s="3"/>
+    </row>
+    <row r="1214" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1214" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B1214" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1214" s="3">
+        <v>5</v>
+      </c>
+      <c r="E1214" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1214" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1214" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1214" s="3"/>
+      <c r="I1214" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1214" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1214" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1214" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1214" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1214" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1214" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1214" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1214" s="3"/>
+      <c r="R1214" s="3"/>
+      <c r="S1214" s="3"/>
+      <c r="T1214" s="3"/>
+      <c r="U1214" s="3"/>
+      <c r="V1214" s="3"/>
+      <c r="W1214" s="3"/>
+      <c r="X1214" s="3"/>
+      <c r="Y1214" s="3"/>
+      <c r="Z1214" s="3"/>
+      <c r="AA1214" s="3"/>
+      <c r="AB1214" s="3"/>
+      <c r="AC1214" s="3"/>
+    </row>
+    <row r="1215" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1215" s="3">
+        <v>1212</v>
+      </c>
+      <c r="B1215" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1215" s="3">
+        <v>6</v>
+      </c>
+      <c r="E1215" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1215" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1215" s="3"/>
+      <c r="I1215" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1215" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1215" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1215" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1215" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1215" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1215" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1215" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1215" s="3"/>
+      <c r="R1215" s="3"/>
+      <c r="S1215" s="3"/>
+      <c r="T1215" s="3"/>
+      <c r="U1215" s="3"/>
+      <c r="V1215" s="3"/>
+      <c r="W1215" s="3"/>
+      <c r="X1215" s="3"/>
+      <c r="Y1215" s="3"/>
+      <c r="Z1215" s="3"/>
+      <c r="AA1215" s="3"/>
+      <c r="AB1215" s="3"/>
+      <c r="AC1215" s="3"/>
+    </row>
+    <row r="1216" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1216" s="3">
+        <v>1213</v>
+      </c>
+      <c r="B1216" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1216" s="3">
+        <v>7</v>
+      </c>
+      <c r="E1216" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1216" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1216" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1216" s="3"/>
+      <c r="I1216" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1216" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1216" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1216" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1216" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1216" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1216" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1216" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1216" s="3"/>
+      <c r="R1216" s="3"/>
+      <c r="S1216" s="3"/>
+      <c r="T1216" s="3"/>
+      <c r="U1216" s="3"/>
+      <c r="V1216" s="3"/>
+      <c r="W1216" s="3"/>
+      <c r="X1216" s="3"/>
+      <c r="Y1216" s="3"/>
+      <c r="Z1216" s="3"/>
+      <c r="AA1216" s="3"/>
+      <c r="AB1216" s="3"/>
+      <c r="AC1216" s="3"/>
+    </row>
+    <row r="1217" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1217" s="3">
+        <v>1214</v>
+      </c>
+      <c r="B1217" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1217" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1217" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1217" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1217" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1217" s="3"/>
+      <c r="I1217" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1217" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1217" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1217" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1217" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1217" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1217" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1217" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1217" s="3"/>
+      <c r="R1217" s="3"/>
+      <c r="S1217" s="3"/>
+      <c r="T1217" s="3"/>
+      <c r="U1217" s="3"/>
+      <c r="V1217" s="3"/>
+      <c r="W1217" s="3"/>
+      <c r="X1217" s="3"/>
+      <c r="Y1217" s="3"/>
+      <c r="Z1217" s="3"/>
+      <c r="AA1217" s="3"/>
+      <c r="AB1217" s="3"/>
+      <c r="AC1217" s="3"/>
+    </row>
+    <row r="1218" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1218" s="3">
+        <v>1215</v>
+      </c>
+      <c r="B1218" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1218" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1218" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1218" s="3"/>
+      <c r="I1218" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1218" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1218" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1218" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1218" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1218" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1218" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1218" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1218" s="3"/>
+      <c r="R1218" s="3"/>
+      <c r="S1218" s="3"/>
+      <c r="T1218" s="3"/>
+      <c r="U1218" s="3"/>
+      <c r="V1218" s="3"/>
+      <c r="W1218" s="3"/>
+      <c r="X1218" s="3"/>
+      <c r="Y1218" s="3"/>
+      <c r="Z1218" s="3"/>
+      <c r="AA1218" s="3"/>
+      <c r="AB1218" s="3"/>
+      <c r="AC1218" s="3"/>
+    </row>
+    <row r="1219" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1219" s="3">
+        <v>1216</v>
+      </c>
+      <c r="B1219" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1219" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1219" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1219" s="3"/>
+      <c r="I1219" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1219" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1219" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1219" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1219" s="3"/>
+      <c r="R1219" s="3"/>
+      <c r="S1219" s="3"/>
+      <c r="T1219" s="3"/>
+      <c r="U1219" s="3"/>
+      <c r="V1219" s="3"/>
+      <c r="W1219" s="3"/>
+      <c r="X1219" s="3"/>
+      <c r="Y1219" s="3"/>
+      <c r="Z1219" s="3"/>
+      <c r="AA1219" s="3"/>
+      <c r="AB1219" s="3"/>
+      <c r="AC1219" s="3"/>
+    </row>
+    <row r="1220" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1220" s="3">
+        <v>1217</v>
+      </c>
+      <c r="B1220" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1220" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1220" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1220" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1220" s="3"/>
+      <c r="I1220" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1220" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1220" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1220" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1220" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1220" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1220" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1220" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1220" s="3"/>
+      <c r="R1220" s="3"/>
+      <c r="S1220" s="3"/>
+      <c r="T1220" s="3"/>
+      <c r="U1220" s="3"/>
+      <c r="V1220" s="3"/>
+      <c r="W1220" s="3"/>
+      <c r="X1220" s="3"/>
+      <c r="Y1220" s="3"/>
+      <c r="Z1220" s="3"/>
+      <c r="AA1220" s="3"/>
+      <c r="AB1220" s="3"/>
+      <c r="AC1220" s="3"/>
+    </row>
+    <row r="1221" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1221" s="3">
+        <v>1218</v>
+      </c>
+      <c r="B1221" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1221" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1221" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1221" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1221" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1221" s="3"/>
+      <c r="I1221" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1221" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1221" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1221" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1221" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1221" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1221" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1221" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1221" s="3"/>
+      <c r="R1221" s="3"/>
+      <c r="S1221" s="3"/>
+      <c r="T1221" s="3"/>
+      <c r="U1221" s="3"/>
+      <c r="V1221" s="3"/>
+      <c r="W1221" s="3"/>
+      <c r="X1221" s="3"/>
+      <c r="Y1221" s="3"/>
+      <c r="Z1221" s="3"/>
+      <c r="AA1221" s="3"/>
+      <c r="AB1221" s="3"/>
+      <c r="AC1221" s="3"/>
+    </row>
+    <row r="1222" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1222" s="3">
+        <v>1219</v>
+      </c>
+      <c r="B1222" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1222" s="3">
+        <v>5</v>
+      </c>
+      <c r="E1222" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1222" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1222" s="3"/>
+      <c r="I1222" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1222" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1222" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1222" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1222" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1222" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1222" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1222" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1222" s="3"/>
+      <c r="R1222" s="3"/>
+      <c r="S1222" s="3"/>
+      <c r="T1222" s="3"/>
+      <c r="U1222" s="3"/>
+      <c r="V1222" s="3"/>
+      <c r="W1222" s="3"/>
+      <c r="X1222" s="3"/>
+      <c r="Y1222" s="3"/>
+      <c r="Z1222" s="3"/>
+      <c r="AA1222" s="3"/>
+      <c r="AB1222" s="3"/>
+      <c r="AC1222" s="3"/>
+    </row>
+    <row r="1223" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1223" s="3">
+        <v>1220</v>
+      </c>
+      <c r="B1223" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1223" s="3">
+        <v>6</v>
+      </c>
+      <c r="E1223" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1223" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1223" s="3"/>
+      <c r="I1223" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1223" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1223" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1223" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1223" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1223" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1223" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1223" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1223" s="3"/>
+      <c r="R1223" s="3"/>
+      <c r="S1223" s="3"/>
+      <c r="T1223" s="3"/>
+      <c r="U1223" s="3"/>
+      <c r="V1223" s="3"/>
+      <c r="W1223" s="3"/>
+      <c r="X1223" s="3"/>
+      <c r="Y1223" s="3"/>
+      <c r="Z1223" s="3"/>
+      <c r="AA1223" s="3"/>
+      <c r="AB1223" s="3"/>
+      <c r="AC1223" s="3"/>
+    </row>
+    <row r="1224" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1224" s="3">
+        <v>1221</v>
+      </c>
+      <c r="B1224" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1224" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1224" s="3">
+        <v>7</v>
+      </c>
+      <c r="E1224" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1224" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1224" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1224" s="3"/>
+      <c r="I1224" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1224" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1224" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1224" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1224" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1224" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1224" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1224" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1224" s="3"/>
+      <c r="R1224" s="3"/>
+      <c r="S1224" s="3"/>
+      <c r="T1224" s="3"/>
+      <c r="U1224" s="3"/>
+      <c r="V1224" s="3"/>
+      <c r="W1224" s="3"/>
+      <c r="X1224" s="3"/>
+      <c r="Y1224" s="3"/>
+      <c r="Z1224" s="3"/>
+      <c r="AA1224" s="3"/>
+      <c r="AB1224" s="3"/>
+      <c r="AC1224" s="3"/>
+    </row>
+    <row r="1225" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1225" s="3">
+        <v>1222</v>
+      </c>
+      <c r="B1225" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1225" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1225" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1225" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1225" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1225" s="3"/>
+      <c r="I1225" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1225" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1225" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1225" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1225" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N1225" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1225" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1225" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1225" s="3"/>
+      <c r="R1225" s="3"/>
+      <c r="S1225" s="3"/>
+      <c r="T1225" s="3"/>
+      <c r="U1225" s="3"/>
+      <c r="V1225" s="3"/>
+      <c r="W1225" s="3"/>
+      <c r="X1225" s="3"/>
+      <c r="Y1225" s="3"/>
+      <c r="Z1225" s="3"/>
+      <c r="AA1225" s="3"/>
+      <c r="AB1225" s="3"/>
+      <c r="AC1225" s="3"/>
+    </row>
+    <row r="1226" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1226" s="3">
+        <v>1223</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1226" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1226" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1226" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1226" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1226" s="3"/>
+      <c r="I1226" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1226" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1226" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1226" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1226" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1226" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1226" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1226" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1226" s="3"/>
+      <c r="R1226" s="3"/>
+      <c r="S1226" s="3"/>
+      <c r="T1226" s="3"/>
+      <c r="U1226" s="3"/>
+      <c r="V1226" s="3"/>
+      <c r="W1226" s="3"/>
+      <c r="X1226" s="3"/>
+      <c r="Y1226" s="3"/>
+      <c r="Z1226" s="3"/>
+      <c r="AA1226" s="3"/>
+      <c r="AB1226" s="3"/>
+      <c r="AC1226" s="3"/>
+    </row>
+    <row r="1227" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1227" s="3">
+        <v>1224</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1227" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1227" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1227" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1227" s="3"/>
+      <c r="I1227" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1227" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1227" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1227" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1227" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1227" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1227" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1227" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1227" s="3"/>
+      <c r="R1227" s="3"/>
+      <c r="S1227" s="3"/>
+      <c r="T1227" s="3"/>
+      <c r="U1227" s="3"/>
+      <c r="V1227" s="3"/>
+      <c r="W1227" s="3"/>
+      <c r="X1227" s="3"/>
+      <c r="Y1227" s="3"/>
+      <c r="Z1227" s="3"/>
+      <c r="AA1227" s="3"/>
+      <c r="AB1227" s="3"/>
+      <c r="AC1227" s="3"/>
+    </row>
+    <row r="1228" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1228" s="3">
+        <v>1225</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1228" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1228" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1228" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1228" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1228" s="3"/>
+      <c r="I1228" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1228" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1228" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1228" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1228" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1228" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1228" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1228" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1228" s="3"/>
+      <c r="R1228" s="3"/>
+      <c r="S1228" s="3"/>
+      <c r="T1228" s="3"/>
+      <c r="U1228" s="3"/>
+      <c r="V1228" s="3"/>
+      <c r="W1228" s="3"/>
+      <c r="X1228" s="3"/>
+      <c r="Y1228" s="3"/>
+      <c r="Z1228" s="3"/>
+      <c r="AA1228" s="3"/>
+      <c r="AB1228" s="3"/>
+      <c r="AC1228" s="3"/>
+    </row>
+    <row r="1229" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1229" s="3">
+        <v>1226</v>
+      </c>
+      <c r="B1229" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1229" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1229" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1229" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1229" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1229" s="3"/>
+      <c r="I1229" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1229" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1229" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1229" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1229" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1229" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1229" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1229" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1229" s="3"/>
+      <c r="R1229" s="3"/>
+      <c r="S1229" s="3"/>
+      <c r="T1229" s="3"/>
+      <c r="U1229" s="3"/>
+      <c r="V1229" s="3"/>
+      <c r="W1229" s="3"/>
+      <c r="X1229" s="3"/>
+      <c r="Y1229" s="3"/>
+      <c r="Z1229" s="3"/>
+      <c r="AA1229" s="3"/>
+      <c r="AB1229" s="3"/>
+      <c r="AC1229" s="3"/>
+    </row>
+    <row r="1230" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1230" s="3">
+        <v>1227</v>
+      </c>
+      <c r="B1230" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1230" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1230" s="3">
+        <v>5</v>
+      </c>
+      <c r="E1230" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1230" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1230" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1230" s="3"/>
+      <c r="I1230" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1230" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1230" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1230" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1230" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1230" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1230" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1230" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1230" s="3"/>
+      <c r="R1230" s="3"/>
+      <c r="S1230" s="3"/>
+      <c r="T1230" s="3"/>
+      <c r="U1230" s="3"/>
+      <c r="V1230" s="3"/>
+      <c r="W1230" s="3"/>
+      <c r="X1230" s="3"/>
+      <c r="Y1230" s="3"/>
+      <c r="Z1230" s="3"/>
+      <c r="AA1230" s="3"/>
+      <c r="AB1230" s="3"/>
+      <c r="AC1230" s="3"/>
+    </row>
+    <row r="1231" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1231" s="3">
+        <v>1228</v>
+      </c>
+      <c r="B1231" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1231" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1231" s="3">
+        <v>6</v>
+      </c>
+      <c r="E1231" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1231" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1231" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1231" s="3"/>
+      <c r="I1231" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1231" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1231" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1231" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1231" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1231" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1231" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1231" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1231" s="3"/>
+      <c r="R1231" s="3"/>
+      <c r="S1231" s="3"/>
+      <c r="T1231" s="3"/>
+      <c r="U1231" s="3"/>
+      <c r="V1231" s="3"/>
+      <c r="W1231" s="3"/>
+      <c r="X1231" s="3"/>
+      <c r="Y1231" s="3"/>
+      <c r="Z1231" s="3"/>
+      <c r="AA1231" s="3"/>
+      <c r="AB1231" s="3"/>
+      <c r="AC1231" s="3"/>
+    </row>
+    <row r="1232" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1232" s="3">
+        <v>1229</v>
+      </c>
+      <c r="B1232" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1232" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1232" s="3">
+        <v>7</v>
+      </c>
+      <c r="E1232" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1232" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1232" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1232" s="3"/>
+      <c r="I1232" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1232" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1232" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1232" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1232" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1232" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1232" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1232" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1232" s="3"/>
+      <c r="R1232" s="3"/>
+      <c r="S1232" s="3"/>
+      <c r="T1232" s="3"/>
+      <c r="U1232" s="3"/>
+      <c r="V1232" s="3"/>
+      <c r="W1232" s="3"/>
+      <c r="X1232" s="3"/>
+      <c r="Y1232" s="3"/>
+      <c r="Z1232" s="3"/>
+      <c r="AA1232" s="3"/>
+      <c r="AB1232" s="3"/>
+      <c r="AC1232" s="3"/>
+    </row>
+    <row r="1233" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1233" s="3">
+        <v>1230</v>
+      </c>
+      <c r="B1233" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1233" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1233" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1233" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1233" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1233" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1233" s="3"/>
+      <c r="I1233" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1233" s="3">
+        <v>2</v>
+      </c>
+      <c r="K1233" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1233" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1233" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1233" s="3">
+        <v>2</v>
+      </c>
+      <c r="O1233" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1233" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q1233" s="3"/>
+      <c r="R1233" s="3"/>
+      <c r="S1233" s="3"/>
+      <c r="T1233" s="3"/>
+      <c r="U1233" s="3"/>
+      <c r="V1233" s="3"/>
+      <c r="W1233" s="3"/>
+      <c r="X1233" s="3"/>
+      <c r="Y1233" s="3"/>
+      <c r="Z1233" s="3"/>
+      <c r="AA1233" s="3"/>
+      <c r="AB1233" s="3"/>
+      <c r="AC1233" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
